--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,14 +15,14 @@
     <sheet name="shell concepts" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="embedded_linux" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="kernel_programming" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="linux_device_driver" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="651">
   <si>
     <t>Sr No</t>
   </si>
@@ -3797,15 +3797,13 @@
     <t>ktype</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - Kobjects are associated with a specific type, called a ktype.
 - Ktypes are represented by struct kobj_type and defined in &lt;linux/kobject.h&gt; :
 - Ktypes have the simple job of describing default behavior for a family of kobjects.
 - Instead of each kobject defining its own behavior, the behavior is stored in a ktype, and kobjects of the same “type” point at the same ktype structure, thus sharing the same behavior.
 - The release pointer points to the deconstructor called when a kobject’s reference count reaches zero.This function is responsible for freeing any memory associated with this kobject and otherwise cleaning up.
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -3854,8 +3852,7 @@
     <t>Managing and Manipulating Kobjects</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - The first step in using a kobject is declaring and initializing it. this is done using following which is declared in &lt;linux/kobject.h&gt; :
     struct kobject * kobject_create(void);
 - After initialization, the kobject’s reference count is set to one. So long as the reference count is nonzero, the object continues to exist in memory and is said to be pinned.
@@ -3864,7 +3861,6 @@
     struct kobject * kobject_get(struct kobject *kobj); // increment reference count (getting)
     void kobject_put(struct kobject *kobj); // decrement reference count (putting)
 </t>
-    </r>
   </si>
   <si>
     <t>sysfs</t>
@@ -3945,8 +3941,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 - default attributes
     The attribute structure is defined in &lt;linux/sysfs.h&gt; :
     /* attribute structure - attributes map kernel data to a sysfs file */
@@ -3963,7 +3958,6 @@
         ssize_t (*store) (struct kobject *kobj, struct attribute *attr, const char *buffer, size_t size);
     };
 </t>
-    </r>
   </si>
   <si>
     <t>The Kernel Events Layer</t>
@@ -3979,6 +3973,210 @@
     - The first parameter specifies the kobject emitting this signal.
     - The second parameter specifies the action or verb describing this signal.The actual kernel event contains a string that maps to the provided enum kobject_action value.
 - This and related functions are defined in lib/kobject_uevent.c and declared in &lt;linux/kobject.h&gt; .
+</t>
+  </si>
+  <si>
+    <t>Char Drivers</t>
+  </si>
+  <si>
+    <t>Major and Minor Numbers</t>
+  </si>
+  <si>
+    <t>
+- the major number identifies the driver associated with the device.
+- The minor number is used by the kernel to determine exactly which device is being referred to.
+</t>
+  </si>
+  <si>
+    <t>The Internal Representation of Device Numbers</t>
+  </si>
+  <si>
+    <t>
+- Within the kernel, the dev_t type (defined in &lt;linux/types.h&gt;) is used to hold device numbers—both the major and minor parts.
+- To obtain the major or minor parts of a dev_t , use:
+    MAJOR(dev_t dev);
+    MINOR(dev_t dev);
+- If, instead, you have the major and minor numbers and need to turn them into a dev_t ,use:
+    MKDEV(int major, int minor);
+</t>
+  </si>
+  <si>
+    <t>Allocating and Freeing Device Numbers</t>
+  </si>
+  <si>
+    <t>
+- One of the first things your driver will need to do when setting up a char device is to obtain one or more device numbers to work with. 
+- The necessary function for this task is register_chrdev_region, which is declared in &lt;linux/fs.h&gt;:
+    int register_chrdev_region(dev_t first, unsigned int count, char *name);
+    - first is the beginning device number of the range you would like to allocate. The minor number portion of first is often 0.
+    - count is the total number of contiguous device numbers you are requesting.
+    - name is the name of the device that should be associated with this number range; it will appear in /proc/devices and sysfs
+    - the return value from register_chrdev_region will be 0 if the allocation was successfully performed. In case of error, a negative error code will be returned.
+- The kernel will allocate a major number for you on the fly, by using a function:
+    int alloc_chrdev_region(dev_t *dev, unsigned int firstminor, unsigned int count, char *name);
+    - With this function, dev is an output-only parameter that will, on successful completion, hold the first number in your allocated range.
+    - firstminor should be the requested first minor number to use; it is usually 0.
+- Regardless of how you allocate your device numbers, you should free them when they are no longer in use. Device numbers are freed with:
+    void unregister_chrdev_region(dev_t first, unsigned int count);
+- The disadvantage of dynamic assignment is that you can’t create the device nodes in advance, because the major number assigned to your module will vary. 
+- For normal use of the driver, this is hardly a problem, because once the number has been assigned, you can read it from /proc/devices.
+</t>
+  </si>
+  <si>
+    <t>Some Important Data Structures</t>
+  </si>
+  <si>
+    <t>
+- Most of the fundamental driver operations involve three important kernel data structures, called file_operations , file ,and inode .
+- File Operations
+- we have reserved some device numbers for our use, but we have not yet con nected any of our driver’s operations to those numbers. 
+- The file_operations structure is how a char driver sets up this connection.
+- The structure, defined in &lt;linux/fs.h&gt;, is a collection of function pointers.
+- Each field in the structure must point to the function in the driver that implements a specific operation, or be left NULL for unsupported operations.
+- The file Structure
+- struct file , defined in &lt;linux/fs.h&gt;, is the second most important data structure used in device drivers.
+- The file structure represents an open file. (It is not specific to device drivers; every open file in the system has an associated struct file in kernel space.) 
+- It is created by the kernel on open and is passed to any function that operates on the file, until the last close. After all instances of the file are closed, the kernel releases the data structure.
+- The inode Structure
+- The inode structure is used by the kernel internally to represent files. Therefore, it is different from the file structure that represents an open file descriptor.
+- There can be numerous file structures representing multiple open descriptors on a single file, but they all point to a single inode structure.
+- The inode structure contains a great deal of information about the file. As a general rule, only two fields of this structure are of interest for writing driver code:
+    dev_t i_rdev;
+    For inodes that represent device files, this field contains the actual device number.
+    struct cdev *i_cdev;
+    struct cdev is the kernel’s internal structure that represents char devices; this field contains a pointer to that structure when the inode refers to a char device file.
+</t>
+  </si>
+  <si>
+    <t>Char Device Registration</t>
+  </si>
+  <si>
+    <t>
+- the kernel uses structures of type struct cdev to represent char devices internally. 
+- Before the kernel invokes your device’s operations, you must allocate and register one or more of these structures.
+- To do so, your code should include &lt;linux/cdev.h&gt;
+- There are two ways of allocating and initializing one of these structures. If you wish to obtain a standalone cdev structure at runtime, 
+- you may do so with code such as:
+    struct cdev *my_cdev = cdev_alloc( );
+    my_cdev-&gt;ops = &amp;my_fops;
+- you should initialize the structure that you have already allocated with:
+    void cdev_init(struct cdev *cdev, struct file_operations *fops);
+    struct cdev *c_dev = kmalloc();
+    cdev_init(c_dev, fops);
+- Either way, there is one other struct cdev field that you need to initialize. Like the file_operations structure, struct cdev has an owner field that should be set to THIS_MODULE .
+- Once the cdev structure is set up, the final step is to tell the kernel about it with a call to:
+    int cdev_add(struct cdev *dev, dev_t num, unsigned int count);
+    - dev is the cdev structure, 
+    - num is the first device number to which this device responds
+    - count is the number of device numbers that should be associated with the device.
+    - this call can fail. If it returns a negative error code, your device has not been added to the system.
+    - You should not call cdev_add until your driver is completely ready to handle operations on the device.
+- To remove a char device from the system, call:
+    void cdev_del(struct cdev *dev);
+    - you should not access the cdev structure after passing it to cdev_del.
+</t>
+  </si>
+  <si>
+    <t>
+struct scull_dev {
+    struct scull_qset *data; /* Pointer to first quantum set */
+    int quantum; /* the current quantum size */
+    int qset; /* the current array size */
+    unsigned long size; /* amount of data stored here */
+    unsigned int access_key; /* used by sculluid and scullpriv */
+    struct semaphore sem; /* mutual exclusion semaphore */
+    struct cdev cdev; /* Char device structure */
+};
+static void scull_setup_cdev(struct scull_dev *dev, int index)
+{
+    int err, devno = MKDEV(scull_major, scull_minor + index);
+    cdev_init(&amp;dev-&gt;cdev, &amp;scull_fops);
+    dev-&gt;cdev.owner = THIS_MODULE;
+    dev-&gt;cdev.ops = &amp;scull_fops;
+    err = cdev_add (&amp;dev-&gt;cdev, devno, 1);
+    /* Fail gracefully if need be */
+    if (err)
+        printk(KERN_NOTICE "Error %d adding scull%d", err, index);
+}
+</t>
+  </si>
+  <si>
+    <t>open and release method</t>
+  </si>
+  <si>
+    <t>
+- Open method
+- The open method is provided for a driver to do any initialization in preparation for later operations. 
+- In most drivers, open should perform the following tasks:
+    • Check for device-specific errors (such as device-not-ready or similar hardware problems)
+    • Initialize the device if it is being opened for the first time
+    • Update the f_op pointer, if necessary
+    • Allocate and fill any data structure to be put in filp-&gt;private_data
+- The first order of business, however, is usually to identify which device is being opened. 
+- Remember that the prototype for the open method is:
+    int (*open)(struct inode *inode, struct file *filp);
+    • The inode argument has the information we need in the form of its i_cdev field, which contains the cdev structure we set up before.
+- The only problem is that we do not normally want the cdev structure itself, we want the scull_dev structure that contains that cdev structure.
+- which can get in the form of the container_of macro, defined in &lt;linux/kernel.h&gt;:
+    container_of(pointer, container_type, container_field);
+    - This macro takes a pointer to a field of type container_field , 
+    - within a structure of type container_type
+    - returns a pointer to the containing structure. 
+- In scull_open, this macro is used to find the appropriate device structure:
+    struct scull_dev *dev; /* device information */
+    dev = container_of(inode-&gt;i_cdev, struct scull_dev, cdev);
+    filp-&gt;private_data = dev; /* for other methods */
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+int scull_open(struct inode *inode, struct file *filp)
+{
+    struct scull_dev *dev; /* device information */
+    dev = container_of(inode-&gt;i_cdev, struct scull_dev, cdev);
+    filp-&gt;private_data = dev; /* for other methods */
+    /* now trim to 0 the length of the device if open was write-only */
+    if ( (filp-&gt;f_flags &amp; O_ACCMODE) = = O_WRONLY) {
+        scull_trim(dev); /* ignore errors */
+    }
+    return 0;
+    /* success */
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+- The release Method
+- The role of the release method is the reverse of open. Sometimes you’ll find that the method implementation is called device_close instead of device_release . 
+- Either way, the device method should perform the following tasks:
+• Deallocate anything that open allocated in filp-&gt;private_data
+• Shut down the device on last close
+</t>
+  </si>
+  <si>
+    <t>read and write</t>
+  </si>
+  <si>
+    <t>    
+- The read and write methods both perform a similar task, that is, copying data from and to application code.
+    ssize_t read(struct file *filp, char __user *buff, size_t count, loff_t *offp);
+    ssize_t write(struct file *filp, const char __user *buff, size_t count, loff_t *offp);
+    - filp is the file pointer and 
+    - count is the size of the requested data transfer. 
+    - The buff argument points to the user buffer holding the data to be written or the empty buffer where the newly read data should be placed. 
+    - Finally, offp is a pointer to a “long offset type” object that indicates the file position the user is accessing.
+    - Both the read and write methods return a negative value if an error occurs. 
+    - A return value greater than or equal to 0, instead, tells the calling program how many bytes have been successfully transferred. 
+    - If some data is transferred correctly and then an error happens, the return value must be the count of bytes successfully transferred.
+- your driver must be able to access the user-space buffer in order to get its job done. This access must always be performed by special, kernel-supplied functions, however, in order to be safe. We introduce some of those functions (which are defined in &lt;asm/uaccess.h&gt;)
+    unsigned long copy_to_user(void __user *to, const void *from, unsigned long count);
+    unsigned long copy_from_user(void *to, const void __user *from, unsigned long count);
+    - The role of the two functions is not limited to copying data to and from user-space: they also check whether the user space pointer is valid. 
+    - If the pointer is invalid, no copy is performed; if an invalid address is encountered during the copy, on the other hand, only part of the data is copied. In both cases, the return value is the amount of memory still to be copied.
+- Whatever the amount of data the methods transfer, they should generally update the file position at *offp to represent the current file position after successful completion of the system call. 
+- The kernel then propagates the file position change back into the file structure when appropriate.
 </t>
   </si>
 </sst>
@@ -4329,8 +4527,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6611,21 +6809,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="1:141"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="6.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="28.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="80.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="65.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="80.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="65.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6648,6 +6846,1024 @@
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,6 +7873,8 @@
       <c r="B4" s="38" t="s">
         <v>315</v>
       </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
       <c r="E4" s="38" t="s">
         <v>316</v>
       </c>
@@ -6674,9 +7892,11 @@
       <c r="D5" s="38" t="s">
         <v>319</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
+      <c r="B6" s="0"/>
       <c r="C6" s="38" t="s">
         <v>320</v>
       </c>
@@ -6689,57 +7909,71 @@
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
+      <c r="B7" s="0"/>
       <c r="C7" s="38" t="s">
         <v>323</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>324</v>
       </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="38" t="s">
         <v>325</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
+      <c r="B9" s="0"/>
       <c r="C9" s="38" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>327</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
+      <c r="B10" s="0"/>
       <c r="C10" s="38" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>329</v>
       </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
+      <c r="B11" s="0"/>
       <c r="C11" s="38" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>331</v>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
+      <c r="B12" s="0"/>
       <c r="C12" s="38" t="s">
         <v>332</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>333</v>
       </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
+      <c r="B13" s="0"/>
       <c r="C13" s="38" t="s">
         <v>334</v>
       </c>
@@ -6752,12 +7986,14 @@
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
+      <c r="B14" s="0"/>
       <c r="C14" s="38" t="s">
         <v>337</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>338</v>
       </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="n">
@@ -6766,12 +8002,15 @@
       <c r="B15" s="38" t="s">
         <v>339</v>
       </c>
+      <c r="C15" s="0"/>
       <c r="D15" s="38" t="s">
         <v>340</v>
       </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
+      <c r="B16" s="0"/>
       <c r="C16" s="38" t="s">
         <v>341</v>
       </c>
@@ -6784,21 +8023,25 @@
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
+      <c r="B17" s="0"/>
       <c r="C17" s="38" t="s">
         <v>344</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>345</v>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
+      <c r="B18" s="0"/>
       <c r="C18" s="38" t="s">
         <v>346</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>347</v>
       </c>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
@@ -6813,27 +8056,33 @@
       <c r="D19" s="38" t="s">
         <v>350</v>
       </c>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
+      <c r="B20" s="0"/>
       <c r="C20" s="38" t="s">
         <v>351</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>352</v>
       </c>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
+      <c r="B21" s="0"/>
       <c r="C21" s="38" t="s">
         <v>353</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>354</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
+      <c r="B22" s="0"/>
       <c r="C22" s="38" t="s">
         <v>355</v>
       </c>
@@ -6859,14 +8108,17 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
       <c r="C24" s="38" t="s">
         <v>362</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>363</v>
       </c>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
       <c r="C25" s="38" t="s">
         <v>364</v>
       </c>
@@ -6878,22 +8130,27 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
       <c r="C26" s="38" t="s">
         <v>367</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>368</v>
       </c>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0"/>
       <c r="C27" s="38" t="s">
         <v>369</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>370</v>
       </c>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
       <c r="C28" s="38" t="s">
         <v>371</v>
       </c>
@@ -6905,46 +8162,57 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
       <c r="C29" s="37" t="s">
         <v>374</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>375</v>
       </c>
+      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0"/>
       <c r="C30" s="38" t="s">
         <v>376</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>377</v>
       </c>
+      <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
       <c r="C31" s="38" t="s">
         <v>378</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>379</v>
       </c>
+      <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
       <c r="C32" s="38" t="s">
         <v>380</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>381</v>
       </c>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
       <c r="C33" s="38" t="s">
         <v>382</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>383</v>
       </c>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
       <c r="C34" s="38" t="s">
         <v>384</v>
       </c>
@@ -6956,14 +8224,17 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
       <c r="C35" s="38" t="s">
         <v>387</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>388</v>
       </c>
+      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
       <c r="C36" s="38" t="s">
         <v>389</v>
       </c>
@@ -6975,6 +8246,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
       <c r="C37" s="38" t="s">
         <v>392</v>
       </c>
@@ -6995,40 +8267,50 @@
       <c r="D38" s="38" t="s">
         <v>397</v>
       </c>
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
       <c r="C39" s="38" t="s">
         <v>398</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>399</v>
       </c>
+      <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
       <c r="C40" s="38" t="s">
         <v>400</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>401</v>
       </c>
+      <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
       <c r="C41" s="38" t="s">
         <v>402</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>403</v>
       </c>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
       <c r="C42" s="38" t="s">
         <v>404</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>405</v>
       </c>
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
       <c r="C43" s="38" t="s">
         <v>406</v>
       </c>
@@ -7049,134 +8331,167 @@
       <c r="D44" s="38" t="s">
         <v>411</v>
       </c>
+      <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0"/>
       <c r="C45" s="38" t="s">
         <v>412</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>413</v>
       </c>
+      <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0"/>
       <c r="C46" s="38" t="s">
         <v>414</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>415</v>
       </c>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
       <c r="C47" s="38" t="s">
         <v>416</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>417</v>
       </c>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
       <c r="C48" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>419</v>
       </c>
+      <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0"/>
       <c r="C49" s="38" t="s">
         <v>420</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>421</v>
       </c>
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
       <c r="C50" s="38" t="s">
         <v>422</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>423</v>
       </c>
+      <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
       <c r="C51" s="38" t="s">
         <v>424</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>425</v>
       </c>
+      <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
       <c r="C52" s="38" t="s">
         <v>426</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>427</v>
       </c>
+      <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0"/>
       <c r="C53" s="38" t="s">
         <v>428</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>429</v>
       </c>
+      <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0"/>
       <c r="C54" s="38" t="s">
         <v>430</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>431</v>
       </c>
+      <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0"/>
       <c r="C55" s="38" t="s">
         <v>432</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>433</v>
       </c>
+      <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0"/>
       <c r="C56" s="38" t="s">
         <v>434</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>435</v>
       </c>
+      <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0"/>
       <c r="C57" s="38" t="s">
         <v>436</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>437</v>
       </c>
+      <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0"/>
       <c r="C58" s="38" t="s">
         <v>438</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>439</v>
       </c>
+      <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0"/>
       <c r="C59" s="38" t="s">
         <v>440</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>441</v>
       </c>
+      <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0"/>
       <c r="C60" s="38" t="s">
         <v>442</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>443</v>
       </c>
+      <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="38" t="s">
@@ -7188,24 +8503,30 @@
       <c r="D61" s="38" t="s">
         <v>446</v>
       </c>
+      <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
       <c r="C62" s="38" t="s">
         <v>447</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>448</v>
       </c>
+      <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
       <c r="C63" s="38" t="s">
         <v>449</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>450</v>
       </c>
+      <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
       <c r="C64" s="38" t="s">
         <v>451</v>
       </c>
@@ -7217,14 +8538,17 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0"/>
       <c r="C65" s="38" t="s">
         <v>454</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>455</v>
       </c>
+      <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0"/>
       <c r="C66" s="38" t="s">
         <v>456</v>
       </c>
@@ -7236,22 +8560,27 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0"/>
       <c r="C67" s="38" t="s">
         <v>459</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>460</v>
       </c>
+      <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0"/>
       <c r="C68" s="38" t="s">
         <v>461</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>462</v>
       </c>
+      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0"/>
       <c r="C69" s="38" t="s">
         <v>463</v>
       </c>
@@ -7263,14 +8592,17 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0"/>
       <c r="C70" s="38" t="s">
         <v>466</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>467</v>
       </c>
+      <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0"/>
       <c r="C71" s="38" t="s">
         <v>468</v>
       </c>
@@ -7282,22 +8614,27 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0"/>
       <c r="C72" s="38" t="s">
         <v>471</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>472</v>
       </c>
+      <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0"/>
       <c r="C73" s="38" t="s">
         <v>473</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>474</v>
       </c>
+      <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0"/>
       <c r="C74" s="38" t="s">
         <v>475</v>
       </c>
@@ -7309,6 +8646,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0"/>
       <c r="C75" s="38" t="s">
         <v>478</v>
       </c>
@@ -7320,14 +8658,17 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0"/>
       <c r="C76" s="38" t="s">
         <v>481</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>482</v>
       </c>
+      <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0"/>
       <c r="C77" s="38" t="s">
         <v>483</v>
       </c>
@@ -7348,16 +8689,20 @@
       <c r="D78" s="38" t="s">
         <v>488</v>
       </c>
+      <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0"/>
       <c r="C79" s="38" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>490</v>
       </c>
+      <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0"/>
       <c r="C80" s="38" t="s">
         <v>491</v>
       </c>
@@ -7369,6 +8714,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0"/>
       <c r="C81" s="38" t="s">
         <v>494</v>
       </c>
@@ -7380,14 +8726,17 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0"/>
       <c r="C82" s="38" t="s">
         <v>497</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>498</v>
       </c>
+      <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0"/>
       <c r="C83" s="38" t="s">
         <v>499</v>
       </c>
@@ -7399,6 +8748,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0"/>
       <c r="C84" s="38" t="s">
         <v>502</v>
       </c>
@@ -7410,6 +8760,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0"/>
       <c r="C85" s="38" t="s">
         <v>505</v>
       </c>
@@ -7421,30 +8772,37 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0"/>
       <c r="C86" s="38" t="s">
         <v>508</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>509</v>
       </c>
+      <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0"/>
       <c r="C87" s="38" t="s">
         <v>510</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>511</v>
       </c>
+      <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0"/>
       <c r="C88" s="38" t="s">
         <v>512</v>
       </c>
       <c r="D88" s="38" t="s">
         <v>513</v>
       </c>
+      <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0"/>
       <c r="C89" s="38" t="s">
         <v>514</v>
       </c>
@@ -7456,44 +8814,54 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0"/>
       <c r="C90" s="38" t="s">
         <v>517</v>
       </c>
       <c r="D90" s="38" t="s">
         <v>518</v>
       </c>
+      <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0"/>
       <c r="C91" s="38" t="s">
         <v>519</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>520</v>
       </c>
+      <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0"/>
       <c r="C92" s="38" t="s">
         <v>521</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>522</v>
       </c>
+      <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0"/>
       <c r="C93" s="38" t="s">
         <v>523</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>524</v>
       </c>
+      <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0"/>
       <c r="C94" s="38" t="s">
         <v>525</v>
       </c>
       <c r="D94" s="38" t="s">
         <v>526</v>
       </c>
+      <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="38" t="s">
@@ -7505,32 +8873,40 @@
       <c r="D95" s="38" t="s">
         <v>529</v>
       </c>
+      <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0"/>
       <c r="C96" s="38" t="s">
         <v>530</v>
       </c>
       <c r="D96" s="38" t="s">
         <v>531</v>
       </c>
+      <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0"/>
       <c r="C97" s="38" t="s">
         <v>532</v>
       </c>
       <c r="D97" s="38" t="s">
         <v>533</v>
       </c>
+      <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0"/>
       <c r="C98" s="38" t="s">
         <v>534</v>
       </c>
       <c r="D98" s="38" t="s">
         <v>535</v>
       </c>
+      <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0"/>
       <c r="C99" s="38" t="s">
         <v>536</v>
       </c>
@@ -7542,30 +8918,37 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0"/>
       <c r="C100" s="38" t="s">
         <v>539</v>
       </c>
       <c r="D100" s="38" t="s">
         <v>540</v>
       </c>
+      <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0"/>
       <c r="C101" s="38" t="s">
         <v>541</v>
       </c>
       <c r="D101" s="38" t="s">
         <v>542</v>
       </c>
+      <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0"/>
       <c r="C102" s="38" t="s">
         <v>543</v>
       </c>
       <c r="D102" s="38" t="s">
         <v>544</v>
       </c>
+      <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0"/>
       <c r="C103" s="38" t="s">
         <v>545</v>
       </c>
@@ -7577,70 +8960,87 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0"/>
       <c r="C104" s="38" t="s">
         <v>548</v>
       </c>
       <c r="D104" s="38" t="s">
         <v>549</v>
       </c>
+      <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0"/>
       <c r="C105" s="38" t="s">
         <v>550</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>551</v>
       </c>
+      <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0"/>
       <c r="C106" s="38" t="s">
         <v>552</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>553</v>
       </c>
+      <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0"/>
       <c r="C107" s="38" t="s">
         <v>554</v>
       </c>
       <c r="D107" s="38" t="s">
         <v>555</v>
       </c>
+      <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0"/>
       <c r="C108" s="38" t="s">
         <v>556</v>
       </c>
       <c r="D108" s="38" t="s">
         <v>557</v>
       </c>
+      <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0"/>
       <c r="C109" s="38" t="s">
         <v>558</v>
       </c>
       <c r="D109" s="38" t="s">
         <v>559</v>
       </c>
+      <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0"/>
       <c r="C110" s="38" t="s">
         <v>560</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>561</v>
       </c>
+      <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0"/>
       <c r="C111" s="38" t="s">
         <v>562</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>563</v>
       </c>
+      <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0"/>
       <c r="C112" s="38" t="s">
         <v>564</v>
       </c>
@@ -7661,24 +9061,30 @@
       <c r="D113" s="38" t="s">
         <v>569</v>
       </c>
+      <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0"/>
       <c r="C114" s="38" t="s">
         <v>570</v>
       </c>
       <c r="D114" s="38" t="s">
         <v>571</v>
       </c>
+      <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0"/>
       <c r="C115" s="38" t="s">
         <v>572</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>573</v>
       </c>
+      <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0"/>
       <c r="C116" s="38" t="s">
         <v>574</v>
       </c>
@@ -7690,14 +9096,17 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0"/>
       <c r="C117" s="38" t="s">
         <v>577</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>578</v>
       </c>
+      <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0"/>
       <c r="C118" s="38" t="s">
         <v>579</v>
       </c>
@@ -7709,46 +9118,57 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0"/>
       <c r="C119" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D119" s="38" t="s">
         <v>583</v>
       </c>
+      <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0"/>
       <c r="C120" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D120" s="38" t="s">
         <v>585</v>
       </c>
+      <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0"/>
       <c r="C121" s="38" t="s">
         <v>586</v>
       </c>
       <c r="D121" s="38" t="s">
         <v>587</v>
       </c>
+      <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0"/>
       <c r="C122" s="38" t="s">
         <v>588</v>
       </c>
       <c r="D122" s="38" t="s">
         <v>589</v>
       </c>
+      <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0"/>
       <c r="C123" s="38" t="s">
         <v>570</v>
       </c>
       <c r="D123" s="38" t="s">
         <v>590</v>
       </c>
+      <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0"/>
       <c r="C124" s="38" t="s">
         <v>591</v>
       </c>
@@ -7769,8 +9189,10 @@
       <c r="D125" s="38" t="s">
         <v>596</v>
       </c>
+      <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0"/>
       <c r="C126" s="38" t="s">
         <v>597</v>
       </c>
@@ -7782,12 +9204,18 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0"/>
       <c r="C127" s="40" t="s">
         <v>600</v>
       </c>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0"/>
+      <c r="C128" s="0"/>
       <c r="D128" s="37"/>
+      <c r="E128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="38" t="s">
@@ -7799,6 +9227,7 @@
       <c r="D129" s="37" t="s">
         <v>603</v>
       </c>
+      <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="38" t="s">
@@ -7807,11 +9236,14 @@
       <c r="D130" s="37" t="s">
         <v>605</v>
       </c>
+      <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="0"/>
       <c r="D131" s="38" t="s">
         <v>606</v>
       </c>
+      <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="38" t="s">
@@ -7853,7 +9285,7 @@
       <c r="D135" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="E135" s="41" t="s">
+      <c r="E135" s="37" t="s">
         <v>618</v>
       </c>
     </row>
@@ -7864,6 +9296,7 @@
       <c r="D136" s="38" t="s">
         <v>620</v>
       </c>
+      <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="38" t="s">
@@ -7872,6 +9305,7 @@
       <c r="D137" s="38" t="s">
         <v>622</v>
       </c>
+      <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="38" t="s">
@@ -7880,6 +9314,7 @@
       <c r="D138" s="38" t="s">
         <v>624</v>
       </c>
+      <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="38" t="s">
@@ -7932,17 +9367,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="79.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="59.0459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="654">
   <si>
     <t>Sr No</t>
   </si>
@@ -4129,8 +4129,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 int scull_open(struct inode *inode, struct file *filp)
 {
     struct scull_dev *dev; /* device information */
@@ -4144,7 +4143,6 @@
     /* success */
 }
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -4179,6 +4177,53 @@
 - The kernel then propagates the file position change back into the file structure when appropriate.
 </t>
   </si>
+  <si>
+    <t>quick reference</t>
+  </si>
+  <si>
+    <t>
+- #include &lt;linux/types.h&gt;
+• dev_t
+    dev_t is the type used to represent device numbers within the kernel.
+•int MAJOR(dev_t dev);
+•int MINOR(dev_t dev);
+    Macros that extract the major and minor numbers from a device number.
+• dev_t MKDEV(unsigned int major, unsigned int minor);
+    Macro that builds a dev_t data item from the major and minor numbers.
+- #include &lt;linux/fs.h&gt;
+    The “filesystem” header is the header required for writing device drivers. Many important functions and data structures are declared in here.
+• int register_chrdev_region(dev_t first, unsigned int count, char *name)
+• int alloc_chrdev_region(dev_t *dev, unsigned int firstminor, unsigned int count, char *name)
+• void unregister_chrdev_region(dev_t first, unsigned int count);
+    Functions that allow a driver to allocate and free ranges of device numbers. register_chrdev_region should be used when the desired major number is known in advance; for dynamic allocation, use alloc_chrdev_region instead.
+• int register_chrdev(unsigned int major, const char *name, struct file_operations *fops);
+    The old (pre-2.6) char device registration routine. It is emulated in the 2.6 kernel but should not be used for new code. If the major number is not 0, it is used unchanged; otherwise a dynamic number is assigned for this device.
+• int unregister_chrdev(unsigned int major, const char *name);
+    Function that undoes a registration made with register_chrdev. Both major andthe name string must contain the same values that were used to register the driver.
+• struct file_operations;
+• struct file;
+• struct inode;
+    Three important data structures used by most device drivers. The file_operations structure holds a char driver’s methods; struct file represents an open file, and struct inode represents a file on disk.
+</t>
+  </si>
+  <si>
+    <t>
+- #include &lt;linux/cdev.h&gt;
+• struct cdev *cdev_alloc(void);
+• void cdev_init(struct cdev *dev, struct file_operations *fops);
+• int cdev_add(struct cdev *dev, dev_t num, unsigned int count);
+• void cdev_del(struct cdev *dev);
+    Functions for the management of cdev structures, which represent char devices within the kernel.
+- #include &lt;linux/kernel.h&gt;
+• container_of(pointer, type, field);
+    A convenience macro that may be used to obtain a pointer to a structure from a pointer to some other structure contained within it.
+- #include &lt;asm/uaccess.h&gt;
+    This include file declares functions used by kernel code to move data to and from user space.
+• unsigned long copy_from_user (void *to, const void *from, unsigned long count);
+• unsigned long copy_to_user (void *to, const void *from, unsigned long count);
+    Copy data between user space and kernel space.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -4187,7 +4232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4282,11 +4327,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9367,10 +9407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9480,6 +9520,17 @@
         <v>650</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="681">
   <si>
     <t>Sr No</t>
   </si>
@@ -4224,6 +4224,261 @@
     Copy data between user space and kernel space.
 </t>
   </si>
+  <si>
+    <t>Debugging Techniques</t>
+  </si>
+  <si>
+    <t>Debugging Support in the Kernel</t>
+  </si>
+  <si>
+    <t>
+• CONFIG_DEBUG_KERNEL:: it should be turned on but does not, by itself, enable any features.
+• CONFIG_DEBUG_SLAB:: it is possible to detect a number of memory overrun and missing initialization errors.
+• CONFIG_DEBUG_PAGEALLOC:: Full pages are removed from the kernel address space when freed.
+• CONFIG_DEBUG_SPINLOCK::With this option enabled, the kernel catches operations on uninitialized spinlocks and various other errors (such as unlocking a lock twice).
+• CONFIG_DEBUG_SPINLOCK_SLEEP:: This option enables a check for attempts to sleep while holding a spinlock.
+• so on ...
+</t>
+  </si>
+  <si>
+    <t>Debugging by Printing</t>
+  </si>
+  <si>
+    <t>
+• printk lets you classify messages according to their severity by associating different loglevels, or priorities, with the messages.
+• There are eight possible loglevel strings, defined in the header &lt;linux/kernel.h&gt;
+</t>
+  </si>
+  <si>
+    <t>
+- KERN_EMERG:: Used for emergency messages, usually those that precede a crash.
+- KERN_ALERT:: A situation requiring immediate action.
+- KERN_CRIT:: Critical conditions, often related to serious hardware or software failures.
+- KERN_ERR:: Used to report error conditions; device drivers often use KERN_ERR to report hardware difficulties.
+- KERN_WARNING:: Warnings about problematic situations that do not, in themselves, create serious problems with the system.
+- KERN_NOTICE:: Situations that are normal, but still worthy of note. A number of security-related conditions are reported at this level.
+- KERN_INFO:: Informational messages. Many drivers print information about the hardware they find at startup time at this level.
+- KERN_DEBUG:: Used for debugging messages.
+</t>
+  </si>
+  <si>
+    <t>Redirecting Console Messages</t>
+  </si>
+  <si>
+    <t>
+• Linux allows for some flexibility in console logging policies by letting you send messages to a specific virtual console (if your console lives on the text screen). 
+• By default, the “console” is the current virtual terminal.
+• The following program, setconsole, can be used to choose which console receives kernel messages; it must be run by the superuser and is available in the misc-progs directory
+• You should invoke it with a single argument specifying the number of the console that is to receive messages.
+• setconsole uses the special ioctl command TIOCLINUX , which implements Linux specific functions. 
+• To use TIOCLINUX , you pass it an argument that is a pointer to a byte array. The first byte of the array is a number that specifies the requested subcommand, and the following bytes are subcommand specific. 
+• In setconsole, subcommand 11 is used, and the next byte (stored in bytes[1] ) identifies the virtual console.
+• The complete description of TIOCLINUX can be found in drivers/char/tty_io.c, in the kernel sources.
+</t>
+  </si>
+  <si>
+    <t>
+int main(int argc, char **argv)
+{
+    char bytes[2] = {11,0}; /* 11 is the TIOCLINUX cmd number */
+    if (argc= =2) bytes[1] = atoi(argv[1]); /* the chosen console */
+    else {
+        fprintf(stderr, "%s: need a single arg\n",argv[0]); exit(1);
+    }
+    if (ioctl(STDIN_FILENO, TIOCLINUX, bytes)&lt;0) {
+        /* use stdin */
+        fprintf(stderr,"%s: ioctl(stdin, TIOCLINUX): %s\n", argv[0], strerror(errno));
+        exit(1);
+    }
+    exit(0);
+}
+</t>
+  </si>
+  <si>
+    <t>Printing Device Numbers</t>
+  </si>
+  <si>
+    <t>
+• when printing a message from a driver, you will want to print the device number associated withp the hardware of interest. 
+• It is not particularly hard to print the major and minor numbers, but, in the interest of consistency, the kernel provides a couple of utility macros (defined in &lt;linux/kdev_t.h&gt;) for this purpose:
+    int print_dev_t(char *buffer, dev_t dev);
+    char *format_dev_t(char *buffer, dev_t dev);
+• Both macros encode the device number into the given buffer ; 
+• the only difference is that print_dev_t returns the number of characters printed, 
+• while format_dev_t returns buffer ; therefore, it can be used as a parameter to a printk call directly, although one must remember that printk doesn’t flush until a trailing newline is provided. The buffer should be large enough to hold a device number; given that 64-bit device numbers are a distinct possibility in future kernel releases, the buffer should probably be at least 20 bytes long.
+</t>
+  </si>
+  <si>
+    <t>Debugging by Querying</t>
+  </si>
+  <si>
+    <t>
+• A massive use of printk can slow down the system noticeably, even if you lower console_loglevel to avoid loading the console device, because syslogd keeps syncing ts output files; thus, every line that is printed causes a disk operation.
+• This problem can be solved by prefixing the name of your log file as it appears in /etc/syslogd.conf with a hyphen. * The problem with changing the configuration file is that the modification will likely remain there after you are done debugging, even though during normal system operation you do want messages to be flushed to disk as soon as possible.
+• More often than not, the best way to get relevant information is to query the system when you need the information, instead of continually producing data. 
+• In fact, every Unix system provides many tools for obtaining system information: ps, netstat, vmstat, and so on.
+• A few techniques are available to driver developers for querying the system: creating a file in the /proc filesystem, using the ioctl driver method, and exporting attributes via sysfs. The use of sysfs requires quite some background on the driver model.
+</t>
+  </si>
+  <si>
+    <t>Using the /proc Filesystem</t>
+  </si>
+  <si>
+    <t>
+• The /proc filesystem is a special, software-created filesystem that is used by the kernel to export information to the world. 
+• Each file under /proc is tied to a kernel function that generates the file’s “contents” on the fly when the file is read. 
+• We have already seen some of these files in action; /proc/modules, for example, always returns a list of the currently loaded modules.
+• /proc is heavily used in the Linux system. Many utilities on a modern Linux distribution, such as ps, top, and uptime, get their information from /proc.
+• Before we continue, however, we should mention that adding files under /proc is discouraged.
+• The recommended way of making information available in new code is via sysfs.
+</t>
+  </si>
+  <si>
+    <t>Implementing files in /proc</t>
+  </si>
+  <si>
+    <t>
+• To create a read-only /proc file, your driver must implement a function to produce the data when the file is read. When some process reads the file (using the read system call), the request reaches your module by means of this function.
+• When a process reads from your /proc file, the kernel allocates a page of memory (i.e.,PAGE_SIZE bytes) where the driver can write data to be returned to user space. 
+• That buffer is passed to your function, which is a method called read_proc:
+    int (*read_proc)(char *page, char **start, off_t offset, int count, int *eof, void *data);
+    - The page pointer is the buffer where you’ll write your data; 
+    - start is used by the function to say where the interesting data has been written in page (more on this later);
+    - offset and count have the same meaning as for the read method. 
+    - The eof argument points to an integer that must be set by the driver to signal that it has no moredata to return,
+    - data is a driver-specific data pointer you can use for internal bookkeeping.
+    - This function should return the number of bytes of data actually placed in the page buffer.
+</t>
+  </si>
+  <si>
+    <t>
+int scull_read_procmem(char *buf, char **start, off_t offset, int count, int *eof, void *data)
+{
+    int i, j, len = 0;
+    int limit = count - 80; /* Don't print more than this */
+    for (i = 0; i &lt; scull_nr_devs &amp;&amp; len &lt;= limit; i++) {
+        struct scull_dev *d = &amp;scull_devices[i];
+        struct scull_qset *qs = d-&gt;data;
+        if (down_interruptible(&amp;d-&gt;sem))
+            return -ERESTARTSYS;
+        len += sprintf(buf+len,"\nDevice %i: qset %i, q %i, sz %li\n",i, d-&gt;qset, d-&gt;quantum, d-&gt;size);
+        for (; qs &amp;&amp; len &lt;= limit; qs = qs-&gt;next) { /* scan the list */
+            len += sprintf(buf + len, " item at %p, qset at %p\n",qs, qs-&gt;data);
+            if (qs-&gt;data &amp;&amp; !qs-&gt;next) /* dump only the last item */
+                for (j = 0; j &lt; d-&gt;qset; j++) {
+                    if (qs-&gt;data[j])
+                        len += sprintf(buf + len,"% 4i: %8p\n",j, qs-&gt;data[j]);
+            }
+        }
+        up(&amp;scull_devices[i].sem);
+    }
+    *eof = 1;
+    return len;
+}
+</t>
+  </si>
+  <si>
+    <t>Creating your /proc file</t>
+  </si>
+  <si>
+    <r>
+      <t>
+• Once you have a read_proc function defined, you need to connect it to an entry in the /proc hierarchy. This is done with a call to create_proc_read_entry:
+• Here is the call used by scull to make its /proc function available as /proc/scullmem:
+    create_proc_read_entry("scullmem", 0 /* default mode */,NULL /* parent dir */, scull_read_procmem, NULL /* client data */);
+• The directory entry pointer can be used to create entire directory hierarchies under /proc. Note, however, that an entry may be more easily placed in a subdirectory of /proc simply by giving the directory name as part of the name of the entry—as long as the directory itself already exists.
+• Entries in /proc, of course, should be removed when the module is unloaded. remove_proc_entry is the function that undoes what create_proc_read_entry already did:
+    remove_proc_entry("scullmem", NULL /* parent dir */);
+</t>
+    </r>
+  </si>
+  <si>
+    <t>The seq_file interface</t>
+  </si>
+  <si>
+    <t>
+• The seq_file interface assumes that you are creating a virtual file that steps through a sequence of items that must be returned to user space.
+• The start method is always called first. The prototype for this function is:
+    void *start(struct seq_file *sfile, loff_t *pos);
+- The sfile argument can almost always be ignored. pos is an integer position indicating where the reading should start.
+- The interpretation of the position is entirely up to the implementation.
+- The return value, if non- NULL , is a private value that can be used by the iterator implementation.
+• The next function should move the iterator to the next position, returning NULL if there is nothing left in the sequence. This method’s prototype is:
+    void *next(struct seq_file *sfile, void *v, loff_t *pos);
+- v is the iterator as returned from the previous call to start or next.
+- pos is the current position in the file. next should increment the value pointed to by pos ; depending on how your iterator works, you might (though probably won’t) want to increment pos by more than one.
+</t>
+  </si>
+  <si>
+    <t>
+static void *scull_seq_start(struct seq_file *s, loff_t *pos) {
+    if (*pos &gt;= scull_nr_devs)
+        return NULL;
+    /* No more to read */
+    return scull_devices + *pos;
+}
+static void *scull_seq_next(struct seq_file *s, void *v, loff_t *pos)
+{
+    (*pos)++;
+    if (*pos &gt;= scull_nr_devs)
+        return NULL;
+    return scull_devices + *pos;
+}
+static struct seq_operations scull_seq_ops = {
+.start = scull_seq_start,
+.next = scull_seq_next,
+.stop = scull_seq_stop,
+.show = scull_seq_show
+};
+</t>
+  </si>
+  <si>
+    <t>• When the kernel is done with the iterator, it calls stop to clean up:
+    void stop(struct seq_file *sfile, void *v);
+• It is worth noting that the seq_file code, by design, does not sleep or perform other nonatomic tasks between the calls to start and stop.
+• Therefore, it is safe for your start method to acquire semaphores or spinlocks. As long as your other seq_file methods are atomic, the whole sequence of calls is atomic.
+• In between these calls, the kernel calls the show method to actually output something interesting to the user space. This method’s prototype is:
+    int show(struct seq_file *sfile, void *v);
+- This method should create output for the item in the sequence indicated by the iterator v . 
+- It should not use printk, however; instead, there is a special set of functions for seq_file output:
+    int seq_printf(struct seq_file *sfile, const char *fmt, ...);
+    int seq_putc(struct seq_file *sfile, char c);
+    int seq_puts(struct seq_file *sfile, const char *s);
+- These are the equivalents of the user-space putc and puts functions.
+    int seq_escape(struct seq_file *m, const char *s, const char *esc);
+- This function is equivalent to seq_puts with the exception that any character in s that is also found in esc is printed in octal format.
+</t>
+  </si>
+  <si>
+    <t>
+• creating a file_operations structure implementing all of the operations needed by the kernel to handle reads and seeks on the file.
+• The first step is to create an open method that connects the file to the seq_file operations:
+    static int scull_proc_open(struct inode *inode, struct file *file) {
+        return seq_open(file, &amp;scull_seq_ops);
+    }
+• The call to seq_open connects the file structure with our sequence operations defined above. As it turns out, open is the only file operation we must implement ourselves, so we can now set up our file_operations structure:
+    static struct file_operations scull_proc_ops = {
+        .owner = THIS_MODULE,
+        .open = scull_proc_open,
+        .read = seq_read,
+        .llseek = seq_lseek,
+        .release = seq_release
+    };
+• we specify our own open method, but use the canned methods seq_read, seq_lseek, and seq_release for everything else.
+• The final step is to create the actual file in /proc, we call the lower-level create_proc_entry, which has this prototype:
+    struct proc_dir_entry *create_proc_entry(const char *name, mode_t mode, struct proc_dir_entry *parent);
+</t>
+  </si>
+  <si>
+    <t>ioctl Method</t>
+  </si>
+  <si>
+    <t>
+• Using ioctl this way to get information is somewhat more difficult than using /proc, because you need another program to issue the ioctl and display the results.
+• There are times when ioctl is the best way to get information, because it runs faster than reading /proc. If some work must be performed on the data before it’s written to the screen, retrieving the data in binary form is more efficient than reading a text file. In addition, ioctl doesn’t require splitting data into fragments smaller than a page.
+• Another interesting advantage of the ioctl approach is that information-retrieval commands can be left in the driver even when debugging would otherwise be disabled. Unlike a /proc file, which is visible to anyone who looks in the directory.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -4232,7 +4487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4328,6 +4583,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4402,7 +4662,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4569,6 +4829,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -9407,10 +9671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9531,6 +9795,111 @@
         <v>653</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="42" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="727">
   <si>
     <t>Sr No</t>
   </si>
@@ -4381,8 +4381,7 @@
     <t>Creating your /proc file</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 • Once you have a read_proc function defined, you need to connect it to an entry in the /proc hierarchy. This is done with a call to create_proc_read_entry:
 • Here is the call used by scull to make its /proc function available as /proc/scullmem:
     create_proc_read_entry("scullmem", 0 /* default mode */,NULL /* parent dir */, scull_read_procmem, NULL /* client data */);
@@ -4390,7 +4389,6 @@
 • Entries in /proc, of course, should be removed when the module is unloaded. remove_proc_entry is the function that undoes what create_proc_read_entry already did:
     remove_proc_entry("scullmem", NULL /* parent dir */);
 </t>
-    </r>
   </si>
   <si>
     <t>The seq_file interface</t>
@@ -4478,6 +4476,482 @@
 • There are times when ioctl is the best way to get information, because it runs faster than reading /proc. If some work must be performed on the data before it’s written to the screen, retrieving the data in binary form is more efficient than reading a text file. In addition, ioctl doesn’t require splitting data into fragments smaller than a page.
 • Another interesting advantage of the ioctl approach is that information-retrieval commands can be left in the driver even when debugging would otherwise be disabled. Unlike a /proc file, which is visible to anyone who looks in the directory.
 </t>
+  </si>
+  <si>
+    <t>Advanced Char Driver Operations</t>
+  </si>
+  <si>
+    <t>ioctl</t>
+  </si>
+  <si>
+    <t>
+• The ioctl driver method has a prototype that differs somewhat from the user-space version:
+    int (*ioctl) (struct inode *inode, struct file *filp, unsigned int cmd, unsigned long arg);
+    - The inode and filp pointers are the values corresponding to the file descriptor fd passed on by the application and are the same parameters passed to the open method.
+    - The cmd argument is passed from the user unchanged
+    - the optional arg argument is passed in the form of an unsigned long , regardless of whether it was given by the user as an integer or a pointer.
+    - If the invoking program doesn’t pass a third argument, the arg value received by the driver operation is undefined.
+</t>
+  </si>
+  <si>
+    <t>Choosing the ioctl Commands</t>
+  </si>
+  <si>
+    <t>
+• The ioctl command numbers should be unique across the system in order to prevent errors caused by issuing the right command to the wrong device.
+• If each ioctl number is unique, the application gets an EINVAL error rather than succeeding in doing something unintended
+• To help programmers create unique ioctl command codes, these codes have been split up into several bitfields.
+• To choose ioctl numbers for your driver according to the Linux kernel convention, you should first check include/asm/ioctl.h and Documentation/ioctl-number.txt.
+• The header defines the bitfields you will be using: type (magic number), ordinal number, direction of transfer, and size of argument.
+• The approved way to define ioctl command numbers uses four bitfields, which have the following meanings. New symbols introduced in this list are defined in &lt;linux/ioctl.h&gt;.
+    - type
+        The magic number. Just choose one number (after consulting ioctl-number.txt) and use it throughout the driver. This field is eight bits wide ( _IOC_TYPEBITS ). 
+    - number 
+        The ordinal (sequential) number. It’s eight bits ( _IOC_NRBITS ) wide. 
+    - direction
+        The direction of data transfer, if the particular command involves a data transfer. The possible values are _IOC_NONE (no data transfer), _IOC_READ , _IOC_WRITE , and _IOC_READ|_IOC_WRITE (data is transferred both ways).
+    - size
+        The size of user data involved. The width of this field is architecture dependent, but is usually 13 or 14 bits. You can find its value for your specific architecture in the macro _IOC_SIZEBITS. It’s not mandatory that you use the size field—the kernel does not check it—but it is a good idea.
+• The header file &lt;asm/ioctl.h&gt;, which is included by &lt;linux/ioctl.h&gt;, defines macros that help set up the command numbers as follows: 
+    _IO(type,nr) (for a command that has no argument), 
+    _IOR(type,nr,datatype) (for reading data from thedriver), 
+    _IOW(type,nr,datatype) (for writing data),
+    _IOWR(type,nr,datatype) (for bidirectional transfers). 
+    The type and number fields are passed as arguments, and the size field is derived by applying sizeof to the datatype argument.
+• The header also defines macros that may be used in your driver to decode the num- bers: _IOC_DIR(nr) , _IOC_TYPE(nr) , _IOC_NR(nr) , and _IOC_SIZE(nr) .
+</t>
+  </si>
+  <si>
+    <t>
+/* Use 'k' as magic number */
+#define SCULL_IOC_MAGIC 'k'
+/* Please use a different 8-bit number in your code */
+#define SCULL_IOCRESET
+_IO(SCULL_IOC_MAGIC, 0)
+/*
+* S means "Set" through a ptr,
+* T means "Tell" directly with the argument value
+* G means "Get": reply by setting through a pointer
+* Q means "Query": response is on the return value
+* X means "eXchange": switch G and S atomically
+* H means "sHift": switch T and Q atomically
+*/
+#define SCULL_IOCSQUANTUM _IOW(SCULL_IOC_MAGIC, 1, int)
+#define SCULL_IOCSQSET _IOW(SCULL_IOC_MAGIC, 2, int)
+#define SCULL_IOCTQUANTUM _IO(SCULL_IOC_MAGIC, 3)
+#define SCULL_IOCTQSET _IO(SCULL_IOC_MAGIC, 4)
+#define SCULL_IOCGQUANTUM _IOR(SCULL_IOC_MAGIC, 5,int)
+#define SCULL_IOCGQSET _IOR(SCULL_IOC_MAGIC, 6,int)
+#define SCULL_IOCQQUANTUM _IO(SCULL_IOC_MAGIC, 7)
+#define SCULL_IOCQQSET _IO(SCULL_IOC_MAGIC, 8)
+#define SCULL_IOCXQUANTUM _IOWR(SCULL_IOC_MAGIC, 9,int)
+#define SCULL_IOCXQSET _IOWR(SCULL_IOC_MAGIC,10,int)
+#define SCULL_IOCHQUANTUM _IO(SCULL_IOC_MAGIC, 11)
+#define SCULL_IOCHQSET _IO(SCULL_IOC_MAGIC, 12)
+#define SCULL_IOC_MAXNR 14
+</t>
+  </si>
+  <si>
+    <t>Predefined command</t>
+  </si>
+  <si>
+    <t>
+• The predefined commands are divided into three groups:
+    • Those that can be issued on any file (regular, device, FIFO, or socket)
+    • Those that are issued only on regular files
+    • Those specific to the filesystem type
+• Device driver writers are interested only in the first group of commands, whose magic number is “T.”
+</t>
+  </si>
+  <si>
+    <t>Using the ioctl Argument</t>
+  </si>
+  <si>
+    <t>
+• If it is an integer, it’s easy: it can be used directly. If it is a pointer, however, some care must be taken.
+• When a pointer is used to refer to user space, we must ensure that the user address is valid. An attempt to access an unverified user-supplied pointer can lead to incorrect behavior, a kernel oops, system corruption, or security problems. It is the driver’s responsibility to make proper checks on every user-space address it uses and to return an error if it is invalid.
+• To start, address verification (without transferring data) is implemented by the function access_ok, which is declared in &lt;asm/uaccess.h&gt;:
+    int access_ok(int type, const void *addr, unsigned long size);
+    - The first argument should be either VERIFY_READ or VERIFY_WRITE , depending on whether the action to be performed is reading the user-space memory area or writing it. 
+    - The addr argument holds a user-space address, and size is a byte count.
+    - access_ok returns a boolean value: 1 for success (access is OK) and 0 for failure (access is not OK). 
+    - If it returns false, the driver should usually return -EFAULT to the caller.
+• the programmer can exploit a set of functions that are optimized for the most used data sizes (one, two, four, and eight bytes). These functions are described in the following list and are defined in &lt;asm/uaccess.h&gt;:
+    put_user(datum, ptr)
+    __put_user(datum, ptr)
+    - These macros write the datum to user space; they are relatively fast and should be called instead of copy_to_user whenever single values are being transferred. The macros have been written to allow the passing of any type of pointer to put_user, as long as it is a user-space address. The size of the data transfer depends on the type of the ptr argument and is determined at compile time using the sizeof and typeof compiler builtins.
+    - put_user checks to ensure that the process is able to write to the given memory address. It returns 0 on success, and -EFAULT on error. 
+    - __put_user performs less checking (it does not call access_ok), but can still fail if the memory pointed to is not writable by the user.
+    - Thus, __put_user should only be used if the memory region has already been verified with access_ok.
+    get_user(local, ptr)
+    __get_user(local, ptr)
+    - These macros are used to retrieve a single datum from user space. They behave like put_user and __put_user, but transfer data in the opposite direction.
+</t>
+  </si>
+  <si>
+    <t>
+int err = 0, tmp;
+int retval = 0;
+/*
+* extract the type and number bitfields, and don't decode
+* wrong cmds: return ENOTTY (inappropriate ioctl) before access_ok( )
+*/
+if (_IOC_TYPE(cmd) != SCULL_IOC_MAGIC) return -ENOTTY;
+if (_IOC_NR(cmd) &gt; SCULL_IOC_MAXNR) return -ENOTTY;
+/*
+* the direction is a bitmask, and VERIFY_WRITE catches R/W
+* transfers. `Type' is user-oriented, while
+* access_ok is kernel-oriented, so the concept of "read" and
+* "write" is reversed
+*/
+if (_IOC_DIR(cmd) &amp; _IOC_READ)
+    err = !access_ok(VERIFY_WRITE, (void __user *)arg, _IOC_SIZE(cmd));
+else if (_IOC_DIR(cmd) &amp; _IOC_WRITE)
+    err = !access_ok(VERIFY_READ, (void __user *)arg, _IOC_SIZE(cmd));
+if (err) return -EFAULT;</t>
+  </si>
+  <si>
+    <t>Capabilities and Restricted Operations</t>
+  </si>
+  <si>
+    <t>
+• a particular user (or program) can be empowered to perform a specific privileged operation without giving away the ability to perform other, unre lated operations. 
+• The kernel uses capabilities exclusively for permissions manage ment and exports two system calls capget and capset, to allow them to be managed from user space. The full set of capabilities can be found in &lt;linux/capability.h&gt;.
+• Before performing a privileged operation, a device driver should check that the calling process has the appropriate capability; failure to do so could result user processes performing unauthorized operations with bad results on system stability or security. 
+• Capability checks are performed with the capable function (defined in &lt;linux/sched.h&gt;):
+    int capable(int capability);
+</t>
+  </si>
+  <si>
+    <t>
+if (! capable (CAP_SYS_ADMIN))
+    return -EPERM;
+</t>
+  </si>
+  <si>
+    <t>Blocking I/O</t>
+  </si>
+  <si>
+    <t>
+• A call to read may come when no data is available, but more is expected in the future. Or a process could attempt to write, but your device is not ready to accept the data, because your output buffer is full. 
+• The calling process usually does not care about such issues; the programmer simply expects to call read or write and have the call return after the necessary work has been done.
+• So, in such cases, your driver should (by default) block the process, putting it to sleep until the request can proceed.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+• What does it mean for a process to “sleep”? When a process is put to sleep, it is marked as being in a special state and removed from the scheduler’s run queue. 
+• Until something comes along to change that state, the process will not be scheduled on any CPU and, therefore, will not run. 
+• A sleeping process is waiting for some future event to happen.
+• There are, however, a couple of rules that you must keep in mind to be able to code sleeps in a safe manner.
+    - never sleep when you are running in an atomic context.
+    - You also cannot sleep if you have disabled interrupts. 
+    - It is legal to sleep while holding a semaphore, but you should look very carefully at any code that does so. If code sleeps while holding a semaphore, any other thread waiting for that semaphore also sleeps.
+• Making it possible for your sleeping process to be found is, instead, accomplished through a data structure called a wait queue. A wait queue is just what it sounds like: a list of processes, all waiting for a specific event.
+• a wait queue is managed by means of a “wait queue head,” a structure of type wait_queue_head_t , which is defined in &lt;linux/wait.h&gt;. 
+• A wait queue head can be defined and initialized statically with:
+    DECLARE_WAIT_QUEUE_HEAD(name);
+    or dynamicly as follows:
+    wait_queue_head_t my_queue;
+    init_waitqueue_head(&amp;my_queue);
+    We will return to the structure of wait queues shortly, but we know enough now to take a first look at sleeping and waking up.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+• The simplest way of sleeping in the Linux kernel is a macro called wait_event (with a few variants);
+•  it combines handling the details of sleeping with a check on the condition a process is waiting for. The forms of wait_event are:
+    wait_event(queue, condition)
+        wait_event, your process is put into an uninterruptible sleep which is usually not what you want.
+    wait_event_interruptible(queue, condition)
+        The preferred is wait_event_interruptible, which can be interrupted by signals. This version returns an integer value that you should check; a nonzero value means your sleep was interrupted by some sort of signal, and your driver should probably return -ERESTARTSYS .
+    wait_event_timeout(queue, condition, timeout)
+    wait_event_interruptible_timeout(queue, condition, timeout)
+        wait for a limited time; after that time period (expressed in jiffies) expires, the macros return with a value of 0 regardless of how condition evaluates.
+    - In all of the above forms, queue is the wait queue head to use. Notice that it is passed “by value.”
+    - The condition is an arbitrary boolean expression that is evaluated by the macro before and after sleeping; until condition evaluates to a true value, the process continues to sleep. Note that condition may be evaluated an arbitrary number of times, so it should not have any side effects.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>static DECLARE_WAIT_QUEUE_HEAD(wq);
+static int flag = 0;
+ssize_t sleepy_read (struct file *filp, char __user *buf, size_t count, loff_t *pos)
+{
+    printk(KERN_DEBUG "process %i (%s) going to sleep\n", current-&gt;pid, current-&gt;comm);
+    wait_event_interruptible(wq, flag != 0);
+    flag = 0;
+    printk(KERN_DEBUG "awoken %i (%s)\n", current-&gt;pid, current-&gt;comm);
+    return 0; /* EOF */
+}
+ssize_t sleepy_write (struct file *filp, const char __user *buf, size_t count, loff_t *pos)
+{
+    printk(KERN_DEBUG "process %i (%s) awakening the readers...\n", current-&gt;pid, current-&gt;comm);
+    flag = 1;
+    wake_up_interruptible(&amp;wq);
+    return count; /* succeed, to avoid retrial */
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>
+• The other half of the picture, of course, is waking up. Some other thread of execution (a different process, or an interrupt handler, perhaps) has to perform the wakeup for you, since your process is, of course, asleep. 
+• The basic function that wakes up sleeping processes is called wake_up. It comes in several forms (but welook at only two of them now):
+    void wake_up(wait_queue_head_t *queue);
+        wake_up wakes up all processes waiting on the given queue. 
+    void wake_up_interruptible(wait_queue_head_t *queue);
+        The other form (wake_up_interruptible) restricts itself to processes performing an interruptible sleep. 
+• In general, the two are indistinguishable (if you are using interruptible sleeps); 
+• in practice, the convention is to use wake_up if you are using wait_event and wake_up_interruptible if you use wait_event_interruptible.
+</t>
+  </si>
+  <si>
+    <t>A Blocking I/O Example</t>
+  </si>
+  <si>
+    <r>
+      <t>
+• an example of a real driver method that implements blocking I/O. This example is taken from the scullpipe driver; it is a special form of scull that implements a pipe-like device.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>how process sleeps</t>
+  </si>
+  <si>
+    <t>
+• The first step in putting a process to sleep is usually the allocation and initialization of a wait_queue_t structure, followed by its addition to the proper wait queue.
+• The next step is to set the state of the process to mark it as being asleep. There are two states that indicate that a process is asleep: TASK_INTERRUPTIBLE and TASK_UNINTERRUPTIBLE
+</t>
+  </si>
+  <si>
+    <t>Manual sleeps</t>
+  </si>
+  <si>
+    <t>
+• The first step is the creation and initialization of a wait queue entry. That is usually done with this macro:
+    DEFINE_WAIT(name);
+        in which name is the name of the wait queue entry variable. You can also do things in two steps:
+        it is usually easier to put a DEFINE_WAIT line at the top of the loop that implements your sleep.
+    wait_queue_t my_wait;
+    init_wait(&amp;my_wait);
+• The next step is to add your wait queue entry to the queue, and set the process state. Both of those tasks are handled by this function:
+    void prepare_to_wait(wait_queue_head_t *queue, wait_queue_t *wait, int state);
+        queue and wait are the wait queue head and the process entry, respectively.
+        state is the new state for the process; it should be either TASK_INTERRUPTIBLE or TASK_UNINTERRUPTIBLE.
+• After calling prepare_to_wait, the process can call schedule()—after it has checked to be sure it still needs to wait. 
+• Once schedule returns, it is cleanup time. That task, too, is handled by a special function:
+    void finish_wait(wait_queue_head_t *queue, wait_queue_t *wait);
+</t>
+  </si>
+  <si>
+    <t>Exclusive waits</t>
+  </si>
+  <si>
+    <t>
+• when a process calls wake_up on a wait queue, all processes waiting on that queue are made runnable. 
+• In many cases, that is the correct behavior. In others, however, it is possible to know ahead of time that only one of the processes being awakened will succeed in obtaining the desired resource, and the rest will simply have to sleep again.
+• The kernel developers added an  “exclusive wait” option to the kernel. An exclusive wait acts very much like a normal sleep, with two important differences:
+    • When a wait queue entry has the WQ_FLAG_EXCLUSIVE flag set, it is added to the end of the wait queue. Entries without that flag are, instead, added to the beginning.
+    • When wake_up is called on a wait queue, it stops after waking the first process that has the WQ_FLAG_EXCLUSIVE flag set.
+• The end result is that processes performing exclusive waits are awakened one at a time, in an orderly manner, and do not create thundering herds. The kernel still wakes up all nonexclusive waiters every time, however.
+• Putting a process into an interruptible wait is a simple matter of calling prepare_to_wait_exclusive:
+    void prepare_to_wait_exclusive(wait_queue_head_t *queue,wait_queue_t *wait,int state);
+        This call, when used in place of prepare_to_wait, sets the “exclusive” flag in the wait queue entry and adds the process to the end of the wait queue.
+</t>
+  </si>
+  <si>
+    <t>The details of waking up</t>
+  </si>
+  <si>
+    <t>
+• wake_up(wait_queue_head_t *queue);
+  wake_up_interruptible(wait_queue_head_t *queue);
+    wake_up awakens every process on the queue that is not in an exclusive wait, and exactly one exclusive waiter, if it exists. wake_up_interruptible does the same, with the exception that it skips over processes in an uninterruptible sleep. These functions can, before returning, cause one or more of the processes awakened to be scheduled.
+• wake_up_nr(wait_queue_head_t *queue, int nr);
+  wake_up_interruptible_nr(wait_queue_head_t *queue, int nr);
+    These functions perform similarly to wake_up, except they can awaken up to nr exclusive waiters, instead of just one. Note that passing 0 is interpreted as asking for all of the exclusive waiters to be awakened, rather than none of them.
+• wake_up_all(wait_queue_head_t *queue);
+  wake_up_interruptible_all(wait_queue_head_t *queue);
+    This form of wake_up awakens all processes whether they are performing an exclusive wait or not (though the interruptible form still skips processes doing uninterruptible waits).
+• wake_up_interruptible_sync(wait_queue_head_t *queue);
+</t>
+  </si>
+  <si>
+    <t>poll and select</t>
+  </si>
+  <si>
+    <t>
+• Applications that use nonblocking I/O often use the poll, select, and epoll system calls as well. poll, select, and epoll have essentially the same functionality: each allow a process to determine whether it can read from or write to one or more open files without blocking.
+• Support for any of these calls requires support from the device driver. This support (for all three calls) is provided through the driver’s poll method. This method has the following prototype:
+    unsigned int (*poll) (struct file *filp, poll_table *wait);
+• The driver method is called whenever the user-space program performs a poll, select, or epoll system call involving a file descriptor associated with the driver. 
+• The device method is in charge of these two steps:
+    1. Call poll_wait on one or more wait queues that could indicate a change in the poll status.If no file descriptors are currently available for I/O, the kernel causes the process to wait on the wait queues for all file descriptors passed to the system call.
+    2. Return a bit mask describing the operations (if any) that could be immediately performed without blocking.
+• The poll_table structure, the second argument to the poll method, is used within the kernel to implement the poll, select, and epoll calls; it is declared in &lt;linux/poll.h&gt;
+• poll_table is passed to the driver method so that the driver can load it with every wait queue that could wake up the process and change the status of the poll operation. The driver adds a wait queue to the poll_table structure by calling the function poll_wait:
+    void poll_wait (struct file *, wait_queue_head_t *, poll_table *);
+• The second task performed by the poll method is returning the bit mask describing which operations could be completed immediately.
+• Several flags (defined via &lt;linux/poll.h&gt;) are used to indicate the possible operations:
+</t>
+  </si>
+  <si>
+    <t>
+POLLIN
+    This bit must be set if the device can be read without blocking.
+POLLRDNORM
+    This bit must be set if “normal” data is available for reading. A readable device returns (POLLIN | POLLRDNORM) .        
+so on ...
+Consider the scullpipe implementation of the poll method:
+static unsigned int scull_p_poll(struct file *filp, poll_table *wait)
+{
+    struct scull_pipe *dev = filp-&gt;private_data;
+    unsigned int mask = 0;
+    /*
+    * The buffer is circular; it is considered full
+    * if "wp" is right behind "rp" and empty if the
+    * two are equal.
+    */
+    down(&amp;dev-&gt;sem);
+    poll_wait(filp, &amp;dev-&gt;inq, wait);
+    poll_wait(filp, &amp;dev-&gt;outq, wait);
+    if (dev-&gt;rp != dev-&gt;wp)
+        mask |= POLLIN | POLLRDNORM;
+    /* readable */
+    if (spacefree(dev))
+        mask |= POLLOUT | POLLWRNORM;
+    /* writable */
+    up(&amp;dev-&gt;sem);
+    return mask;
+}</t>
+  </si>
+  <si>
+    <t>Asynchronous Notification</t>
+  </si>
+  <si>
+    <t>
+• User programs have to execute two steps to enable asynchronous notification from an input file. 
+• First, they specify a process as the “owner” of the file. When a process invokes the F_SETOWN command using the fcntl system call, the process ID of the owner process is saved in filp-&gt;f_owner for later use. This step is necessary for the kernel to know just whom to notify.
+• In order to actually enable asynchronous notification, the user programs must set the FASYNC flag in the device by means of the F_SETFL fcntl command.
+• After these two calls have been executed, the input file can request delivery of a SIGIO signal whenever new data arrives. The signal is sent to the process (or process group, if the value is negative) stored in filp-&gt;f_owner .
+• For example, the following lines of code in a user program enable asynchronous notification to the current process for the stdin input file:
+    signal(SIGIO, &amp;input_handler); /* dummy sample; sigaction( ) is better */
+    fcntl(STDIN_FILENO, F_SETOWN, getpid( ));
+    oflags = fcntl(STDIN_FILENO, F_GETFL);
+    fcntl(STDIN_FILENO, F_SETFL, oflags | FASYNC);
+• however, that not all the devices support asynchronous notification, and you can choose not to offer it. Applications usually assume that the asynchronous capability is available only for sockets and ttys.
+</t>
+  </si>
+  <si>
+    <t>
+Here’s how scullpipe implements the fasync method:
+static int scull_p_fasync(int fd, struct file *filp, int mode)
+{
+    struct scull_pipe *dev = filp-&gt;private_data;
+    return fasync_helper(fd, filp, mode, &amp;dev-&gt;async_queue);
+}
+</t>
+  </si>
+  <si>
+    <t>The llseek Implementation</t>
+  </si>
+  <si>
+    <t>
+• The llseek method implements the lseek and llseek system calls. We have already stated that if the llseek method is missing from the device’s operations, the default implementation in the kernel performs seeks by modifying filp-&gt;f_pos , the current reading/writing position within the file.
+• You may need to provide your own llseek method if the seek operation corresponds to a physical operation on the device. A simple example can be seen in the scull driver:
+• most devices offer a data flow rather than a data area (just think about the serial ports or the keyboard), and seeking those devices does not make sense. If this is the case for your device, you can’t just refrain from declaring the llseek operation, because the default method allows seeking. Instead, you should inform the kernel that your device does not support llseek by calling nonseekable_open in your open method:
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+loff_t scull_llseek(struct file *filp, loff_t off, int whence) {
+    struct scull_dev *dev = filp-&gt;private_data;
+    loff_t newpos;
+    switch(whence) {
+        case 0: /* SEEK_SET */
+            newpos = off;
+        break;
+        case 1: /* SEEK_CUR */
+            newpos = filp-&gt;f_pos + off;
+        break;
+        case 2: /* SEEK_END */
+            newpos = dev-&gt;size + off;
+        break;
+        default: /* can't happen */
+            return -EINVAL;
+    }
+    if (newpos &lt; 0) return -EINVAL;
+        filp-&gt;f_pos = newpos;
+    return newpos;
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Access Control on a Device File</t>
+  </si>
+  <si>
+    <t>Single-Open Devices</t>
+  </si>
+  <si>
+    <t>• Allowing only a single process to open a device has undesirable properties, but it is also the easiest access control to implement for a device driver, so it’s shown here. The source code is extracted from a device called scullsingle.
+• The scullsingle device maintains an atomic_t variable called scull_s_available ; that variable is initialized to a value of one, indicating that the device is indeed available. The open call decrements and tests scull_s_available and refuses access if somebody else already has the device open:
+</t>
+  </si>
+  <si>
+    <t>
+static atomic_t scull_s_available = ATOMIC_INIT(1);
+static int scull_s_open(struct inode *inode, struct file *filp) {
+    struct scull_dev *dev = &amp;scull_s_device; /* device information */
+    if (! atomic_dec_and_test (&amp;scull_s_available)) {
+        atomic_inc(&amp;scull_s_available);
+        return -EBUSY; /* already open */
+    }
+    /* then, everything else is copied from the bare scull device */
+    if ( (filp-&gt;f_flags &amp; O_ACCMODE) = = O_WRONLY)
+        scull_trim(dev);
+    filp-&gt;private_data = dev;
+    return 0;
+    /* success */
+}
+The release call, on the other hand, marks the device as no longer busy:
+static int scull_s_release(struct inode *inode, struct file *filp) {
+    atomic_inc(&amp;scull_s_available); /* release the device */
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>Restricting Access to a Single User at a Time</t>
+  </si>
+  <si>
+    <t>
+• The next step beyond a single-open device is to let a single user open a device in multiple processes but allow only one user to have the device open at a time. 
+• This solution makes it easy to test the device, since the user can read and write from several processes at once, but assumes that the user takes some responsibility for maintaining the integrity of the data during multiple accesses.
+• This is accomplished by add ing checks in the open method; such checks are performed after the normal permission checking and can only make access more restrictive than that specified by the owner and group permission bits.
+• The name of the device is sculluid.
+    The open call grants access on first open but remembers the owner of the device.
+    This means that a user can open the device multiple times, thus allowing cooperating processes to work concurrently on the device.
+</t>
+  </si>
+  <si>
+    <t>    spin_lock(&amp;scull_u_lock);
+    if (scull_u_count &amp;&amp;
+        (scull_u_owner != current-&gt;uid) &amp;&amp; /* allow user */
+        (scull_u_owner != current-&gt;euid) &amp;&amp; /* allow whoever did su */
+        !capable(CAP_DAC_OVERRIDE)) { /* still allow root */
+        spin_unlock(&amp;scull_u_lock);
+        return -EBUSY;
+        /* -EPERM would confuse the user */
+    }
+    if (scull_u_count = = 0)
+        scull_u_owner = current-&gt;uid; /* grab it */
+    scull_u_count++;
+    spin_unlock(&amp;scull_u_lock);</t>
   </si>
 </sst>
 </file>
@@ -9671,17 +10145,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="41" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="38" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="79.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="81.1377551020408"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="38" width="59.0459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.4234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
@@ -9883,7 +10357,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="37" t="s">
         <v>677</v>
       </c>
     </row>
@@ -9898,6 +10372,187 @@
       </c>
       <c r="D26" s="38" t="s">
         <v>680</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="38" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="760">
   <si>
     <t>Sr No</t>
   </si>
@@ -4181,30 +4181,165 @@
     <t>quick reference</t>
   </si>
   <si>
-    <t>
+    <r>
+      <t>
 - #include &lt;linux/types.h&gt;
-• dev_t
-    dev_t is the type used to represent device numbers within the kernel.
-•int MAJOR(dev_t dev);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• dev_t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    dev_t is the type used to represent device numbers within the kernel.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•int MAJOR(dev_t dev);
 •int MINOR(dev_t dev);
-    Macros that extract the major and minor numbers from a device number.
-• dev_t MKDEV(unsigned int major, unsigned int minor);
-    Macro that builds a dev_t data item from the major and minor numbers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros that extract the major and minor numbers from a device number.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• dev_t MKDEV(unsigned int major, unsigned int minor);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macro that builds a dev_t data item from the major and minor numbers.
 - #include &lt;linux/fs.h&gt;
     The “filesystem” header is the header required for writing device drivers. Many important functions and data structures are declared in here.
-• int register_chrdev_region(dev_t first, unsigned int count, char *name)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• int register_chrdev_region(dev_t first, unsigned int count, char *name)
 • int alloc_chrdev_region(dev_t *dev, unsigned int firstminor, unsigned int count, char *name)
 • void unregister_chrdev_region(dev_t first, unsigned int count);
-    Functions that allow a driver to allocate and free ranges of device numbers. register_chrdev_region should be used when the desired major number is known in advance; for dynamic allocation, use alloc_chrdev_region instead.
-• int register_chrdev(unsigned int major, const char *name, struct file_operations *fops);
-    The old (pre-2.6) char device registration routine. It is emulated in the 2.6 kernel but should not be used for new code. If the major number is not 0, it is used unchanged; otherwise a dynamic number is assigned for this device.
-• int unregister_chrdev(unsigned int major, const char *name);
-    Function that undoes a registration made with register_chrdev. Both major andthe name string must contain the same values that were used to register the driver.
-• struct file_operations;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions that allow a driver to allocate and free ranges of device numbers. register_chrdev_region should be used when the desired major number is known in advance; for dynamic allocation, use alloc_chrdev_region instead.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• int register_chrdev(unsigned int major, const char *name, struct file_operations *fops);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The old (pre-2.6) char device registration routine. It is emulated in the 2.6 kernel but should not be used for new code. If the major number is not 0, it is used unchanged; otherwise a dynamic number is assigned for this device.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• int unregister_chrdev(unsigned int major, const char *name);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Function that undoes a registration made with register_chrdev. Both major andthe name string must contain the same values that were used to register the driver.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>• struct file_operations;
 • struct file;
 • struct inode;
-    Three important data structures used by most device drivers. The file_operations structure holds a char driver’s methods; struct file represents an open file, and struct inode represents a file on disk.
-</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Three important data structures used by most device drivers. The file_operations structure holds a char driver’s methods; struct file represents an open file, and struct inode represents a file on disk.
+</t>
+    </r>
   </si>
   <si>
     <t>
@@ -4476,6 +4611,670 @@
 • There are times when ioctl is the best way to get information, because it runs faster than reading /proc. If some work must be performed on the data before it’s written to the screen, retrieving the data in binary form is more efficient than reading a text file. In addition, ioctl doesn’t require splitting data into fragments smaller than a page.
 • Another interesting advantage of the ioctl approach is that information-retrieval commands can be left in the driver even when debugging would otherwise be disabled. Unlike a /proc file, which is visible to anyone who looks in the directory.
 </t>
+  </si>
+  <si>
+    <t>Concurrency and Race Conditions</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;asm/semaphore.h&gt;
+    The include file that defines semaphores and the operations on them.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DECLARE_MUTEX(name);
+DECLARE_MUTEX_LOCKED(name);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Two macros for declaring and initializing a semaphore used in mutual exclusion mode.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void init_MUTEX(struct semaphore *sem);
+void init_MUTEX_LOCKED(struct semaphore *sem);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    These two functions can be used to initialize a semaphore at runtime.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void down(struct semaphore *sem);
+int down_interruptible(struct semaphore *sem);
+int down_trylock(struct semaphore *sem);
+void up(struct semaphore *sem);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Lock and unlock a semaphore. down puts the calling process into an uninterruptible sleep if need be; down_interruptible, instead, can be interrupted by a signal. down_trylock does not sleep; instead, it returns immediately if the semaphore is unavailable. Code that locks a semaphore must eventually unlock it with up.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct rw_semaphore;
+init_rwsem(struct rw_semaphore *sem);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The reader/writer version of semaphores and the function that initializes it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void down_read(struct rw_semaphore *sem);
+int down_read_trylock(struct rw_semaphore *sem);
+void up_read(struct rw_semaphore *sem);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for obtaining and releasing read access to a reader/writer semaphore.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void down_write(struct rw_semaphore *sem)
+int down_write_trylock(struct rw_semaphore *sem)
+void up_write(struct rw_semaphore *sem)
+void downgrade_write(struct rw_semaphore *sem)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for managing write access to a reader/writer semaphore.
+#include &lt;linux/rcupdate.h&gt;
+    The include file required to use the read-copy-update (RCU) mechanism.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void rcu_read_lock;
+void rcu_read_unlock;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros for obtaining atomic read access to a resource protected by RCU.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void call_rcu(struct rcu_head *head, void (*func)(void *arg), void *arg);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Arranges for a callback to run after all processors have been scheduled and an RCU-protected resource can be safely freed.#include &lt;linux/rcupdate.h&gt;
+    The include file required to use the read-copy-update (RCU) mechanism.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void rcu_read_lock;
+void rcu_read_unlock;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros for obtaining atomic read access to a resource protected by RCU.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void call_rcu(struct rcu_head *head, void (*func)(void *arg), void *arg);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Arranges for a callback to run after all processors have been scheduled and an RCU-protected resource can be safely freed.
+#include &lt;linux/completion.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DECLARE_COMPLETION(name);
+Init_completion(struct completion *c);
+INIT_COMPLETION(struct completion c);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The include file describing the Linux completion mechanism, and the normal methods for initializing completions. INIT_COMPLETION should be used only to reinitialize a completion that has been previously used.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void wait_for_completion(struct completion *c);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Wait for a completion event to be signalled.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void complete(struct completion *c);
+void complete_all(struct completion *c);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Signal a completion event. complete wakes, at most, one waiting thread, while complete_all wakes all waiters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void complete_and_exit(struct completion *c, long retval);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Signals a completion event by calling complete and calls exit for the current thread.
+#include &lt;asm/atomic.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>atomic_t v = ATOMIC_INIT(value);
+void atomic_set(atomic_t *v, int i);
+int atomic_read(atomic_t *v);
+void atomic_add(int i, atomic_t *v);
+void atomic_sub(int i, atomic_t *v);
+void atomic_inc(atomic_t *v);
+void atomic_dec(atomic_t *v);
+int atomic_inc_and_test(atomic_t *v);
+int atomic_dec_and_test(atomic_t *v);
+int atomic_sub_and_test(int i, atomic_t *v);
+int atomic_add_negative(int i, atomic_t *v);
+int atomic_add_return(int i, atomic_t *v);
+int atomic_sub_return(int i, atomic_t *v);
+int atomic_inc_return(atomic_t *v);
+int atomic_dec_return(atomic_t *v);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Atomically access integer variables. The atomic_t variables must be accessed only through these functions.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/spinlock.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>spinlock_t lock = SPIN_LOCK_UNLOCKED;
+spin_lock_init(spinlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The include file defining the spinlock interface and the two ways of initializing locks.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void spin_lock(spinlock_t *lock);
+void spin_lock_irqsave(spinlock_t *lock, unsigned long flags);
+void spin_lock_irq(spinlock_t *lock);
+void spin_lock_bh(spinlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The various ways of locking a spinlock and, possibly, disabling interrupts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int spin_trylock(spinlock_t *lock);
+int spin_trylock_bh(spinlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Nonspinning versions of the above functions; these return 0 in case of failure to obtain the lock, nonzero otherwise.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void spin_unlock(spinlock_t *lock);
+void spin_unlock_irqrestore(spinlock_t *lock, unsigned long flags);
+void spin_unlock_irq(spinlock_t *lock);
+void spin_unlock_bh(spinlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The corresponding ways of releasing a spinlock.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rwlock_t lock = RW_LOCK_UNLOCKED
+rwlock_init(rwlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The two ways of initializing reader/writer locks.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void read_lock(rwlock_t *lock);
+void read_lock_irqsave(rwlock_t *lock, unsigned long flags);
+void read_lock_irq(rwlock_t *lock);
+void read_lock_bh(rwlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for obtaining read access to a reader/writer lock.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void read_unlock(rwlock_t *lock);
+void read_unlock_irqrestore(rwlock_t *lock, unsigned long flags);
+void read_unlock_irq(rwlock_t *lock);
+void read_unlock_bh(rwlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for releasing read access to a reader/writer spinlock.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void write_lock(rwlock_t *lock);
+void write_lock_irqsave(rwlock_t *lock, unsigned long flags);
+void write_lock_irq(rwlock_t *lock);
+void write_lock_bh(rwlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for obtaining write access to a reader/writer lock.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void write_unlock(rwlock_t *lock);
+void write_unlock_irqrestore(rwlock_t *lock, unsigned long flags);
+void write_unlock_irq(rwlock_t *lock);
+void write_unlock_bh(rwlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for releasing write access to a reader/writer spinlock.
+#include &lt;linux/seqlock.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>seqlock_t lock = SEQLOCK_UNLOCKED;
+seqlock_init(seqlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The include file defining seqlocks and the two ways of initializing them.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned int read_seqbegin(seqlock_t *lock);
+unsigned int read_seqbegin_irqsave(seqlock_t *lock, unsigned long flags);
+int read_seqretry(seqlock_t *lock, unsigned int seq);
+int read_seqretry_irqrestore(seqlock_t *lock, unsigned int seq, unsigned long flags);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for obtaining read access to a seqlock-protected resources.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void write_seqlock(seqlock_t *lock);
+void write_seqlock_irqsave(seqlock_t *lock, unsigned long flags);
+void write_seqlock_irq(seqlock_t *lock);
+void write_seqlock_bh(seqlock_t *lock);
+int write_tryseqlock(seqlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for obtaining write access to a seqlock-protected resource.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void write_sequnlock(seqlock_t *lock);
+void write_sequnlock_irqrestore(seqlock_t *lock, unsigned long flags);
+void write_sequnlock_irq(seqlock_t *lock);
+void write_sequnlock_bh(seqlock_t *lock);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for releasing write access to a seqlock-protected resource.
+</t>
+    </r>
   </si>
   <si>
     <t>Advanced Char Driver Operations</t>
@@ -4639,8 +5438,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 • What does it mean for a process to “sleep”? When a process is put to sleep, it is marked as being in a special state and removed from the scheduler’s run queue. 
 • Until something comes along to change that state, the process will not be scheduled on any CPU and, therefore, will not run. 
 • A sleeping process is waiting for some future event to happen.
@@ -4657,7 +5455,6 @@
     init_waitqueue_head(&amp;my_queue);
     We will return to the structure of wait queues shortly, but we know enough now to take a first look at sleeping and waking up.
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -4675,8 +5472,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>static DECLARE_WAIT_QUEUE_HEAD(wq);
+    <t>static DECLARE_WAIT_QUEUE_HEAD(wq);
 static int flag = 0;
 ssize_t sleepy_read (struct file *filp, char __user *buf, size_t count, loff_t *pos)
 {
@@ -4694,7 +5490,6 @@
     return count; /* succeed, to avoid retrial */
 }
 </t>
-    </r>
   </si>
   <si>
     <t>
@@ -4712,11 +5507,9 @@
     <t>A Blocking I/O Example</t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 • an example of a real driver method that implements blocking I/O. This example is taken from the scullpipe driver; it is a special form of scull that implements a pipe-like device.
 </t>
-    </r>
   </si>
   <si>
     <t>how process sleeps</t>
@@ -4867,8 +5660,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 loff_t scull_llseek(struct file *filp, loff_t off, int whence) {
     struct scull_dev *dev = filp-&gt;private_data;
     loff_t newpos;
@@ -4890,7 +5682,6 @@
     return newpos;
 }
 </t>
-    </r>
   </si>
   <si>
     <t>Access Control on a Device File</t>
@@ -4952,6 +5743,1719 @@
         scull_u_owner = current-&gt;uid; /* grab it */
     scull_u_count++;
     spin_unlock(&amp;scull_u_lock);</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/ioctl.h&gt;
+    Declares all the macros used to define ioctl commands. It is currently included by &lt;linux/fs.h&gt;.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_IOC_NRBITS
+_IOC_TYPEBITS
+_IOC_SIZEBITS
+_IOC_DIRBITS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The number of bits available for the different bitfields of ioctl commands. There are also four macros that specify the MASK s and four that specify the SHIFT s, but they’re mainly for internal use. _IOC_SIZEBITS is an important value to check, because it changes across architectures.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_IOC_NONE
+_IOC_READ
+_IOC_WRITE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The possible values for the “direction” bitfield. “Read” and “write” are different bits and can be ORed to specify read/write. The values are 0-based.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_IOC(dir,type,nr,size)
+_IO(type,nr)
+_IOR(type,nr,size)
+_IOW(type,nr,size)
+_IOWR(type,nr,size)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros used to create an ioctl command.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_IOC_DIR(nr)
+_IOC_TYPE(nr)
+_IOC_NR(nr)
+_IOC_SIZE(nr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros used to decode a command. In particular, _IOC_TYPE(nr) is an OR combination of _IOC_READ and _IOC_WRITE .
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/wait.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void wake_up(struct wait_queue **q);
+void wake_up_interruptible(struct wait_queue **q);
+void wake_up_nr(struct wait_queue **q, int nr);
+void wake_up_interruptible_nr(struct wait_queue **q, int nr);
+void wake_up_all(struct wait_queue **q);
+void wake_up_interruptible_all(struct wait_queue **q);
+void wake_up_interruptible_sync(struct wait_queue **q);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Wake processes that are sleeping on the queue q . The _interruptible form wakes only interruptible processes. Normally, only one exclusive waiter is awakened, but that behavior can be changed with the _nr or _all forms. The _sync version does not reschedule the CPU before returning.
+#include &lt;linux/sched.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>set_current_state(int state);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Sets the execution state of the current process. TASK_RUNNING means it is ready to run, while the sleep states are TASK_INTERRUPTIBLE and TASK_UNINTERRUPTIBLE .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void schedule(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Selects a runnable process from the run queue. The chosen process can be current or a different one. access_ok first, while the qualified versions (__put_user and __get_user) assume that access_ok has already been called.
+#include &lt;linux/capability.h&gt;
+    Defines the various CAP_ symbols describing the capabilities a user-space process may have.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt capable(int capability);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns nonzero if the process has the given capability.
+#include &lt;linux/sched.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>set_current_state(int state);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Sets the execution state of the current process. TASK_RUNNING means it is ready to  run, while the sleep states are TASK_INTERRUPTIBLE and TASK_UNINTERRUPTIBLE .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void schedule(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Selects a runnable process from the run queue. The chosen process can be current or a different one.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;asm/uaccess.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int access_ok(int type, const void *addr, unsigned long size);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Checks that a pointer to user space is actually usable. access_ok returns a non-zero value if the access should be allowed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>VERIFY_READ
+VERIFY_WRITE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The possible values for the type argument in access_ok. VERIFY_WRITE is a superset of VERIFY_READ .
+#include &lt;asm/uaccess.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int put_user(datum,ptr);
+int get_user(local,ptr);
+int __put_user(datum,ptr);
+int __get_user(local,ptr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros used to store or retrieve a datum to or from user space. The number of bytes being transferred depends on sizeof(*ptr) . The regular versions call access_ok first, while the qualified versions (__put_user and __get_user) assume that access_ok has already been called.
+#include &lt;linux/capability.h&gt;
+    Defines the various CAP_ symbols describing the capabilities a user-space process may have.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int capable(int capability);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns nonzero if the process has the given capability.
+#include &lt;linux/wait.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>typedef struct { /* ... */ } wait_queue_head_t;
+void init_waitqueue_head(wait_queue_head_t *queue);
+DECLARE_WAIT_QUEUE_HEAD(queue);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The defined type for Linux wait queues. A wait_queue_head_t must be explicitly initialized with either init_waitqueue_head at runtime or DECLARE_WAIT_QUEUE_HEAD at compile time.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void wait_event(wait_queue_head_t q, int condition);
+int wait_event_interruptible(wait_queue_head_t q, int condition);
+int wait_event_timeout(wait_queue_head_t q, int condition, int time);
+int wait_event_interruptible_timeout(wait_queue_head_t q, int condition, int time);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Cause the process to sleep on the given queue until the given condition evaluates to a true value.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Time, Delays, and Deferred Work</t>
+  </si>
+  <si>
+    <t>Timekeeping</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/param.h&gt;
+HZ
+    The HZ symbol specifies the number of clock ticks generated per second.
+#include &lt;linux/jiffies.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>volatile unsigned long jiffies
+u64 jiffies_64
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The jiffies_64 variable is incremented once for each clock tick; thus, it’s incremented HZ times per second. Kernel code most often refers to jiffies , which is the same as jiffies_64 on 64-bit platforms and the least significant half of it on 32-bit platforms.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int time_after(unsigned long a, unsigned long b);
+int time_before(unsigned long a, unsigned long b);
+int time_after_eq(unsigned long a, unsigned long b);
+int time_before_eq(unsigned long a, unsigned long b);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    These Boolean expressions compare jiffies in a safe way, without problems in case of counter overflow and without the need to access jiffies_64 .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>u64 get_jiffies_64(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Retrieves jiffies_64 without race conditions.
+#include &lt;linux/time.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned long timespec_to_jiffies(struct timespec *value);
+void jiffies_to_timespec(unsigned long jiffies, struct timespec *value);
+unsigned long timeval_to_jiffies(struct timeval *value);
+void jiffies_to_timeval(unsigned long jiffies, struct timeval *value);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Converts time representations between jiffies and other representations.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/timex.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cycles_t get_cycles(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns the timestamp counter in a platform-independent way. If the CPU offers no timestamp feature, 0 is returned.
+#include &lt;linux/time.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned long mktime(year, mon, day, h, m, s);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns the number of seconds since the Epoch, based on the six unsigned int arguments.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void do_gettimeofday(struct timeval *tv);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns the current time, as seconds and microseconds since the Epoch, with the best resolution the hardware can offer. On most platforms the resolution is one microsecond or better, although some platforms offer only jiffies resolution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct timespec current_kernel_time(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns the current time with the resolution of one jiffy.
+#include &lt;asm/msr.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rdtsc(low32,high32);
+rdtscl(low32);
+rdtscll(var32);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    x86-specific macros to read the timestamp counter. They read it as two 32-bit halves, read only the lower half, or read all of it into a long long variable.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Delays</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/wait.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>long wait_event_interruptible_timeout(wait_queue_head_t *q, condition, signed long timeout);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Puts the current process to sleep on the wait queue, installing a timeout value expressed in jiffies. Use schedule_timeout (below) for noninterruptible sleeps.
+#include &lt;linux/sched.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>signed long schedule_timeout(signed long timeout);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Calls the scheduler after ensuring that the current process is awakened at timeout expiration. The caller must invoke set_current_state first to put itself in an interruptible or noninterruptible sleep state.
+#include &lt;linux/delay.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void ndelay(unsigned long nsecs);
+void udelay(unsigned long usecs);
+void mdelay(unsigned long msecs);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Introduces delays of an integer number of nanoseconds, microseconds, and milliseconds. The delay achieved is at least the requested value, but it can be more. The argument to each function must not exceed a platform-specific limit (usually a few thousands).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void msleep(unsigned int millisecs);
+unsigned long msleep_interruptible(unsigned int millisecs);
+void ssleep(unsigned int seconds);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Puts the process to sleep for the given number of milliseconds (or seconds, in the case of ssleep).
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+Tasklets
+#include &lt;linux/interrupt.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DECLARE_TASKLET(name, func, data);
+DECLARE_TASKLET_DISABLED(name, func, data);
+void tasklet_init(struct tasklet_struct *t, void (*func)(unsigned long), unsigned long data);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The first two macros declare a tasklet structure, while the tasklet_init function initializes a tasklet structure that has been obtained by allocation or other means. The second DECLARE macro marks the tasklet as disabled.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void tasklet_disable(struct tasklet_struct *t);
+void tasklet_disable_nosync(struct tasklet_struct *t);
+void tasklet_enable(struct tasklet_struct *t);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Disables and reenables a tasklet. Each disable must be matched with an enable (you can disable the tasklet even if it’s already disabled). The function tasklet_disable waits for the tasklet to terminate if it is running on another CPU. The nosync version doesn’t take this extra step.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void tasklet_schedule(struct tasklet_struct *t);
+void tasklet_hi_schedule(struct tasklet_struct *t);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Schedules a tasklet to run, either as a “normal” tasklet or a high-priority one. When soft interrupts are executed, high-priority tasklets are dealt with first, while normal tasklets run last.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void tasklet_kill(struct tasklet_struct *t);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Removes the tasklet from the list of active ones, if it’s scheduled to run. Like tasklet_disable, the function may block on SMP systems waiting for the tasklet to terminate if it’s currently running on another CPU.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Kernel Timers</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;asm/hardirq.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int in_interrupt(void);
+int in_atomic(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns a Boolean value telling whether the calling code is executing in interrupt context or atomic context. Interrupt context is outside of a process context, either during hardware or software interrupt processing. Atomic context is when you can’t schedule either an interrupt context or a process’s context with a spinlock held.
+#include &lt;linux/timer.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void init_timer(struct timer_list * timer);
+struct timer_list TIMER_INITIALIZER(_function, _expires, _data);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    This function and the static declaration of the timer structure are the two ways to initialize a timer_list data structure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void add_timer(struct timer_list * timer);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Registers the timer structure to run on the current CPU.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int mod_timer(struct timer_list *timer, unsigned long expires);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Changes the expiration time of an already scheduled timer structure. It can also act as an alternative to add_timer.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int timer_pending(struct timer_list * timer);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macro that returns a Boolean value stating whether the timer structure is already registered to run.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void del_timer(struct timer_list * timer);
+void del_timer_sync(struct timer_list * timer);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Removes a timer from the list of active timers. The latter function ensures that the timer is not currently running on another CPU.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+Workqueues
+#include &lt;linux/workqueue.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct workqueue_struct;
+struct work_struct;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The structures representing a workqueue and a work entry, respectively.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct workqueue_struct *create_workqueue(const char *name);
+struct workqueue_struct *create_singlethread_workqueue(const char *name);
+void destroy_workqueue(struct workqueue_struct *queue);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for creating and destroying workqueues. A call to create_workqueue creates a queue with a worker thread on each processor in the system;instead, create_single thread_workqueue creates a workqueue with a single worker process.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DECLARE_WORK(name, void (*function)(void *), void *data);
+INIT_WORK(struct work_struct *work, void (*function)(void *), void *data);
+PREPARE_WORK(struct work_struct *work, void (*function)(void *), void *data);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Macros that declare and initialize workqueue entries.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt queue_work(struct workqueue_struct *queue, struct work_struct *work);
+int queue_delayed_work(struct workqueue_struct *queue, struct work_struct *work, unsigned long delay);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions that queue work for execution from a workqueue.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt cancel_delayed_work(struct work_struct *work);
+void flush_workqueue(struct workqueue_struct *queue);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Use cancel_delayed_work to remove an entry from a workqueue; flush_workqueue ensures that no workqueue entries are running anywhere in the system.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt schedule_work(struct work_struct *work);
+int schedule_delayed_work(struct work_struct *work, unsigned long delay);
+void flush_scheduled_work(void);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions for working with the shared workqueue.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Allocating Memory</t>
+  </si>
+  <si>
+    <t>
+• the smallest allocation that .kmalloc can handle is as big as 32 or 64 bytes, depending on the page size used by the system’s architecture.
+• There is an upper limit to the size of memory chunks that can be allocated by kmalloc. That limit varies depending on architecture and kernel configuration options. If your code is to be completely portable, it cannot count on being able to allocate anything larger than 128 KB.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+$ getconf PAGESIZE
+$ cat /proc/slabinfo  | grep kmalloc
+void * stuff;
+stuff = kmalloc(1,GFP_KERNEL);
+printk("I got: %zu bytes of memory\n", ksize(stuff));
+kfree(stuff);
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Memory Pools</t>
+  </si>
+  <si>
+    <t>
+• There are places in the kernel where memory allocations cannot be allowed to fail.
+• As a way of guaranteeing allocations in those situations, the kernel developers created an abstraction known as a memory pool (or “mempool”).
+• A memory pool has a type of mempool_t (defined in &lt;linux/mempool.h&gt;); you can create one with mempool_create:
+    mempool_t *mempool_create(int min_nr, mempool_alloc_t *alloc_fn, mempool_free_t *free_fn, void *pool_data);
+    The min_nr argument is the minimum number of allocated objects that the pool should always keep around. The actual allocation and freeing of objects is handled by alloc_fn and free_fn , which have these prototypes:
+    typedef void *(mempool_alloc_t)(int gfp_mask, void *pool_data);
+    typedef void (mempool_free_t)(void *element, void *pool_data);
+    The final parameter to mempool_create ( pool_data ) is passed to alloc_fn and free_fn .
+</t>
+  </si>
+  <si>
+    <t>get_free_page</t>
+  </si>
+  <si>
+    <t>
+• If a module needs to allocate big chunks of memory, it is usually better to use a pageoriented technique. Requesting whole pages also has other advantages.
+• order is the base-two logarithm of the number of pages you are requesting or freeing (i.e., log 2N ).
+• For example, order is 0 if you want one page and 3 if you request eight pages.
+• If order is too big (no contiguous area of that size is available), the page allocation fails. The get_order function, which takes an integer argument, can be used to extract the order from a size (that must be a power of two) for the hosting platform. The maximum allowed value for order is 10 or 11 (corresponding to 1024 or 2048 pages), depending on the architecture.
+• When a program is done with the pages, it can free them with one of the following functions. The first function is a macro that falls back on the second:
+• If you try to free a different number of pages from what you allocated, the memory map becomes corrupted, and the system gets in trouble at a later time.
+• kmalloc is designed to be fast. The main advantage of page-level allocation isn’t actually speed, but rather more efficient memory usage. Allocating by pages wastes no memory, whereas using kmalloc wastes an unpredictable amount of memory because of allocation granularity.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+• To allocate pages, the following functions are available:
+get_zeroed_page(unsigned int flags);
+    Returns a pointer to a new page and fills the page with zeros.
+__get_free_page(unsigned int flags);
+    Similar to get_zeroed_page, but doesn’t clear the page.
+__get_free_pages(unsigned int flags, unsigned int order);
+    Allocates and returns a pointer to the first byte of a memory area that is potentially several (physically contiguous) pages long but doesn’t zero the area.
+void free_page(unsigned long addr);
+void free_pages(unsigned long addr, unsigned long order);
+• In order to test page allocation for real, we have released the scullp module together with other sample code.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>The alloc_pages Interface</t>
+  </si>
+  <si>
+    <t>
+• there are many places in the kernel where it is necessary to work with page structures; they are especially useful in any situation where you might be dealing with high memory, which does not have a constant address in kernel space.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+• This function also has two variants (which are simply macros); these are the versions that you will most likely use:
+    struct page *alloc_pages(unsigned int flags, unsigned int order);
+    struct page *alloc_page(unsigned int flags);
+• To release pages allocated in this manner, you should use one of the following:
+    void __free_page(struct page *page);
+    void __free_pages(struct page *page, unsigned int order);
+    void free_hot_page(struct page *page);
+    void free_cold_page(struct page *page);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Sample code using vmalloc is provided in the scullv module.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/slab.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *kmalloc(size_t size, int flags);
+void kfree(void *obj);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   The most frequently used interface to memory allocation.
+#include &lt;linux/mm.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>GFP_USER, GFP_KERNEL, GFP_NOFS, GFP_NOIO, GFP_ATOMIC
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Flags that control how memory allocations are performed, from the least restrictive to the most. The GFP_USER and GFP_KERNEL priorities allow the current process to be put to sleep to satisfy the request. GFP_NOFS and GFP_NOIO disable filesystem operations and all I/O operations, respectively, while GFP_ATOMIC allocations can not sleep at all.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>__GFP_DMA, __GFP_HIGHMEM, __GFP_COLD, __GFP_NOWARN, __GFP_HIGH, __GFP_REPEAT, __GFP_NOFAIL, __GFP_NORETRY
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   These flags modify the kernel’s behavior when allocating memory.
+#include &lt;linux/malloc.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kmem_cache_t *kmem_cache_create(char *name, size_t size, size_t offset, unsigned long flags, constructor( ), destructor( ));
+int kmem_cache_destroy(kmem_cache_t *cache);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Create and destroy a slab cache. The cache can be used to allocate several objects of the same size.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>SLAB_NO_REAP, SLAB_HWCACHE_ALIGN, SLAB_CACHE_DMA, 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Flags that can be specified while creating a cache.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>SLAB_CTOR_ATOMIC, SLAB_CTOR_CONSTRUCTOR
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Flags that the allocator can pass to the constructor and the destructor functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *kmem_cache_alloc(kmem_cache_t *cache, int flags);
+void kmem_cache_free(kmem_cache_t *cache, const void *obj);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Allocate and release a single object from the cache.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/proc/slabinfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    A virtual file containing statistics on slab cache usage.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/mempool.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mempool_t *mempool_create(int min_nr, mempool_alloc_t *alloc_fn, mempool_free_t *free_fn, void *data);
+void mempool_destroy(mempool_t *pool);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions for the creation of memory pools, which try to avoid memory allocation failures by keeping an “emergency list” of allocated items.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *mempool_alloc(mempool_t *pool, int gfp_mask);
+void mempool_free(void *element, mempool_t *pool);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions for allocating items from (and returning them to) memory pools.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned long get_zeroed_page(int flags);
+unsigned long __get_free_page(int flags);
+unsigned long __get_free_pages(int flags, unsigned long order);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   The page-oriented allocation functions. get_zeroed_page returns a single, zerofilled page. All the other versions of the call do not initialize the contents of the returned page(s).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int get_order(unsigned long size);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Returns the allocation order associated to size in the current platform, according to PAGE_SIZE . The argument must be a power of two, and the return value is at least 0 .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void free_page(unsigned long addr);
+void free_pages(unsigned long addr, unsigned long order);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that release page-oriented allocations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct page *alloc_pages_node(int nid, unsigned int flags, unsigned int order);
+struct page *alloc_pages(unsigned int flags, unsigned int order);
+struct page *alloc_page(unsigned int flags);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   All variants of the lowest-level page allocator in the Linux kernel.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Void __free_page(struct page *page);
+void __free_pages(struct page *page, unsigned int order);
+void free_hot_page(struct page *page);
+void free_cold_page(struct page *page);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Various ways of freeing pages allocated with one of the forms of alloc_page.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/vmalloc.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void * vmalloc(unsigned long size);
+void vfree(void * addr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#include &lt;asm/io.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void * ioremap(unsigned long offset, unsigned long size);
+void iounmap(void *addr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that allocate or free a contiguous virtual address space. ioremap accesses physical memory through virtual addresses, while vmalloc allocates free pages. Regions mapped with ioremap are freed with iounmap, while pages obtained from vmalloc are released with vfree.
+#include &lt;linux/percpu.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DEFINE_PER_CPU(type, name);
+DECLARE_PER_CPU(type, name);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Macros that define and declare per-CPU variables.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>per_cpu(variable, int cpu_id)
+get_cpu_var(variable)
+put_cpu_var(variable)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Macros that provide access to statically declared per-CPU variables.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *alloc_percpu(type);
+void *__alloc_percpu(size_t size, size_t align);
+void free_percpu(void *variable);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that perform runtime allocation and freeing of per-CPU variables.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt get_cpu( );
+void put_cpu( );
+per_cpu_ptr(void *variable, int cpu_id)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   get_cpu obtains a reference to the current processor (therefore, preventing preemption and movement to another processor) and returns the ID number of the processor; put_cpu returns that reference. To access a dynamically allocated per CPU variable, use per_cpu_ptr with the ID of the CPU whose version should be accessed. Manipulations of the current CPU’s version of a dynamic, per-CPU variable should probably be surrounded by calls to get_cpu and put_cpu.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/bootmem.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *alloc_bootmem(unsigned long size);
+void *alloc_bootmem_low(unsigned long size);
+void *alloc_bootmem_pages(unsigned long size);
+void *alloc_bootmem_low_pages(unsigned long size);
+void free_bootmem(unsigned long addr, unsigned long size);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions (which can be used only by drivers directly linked into the kernel) that perform allocation and freeing of memory at system bootstrap time.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5136,7 +7640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5305,7 +7809,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5388,7 +7896,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5779,7 +8287,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -6044,7 +8552,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -6560,7 +9068,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6629,7 +9137,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -7199,7 +9707,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -7589,7 +10097,7 @@
   </sheetPr>
   <dimension ref="1:141"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10145,18 +12653,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="41" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="26.1173469387755"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="38" width="81.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="59.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="68.9183673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.4234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
   </cols>
@@ -10164,7 +12673,7 @@
     <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
         <v>71</v>
       </c>
@@ -10185,7 +12694,7 @@
       </c>
     </row>
     <row r="5" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +12708,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="38" t="s">
         <v>636</v>
       </c>
@@ -10207,7 +12716,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="38" t="s">
         <v>638</v>
       </c>
@@ -10215,7 +12724,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="38" t="s">
         <v>640</v>
       </c>
@@ -10223,7 +12732,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="38" t="s">
         <v>642</v>
       </c>
@@ -10234,7 +12743,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="38" t="s">
         <v>645</v>
       </c>
@@ -10245,12 +12754,12 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="38" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="38" t="s">
         <v>649</v>
       </c>
@@ -10258,7 +12767,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="38" t="s">
         <v>651</v>
       </c>
@@ -10269,7 +12778,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="38" t="s">
         <v>654</v>
       </c>
@@ -10280,7 +12789,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="38" t="s">
         <v>657</v>
       </c>
@@ -10291,7 +12800,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="38" t="s">
         <v>660</v>
       </c>
@@ -10302,7 +12811,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="38" t="s">
         <v>663</v>
       </c>
@@ -10310,7 +12819,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="38" t="s">
         <v>665</v>
       </c>
@@ -10318,7 +12827,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="38" t="s">
         <v>667</v>
       </c>
@@ -10326,7 +12835,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="38" t="s">
         <v>669</v>
       </c>
@@ -10337,7 +12846,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="38" t="s">
         <v>672</v>
       </c>
@@ -10345,7 +12854,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="38" t="s">
         <v>674</v>
       </c>
@@ -10356,17 +12865,17 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="37" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="38" t="s">
         <v>679</v>
       </c>
@@ -10374,29 +12883,30 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="562.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="E27" s="43" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="38" t="s">
+    <row r="28" customFormat="false" ht="497.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="E28" s="43" t="s">
         <v>685</v>
       </c>
-      <c r="E28" s="38" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="38" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="38" t="s">
         <v>687</v>
       </c>
@@ -10404,7 +12914,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="38" t="s">
         <v>689</v>
       </c>
@@ -10415,144 +12925,275 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="38" t="s">
         <v>692</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="E31" s="38" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="38" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="38" t="s">
+      <c r="D32" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="E32" s="38" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="38" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E33" s="38" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="38" t="s">
+        <v>700</v>
+      </c>
       <c r="D35" s="38" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="D36" s="38" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="38" t="s">
+    <row r="36" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="37" t="s">
         <v>703</v>
       </c>
+      <c r="E36" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="38" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="38" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="38" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="E41" s="38" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="38" t="s">
         <v>714</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="E42" s="38" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="38" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="38" t="s">
+      <c r="D43" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="E43" s="38" t="s">
         <v>718</v>
       </c>
-      <c r="E43" s="38" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="38" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="38" t="s">
+      <c r="D44" s="38" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="38" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="38" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="D46" s="38" t="s">
         <v>725</v>
       </c>
-      <c r="E46" s="38" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="38" t="s">
         <v>726</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="38" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="38" t="s">
+        <v>735</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="38" t="s">
+        <v>739</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>740</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="38" t="s">
+        <v>742</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>743</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="38" t="s">
+        <v>748</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="38" t="s">
+        <v>750</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="774">
   <si>
     <t>Sr No</t>
   </si>
@@ -6086,6 +6086,12 @@
         <charset val="1"/>
       </rPr>
       <t>    Returns nonzero if the process has the given capability.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
 #include &lt;linux/wait.h&gt;
 </t>
     </r>
@@ -6093,9 +6099,9 @@
       <rPr>
         <b val="true"/>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>typedef struct { /* ... */ } wait_queue_head_t;
 void init_waitqueue_head(wait_queue_head_t *queue);
@@ -6105,9 +6111,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>    The defined type for Linux wait queues. A wait_queue_head_t must be explicitly initialized with either init_waitqueue_head at runtime or DECLARE_WAIT_QUEUE_HEAD at compile time.
 </t>
@@ -6116,9 +6122,9 @@
       <rPr>
         <b val="true"/>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>void wait_event(wait_queue_head_t q, int condition);
 int wait_event_interruptible(wait_queue_head_t q, int condition);
@@ -6129,9 +6135,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>    Cause the process to sleep on the given queue until the given condition evaluates to a true value.
 </t>
@@ -6851,8 +6857,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 $ getconf PAGESIZE
 $ cat /proc/slabinfo  | grep kmalloc
 void * stuff;
@@ -6860,7 +6865,6 @@
 printk("I got: %zu bytes of memory\n", ksize(stuff));
 kfree(stuff);
 </t>
-    </r>
   </si>
   <si>
     <t>Memory Pools</t>
@@ -6892,8 +6896,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 • To allocate pages, the following functions are available:
 get_zeroed_page(unsigned int flags);
     Returns a pointer to a new page and fills the page with zeros.
@@ -6905,7 +6908,6 @@
 void free_pages(unsigned long addr, unsigned long order);
 • In order to test page allocation for real, we have released the scullp module together with other sample code.
 </t>
-    </r>
   </si>
   <si>
     <t>The alloc_pages Interface</t>
@@ -6916,8 +6918,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 • This function also has two variants (which are simply macros); these are the versions that you will most likely use:
     struct page *alloc_pages(unsigned int flags, unsigned int order);
     struct page *alloc_page(unsigned int flags);
@@ -6926,17 +6927,8 @@
     void __free_pages(struct page *page, unsigned int order);
     void free_hot_page(struct page *page);
     void free_cold_page(struct page *page);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Sample code using vmalloc is provided in the scullv module.
-</t>
-    </r>
+• Sample code using vmalloc is provided in the scullv module.
+</t>
   </si>
   <si>
     <r>
@@ -7454,6 +7446,580 @@
         <charset val="1"/>
       </rPr>
       <t>   Functions (which can be used only by drivers directly linked into the kernel) that perform allocation and freeing of memory at system bootstrap time.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/kernel.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void barrier(void)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   This “software” memory barrier requests the compiler to consider all memory volatile across this instruction.
+#include &lt;asm/system.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void rmb(void);
+void read_barrier_depends(void);
+void wmb(void);
+void mb(void);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Hardware memory barriers. They request the CPU (and the compiler) to check point all memory reads, writes, or both across this instruction.
+#include &lt;asm/io.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned inb(unsigned port);
+void outb(unsigned char byte, unsigned port);
+unsigned inw(unsigned port);
+void outw(unsigned short word, unsigned port);
+unsigned inl(unsigned port);
+void outl(unsigned doubleword, unsigned port);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that are used to read and write I/O ports. They can also be called by user-space programs, provided they have the right privileges to access ports.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned inb_p(unsigned port);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>...
+    If a small delay is needed after an I/O operation, you can use the six pausing counterparts of the functions introduced in the previous entry; these pausing functions have names ending in _p.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void insb(unsigned port, void *addr, unsigned long count);
+void outsb(unsigned port, void *addr, unsigned long count);
+void insw(unsigned port, void *addr, unsigned long count);
+void outsw(unsigned port, void *addr, unsigned long count);
+void insl(unsigned port, void *addr, unsigned long count);
+void outsl(unsigned port, void *addr, unsigned long count);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   The “string functions” are optimized to transfer data from an input port to a region of memory, or the other way around. Such transfers are performed by reading or writing the same port count times.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/ioport.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct resource *request_region(unsigned long start, unsigned long len, char *name);
+void release_region(unsigned long start, unsigned long len);
+int check_region(unsigned long start, unsigned long len);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Resource allocators for I/O ports. The (deprecated) check function returns 0 for success and less than 0 in case of error.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct resource *request_mem_region(unsigned long start, unsigned long len, char *name);
+void release_mem_region(unsigned long start, unsigned long len);
+Int check_mem_region(unsigned long start, unsigned long len);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that handle resource allocation for memory regions.
+#include &lt;asm/io.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *ioremap(unsigned long phys_addr, unsigned long size);
+void *ioremap_nocache(unsigned long phys_addr, unsigned long size);
+void iounmap(void *virt_addr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   ioremap remaps a physical address range into the processor’s virtual address space, making it available to the kernel. iounmap frees the mapping when it is no longer needed.
+#include &lt;asm/io.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned int ioread8(void *addr);
+unsigned int ioread16(void *addr);
+unsigned int ioread32(void *addr);
+void iowrite8(u8 value, void *addr);
+void iowrite16(u16 value, void *addr);
+void iowrite32(u32 value, void *addr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Accessor functions that are used to work with I/O memory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void ioread8_rep(void *addr, void *buf, unsigned long count);
+void ioread16_rep(void *addr, void *buf, unsigned long count);
+void ioread32_rep(void *addr, void *buf, unsigned long count);
+void iowrite8_rep(void *addr, const void *buf, unsigned long count);
+void iowrite16_rep(void *addr, const void *buf, unsigned long count);
+void iowrite32_rep(void *addr, const void *buf, unsigned long count);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   “Repeating” versions of the I/O memory primitives.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned readb(address);
+unsigned readw(address);
+unsigned readl(address);
+void writeb(unsigned value, address);
+void writew(unsigned value, address);
+void writel(unsigned value, address);
+memset_io(address, value, count);
+memcpy_fromio(dest, source, nbytes);
+memcpy_toio(dest, source, nbytes);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Older, type-unsafe functions for accessing I/O memory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void *ioport_map(unsigned long port, unsigned int count);
+void ioport_unmap(void *addr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   A driver author that wants to treat I/O ports as if they were I/O memory may pass those ports to ioport_map. The mapping should be done (with ioport_unmap) when no longer needed.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Interrupt Handling</t>
+  </si>
+  <si>
+    <t>The /proc Interface</t>
+  </si>
+  <si>
+    <t>
+• If the driver you’re testing acquires and releases the interrupt at each open and close cycle, you may find /proc/stat more useful than /proc/interrupts.
+</t>
+  </si>
+  <si>
+    <t>Autodetecting the IRQ Number</t>
+  </si>
+  <si>
+    <t>
+• Some devices are more advanced in design and simply “announce” which interrupt they’re going to use. In this case, the driver retrieves the interrupt number by read ing a status byte from one of the device’s I/O ports or PCI configuration space.
+• autodetecting the IRQ number just means probing the device, with no additional work required to probe the interrupt.
+• Unfortunately, not every device is programmer friendly, and autodetection might require some probing. The technique is quite simple: the driver tells the device to generate interrupts and watches what happens.
+Kernel-assisted probing
+• The Linux kernel offers a low-level facility for probing the interrupt number. It works
+for only nonshared interrupts. The facility consists of two functions, declared in &lt;linux/interrupt.h&gt;
+    unsigned long probe_irq_on(void);
+    This function returns a bit mask of unassigned interrupts. The driver must preserve the returned bit mask, and pass it to probe_irq_off later. After this call, the driver should arrange for its device to generate at least one interrupt.
+    int probe_irq_off(unsigned long);
+    After the device has requested an interrupt, the driver calls this function, passing as its argument the bit mask previously returned by probe_irq_on. probe_irq_off returns the number of the interrupt that was issued after “probe_on.” If no interrupts occurred, 0 is returned (therefore, IRQ 0 can’t be probed for, but no custom device can use it on any of the supported architectures anyway). If more than one interrupt occurred (ambiguous detection), probe_irq_off returns a negative value.
+• The programmer should be careful to enable interrupts on the device after the call to probe_irq_on and to disable them before calling probe_irq_off. Additionally, you must remember to service the pending interrupt in your device after probe_irq_off.
+</t>
+  </si>
+  <si>
+    <t>Enabling and Disabling Interrupts</t>
+  </si>
+  <si>
+    <t>
+• Disabling a single interrupt
+• The kernel offers three functions for this purpose, all declared in &lt;asm/irq.h&gt;. Among other things, you cannot disable shared interrupt lines, and, on modern systems, shared interrupts are the norm. That said, here they are:
+• disabling or enabling the specified IRQ across all processors. Calls to these functions can be nested—if disable_irq is called twice in succession, two enable_irq calls are required before the IRQ is truly reenabled. It is possible to call these functions from an interrupt handler, but enabling your own IRQ while handling it is not usually good practice.
+• disable_irq not only disables the given interrupt but also waits for a currently executing interrupt handler, if any, to complete.
+• Disabling all interrupts
+• it is possible to turn off all interrupt handling on the current processor with either of the following two functions (which are defined in &lt;asm/system.h&gt;):
+• A call to local_irq_save disables interrupt delivery on the current processor after saving the current interrupt state into flags . Note that flags is passed directly, not by pointer. local_irq_disable shuts off local interrupt delivery without saving the state
+• The local_irq_restore() restores that state which was stored into flags by local_irq_save, while local_irq_enable enables interrupts unconditionally. 
+• Unlike disable_irq, local_irq_disable does not keep track of multiple calls. If more than one function in the call chain might need to disable interrupts, local_irq_save should be used.
+• there is no way to disable all interrupts globally across the entire system. The kernel developers have decided that the cost of shutting off all interrupts is too high and that there is no need for that capability in any case.
+</t>
+  </si>
+  <si>
+    <t>
+void disable_irq(int irq);
+void disable_irq_nosync(int irq);
+void enable_irq(int irq);
+void local_irq_save(unsigned long flags);
+void local_irq_disable(void); 
+void local_irq_restore(unsigned long flags);
+void local_irq_enable(void);
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+#include &lt;linux/interrupt.h&gt;
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt request_irq(unsigned int irq, irqreturn_t (*handler)( ), unsigned long flags, const char *dev_name, void *dev_id);
+void free_irq(unsigned int irq, void *dev_id);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Calls that register and unregister an interrupt handler.
+#include &lt;linux/irq.h.h&gt;
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt can_request_irq(unsigned int irq, unsigned long flags);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   This function, available on the i386 and x86_64 architectures, returns a nonzero value if an attempt to allocate the given interrupt line succeeds.
+#include &lt;asm/signal.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>SA_INTERRUPT, SA_SHIRQ, SA_SAMPLE_RANDOM
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Flags for request_irq. SA_INTERRUPT requests installation of a fast handler (as opposed to a slow one). SA_SHIRQ installs a shared handler, and the third flag asserts that interrupt timestamps can be used to generate system entropy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/proc/interrupts, /proc/stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Filesystem nodes that report information about hardware interrupts and installed handlers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>unsigned long probe_irq_on(void);
+int probe_irq_off(unsigned long);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions used by the driver when it has to probe to determine which interrupt line is being used by a device. The result of probe_irq_on must be passed back to probe_irq_off after the interrupt has been generated. The return value of probe_irq_off is the detected interrupt number.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+I</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RQ_NONE, IRQ_HANDLED, IRQ_RETVAL(int x)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   The possible return values from an interrupt handler, indicating whether an actual interrupt from the device was present.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>void disable_irq(int irq);
+void disable_irq_nosync(int irq);
+void enable_irq(int irq);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   A driver can enable and disable interrupt reporting. If the hardware tries to generate an interrupt while interrupts are disabled, the interrupt is lost forever. A driver using a shared handler must not use these functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>void local_irq_save(unsigned long flags);
+void local_irq_restore(unsigned long flags);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   Use local_irq_save to disable interrupts on the local processor and remember their previous state. The flags can be passed to local_irq_restore to restore the previous interrupt state.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>void local_irq_disable(void);
+void local_irq_enable(void);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   Functions that unconditionally disable and enable interrupts on the current processor.
 </t>
     </r>
   </si>
@@ -7465,7 +8031,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7563,6 +8129,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7640,7 +8225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7814,6 +8399,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12653,10 +13246,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13092,89 +13685,92 @@
         <v>733</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="38" t="s">
         <v>734</v>
       </c>
+      <c r="E50" s="44" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="38" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="38" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="38" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>534</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="38" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="38" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="38" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13182,18 +13778,72 @@
         <v>651</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="38" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>759</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>770</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="809">
   <si>
     <t>Sr No</t>
   </si>
@@ -6102,6 +6102,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>typedef struct { /* ... */ } wait_queue_head_t;
 void init_waitqueue_head(wait_queue_head_t *queue);
@@ -6114,6 +6115,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>    The defined type for Linux wait queues. A wait_queue_head_t must be explicitly initialized with either init_waitqueue_head at runtime or DECLARE_WAIT_QUEUE_HEAD at compile time.
 </t>
@@ -6125,6 +6127,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>void wait_event(wait_queue_head_t q, int condition);
 int wait_event_interruptible(wait_queue_head_t q, int condition);
@@ -6138,6 +6141,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>    Cause the process to sleep on the given queue until the given condition evaluates to a true value.
 </t>
@@ -7948,6 +7952,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>RQ_NONE, IRQ_HANDLED, IRQ_RETVAL(int x)
  </t>
@@ -7957,6 +7962,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>   The possible return values from an interrupt handler, indicating whether an actual interrupt from the device was present.
 </t>
@@ -7967,6 +7973,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>void disable_irq(int irq);
 void disable_irq_nosync(int irq);
@@ -7978,6 +7985,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>   A driver can enable and disable interrupt reporting. If the hardware tries to generate an interrupt while interrupts are disabled, the interrupt is lost forever. A driver using a shared handler must not use these functions.
 </t>
@@ -7988,6 +7996,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>void local_irq_save(unsigned long flags);
 void local_irq_restore(unsigned long flags);
@@ -7998,6 +8007,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>   Use local_irq_save to disable interrupts on the local processor and remember their previous state. The flags can be passed to local_irq_restore to restore the previous interrupt state.
 </t>
@@ -8008,6 +8018,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>void local_irq_disable(void);
 void local_irq_enable(void);
@@ -8018,10 +8029,297 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>   Functions that unconditionally disable and enable interrupts on the current processor.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Linux Device Model</t>
+  </si>
+  <si>
+    <t>
+• The device model provides that abstraction. It is now used within the kernel to support a wide variety of tasks, including:
+    -  Power management and system shutdown
+    -  Communications with user space
+    -  Hotpluggable devices
+    -  Device classes
+    -  Object lifecycles
+</t>
+  </si>
+  <si>
+    <t>Kobjects basics</t>
+  </si>
+  <si>
+    <t>
+• The kobject is the fundamental structure that holds the device model together.
+• The tasks handled by struct kobject and its supporting code now include:
+    Reference counting of objects
+        tracking the lifecycle of objects is through reference counting. When no code in the kernel holds a reference to a given object, that object has finished its useful life and can be deleted.
+    Sysfs representation
+        Every object that shows up in sysfs has, underneath it, a kobject that interacts with the kernel to create its visible representation.
+    Data structure glue
+        The device model is, in its entirety, a fiendishly complicated data structure made up of multiple hierarchies with numerous links between them.
+    Hotplug event handling
+        The kobject subsystem handles the generation of events that notify user space about the comings and goings of hardware on the system.
+• the way to convert a pointer to a struct kobject called kp embedded within a struct cdev would be:
+    struct cdev *device = container_of(kp, struct cdev, kobj);
+</t>
+  </si>
+  <si>
+    <t>kobject initialization</t>
+  </si>
+  <si>
+    <t>
+• The first of those is to simply set the entire kobject to 0 , usually with a call to memset.
+• The next step is to set up some of the internal fields with a call to kobject_init( ):
+    void kobject_init(struct kobject *kobj);
+    - Among other things, kobject_init sets the kobject’s reference count to one. 
+    - Calling kobject_init is not sufficient, however. Kobject users must, at a minimum, set the name of the kobject; this is the name that is used in sysfs entries.
+    int kobject_set_name(struct kobject *kobj, const char *format, ...);
+    - This function takes a printk-style variable argument list. Believe it or not, it is actually possible for this operation to fail (it may try to allocate memory); 
+    - conscientious code should check the return value and react accordingly.
+• The other kobject fields that should be set, directly or indirectly, by the creator are ktype , kset , and parent .
+</t>
+  </si>
+  <si>
+    <t>Reference count manipulation</t>
+  </si>
+  <si>
+    <t>
+• As long as references to the object exist, the object (and the code that supports it) must continue to exist. 
+• The low-level functions for manipulating a kobject’s reference counts are:
+    struct kobject *kobject_get(struct kobject *kobj);
+    void kobject_put(struct kobject *kobj);
+    - A successful call to kobject_get increments the kobject’s reference counter and returns a pointer to the kobject. 
+    - If, however, the kobject is already in the process of being destroyed, the operation fails, and kobject_get returns NULL . 
+    - This return value must always be tested, or no end of unpleasant race conditions could result.
+    - When a reference is released, the call to kobject_put decrements the reference count and, possibly, frees the object. 
+• Remember that kobject_init sets the reference count to one; so when you create a kobject, you should make sure that the corresponding kobject_put call is made when that initial reference is no longer needed.
+</t>
+  </si>
+  <si>
+    <t>Release functions and kobject types</t>
+  </si>
+  <si>
+    <t>
+• The reference count is not under the direct control of the code that created the kobject. So that code must be notified asynchronously whenever the last reference to one of its kobjects goes away.
+• This notification is done through a kobject’s release method.
+• Interestingly, the release method is not stored in the kobject itself; instead, it is associated with the type of the structure that contains the kobject. 
+• This type is tracked with a structure of type struct kobj_type , often simply called a “ktype.” This structure looks like the following:
+• Every kobject needs to have an associated kobj_type structure. Confusingly, the pointer to this structure can be found in two different places.
+• The kobject structure itself contains a field (called ktype ) that can contain this pointer.
+• the following macro finds the kobj_type pointer for a given kobject:
+    struct kobj_type *get_ktype(struct kobject *kobj);
+</t>
+  </si>
+  <si>
+    <t>struct kobj_type {
+    void (*release)(struct kobject *);
+    struct sysfs_ops *sysfs_ops;
+    struct attribute **default_attrs;
+};</t>
+  </si>
+  <si>
+    <t>Kobject Hierarchies</t>
+  </si>
+  <si>
+    <t>
+• The kobject structure is often used to link together objects into a hierarchical structure that matches the structure of the subsystem being modeled. 
+• There are two separate mechanisms for this linking: the parent pointer and ksets.
+• The parent field in struct kobject is a pointer to another kobject—the one representing the next level up in the hierarchy.
+• The main use for the parent pointer is to position the object in the sysfs hierarchy.
+</t>
+  </si>
+  <si>
+    <t>Ksets</t>
+  </si>
+  <si>
+    <t>
+• a kset looks like an extension of the kobj_type structure; a kset is a collection of kobjects embedded within structures of the same type.
+• It is worth noting that ksets are always represented in sysfs; once a kset has been set up and added to the system, there will be a sysfs directory for it. 
+• Kobjects do not necessarily show up in sysfs, but every kobject that is a member of a kset is represented there.
+• Adding a kobject to a kset is usually done when the object is created; it is a two-step process. 
+• The kobject’s kset field must be pointed at the kset of interest; then the kobject should be passed to:
+    int kobject_add(struct kobject *kobj);
+• function is simply a combination of kobject_init and kobject_add.
+    extern int kobject_register(struct kobject *kobj);
+• At some point, the kobject will probably have to be removed from the kset to clear that reference; that is done with:
+    void kobject_del(struct kobject *kobj);
+• There is also a kobject_unregister function, which is a combination of kobject_del and kobject_put.
+• A kset keeps its children in a standard kernel linked list. In almost all cases, the contained kobjects also have pointers to the kset (or, strictly, its embedded kobject) in their parent’s fields.
+</t>
+  </si>
+  <si>
+    <t>Operations on ksets</t>
+  </si>
+  <si>
+    <t>
+• For initialization and setup, ksets have an interface very similar to that of kobjects.
+• The following functions exist:
+    void kset_init(struct kset *kset);
+    int kset_add(struct kset *kset);
+    int kset_register(struct kset *kset);
+    void kset_unregister(struct kset *kset);
+• To manage the reference counts of ksets, the situation is about the same:
+    struct kset *kset_get(struct kset *kset);
+    void kset_put(struct kset *kset);
+• A kset also has a name, which is stored in the embedded kobject. So, if you have a kset called my_set , you would set its name with:
+    kobject_set_name(&amp;my_set-&gt;kobj, "The name");
+• Ksets also have a pointer (in the ktype field) to the kobj_type structure describing the kobjects it contains.
+• This type is used in preference to the ktype field in a kobject itself. As a result, in typical usage, the ktype field in struct kobject is left NULL, because the same field within the kset is the one actually used.
+</t>
+  </si>
+  <si>
+    <t>Subsystems</t>
+  </si>
+  <si>
+    <t>
+• A subsystem is a representation for a high-level portion of the kernel as a whole.
+• Sub-systems usually (but not always) show up at the top of the sysfs hierarchy. Some example subsystems in the kernel include block_subsys (/sys/block, for block devices)
+• A subsystem, thus, is really just a wrapper around a kset, with a semaphore thrown in. Every kset must belong to a subsystem.
+• the subsystem’s rwsem semaphore is used to serialize access to a kset’s internal-linked list.
+</t>
+  </si>
+  <si>
+    <t>
+A subsystem is represented by a simple structure:
+    struct subsystem {
+        struct kset kset;
+        struct rw_semaphore rwsem;
+    };
+</t>
+  </si>
+  <si>
+    <t>Low-Level Sysfs Operations</t>
+  </si>
+  <si>
+    <t>
+• Kobjects are the mechanism behind the sysfs virtual filesystem.
+• Every kobject of interest also exports one or more attributes, which appear in that kobject’s sysfs directory as files containing kernel-generated information.
+• Getting a kobject to show up in sysfs is simply a matter of calling kobject_add.
+• There are a couple of things worth knowing about how the sysfs entry is created:
+    - Sysfs entries for kobjects are always directories, so a call to kobject_add results in the creation of a directory in sysfs. Usually that directory contains one or more attributes.
+    - The name assigned to the kobject (with kobject_set_name) is the name used for the sysfs directory. Names assigned to kobjects should also be reasonable file names: they cannot contain the slash character, and the use of white space is strongly discouraged.
+    - The sysfs entry is located in the directory corresponding to the kobject’s parent pointer. 
+    - If parent is NULL when kobject_add is called, it is set to the kobject embedded in the new kobject’s kset; thus, the sysfs hierarchy usually matches the internal hierarchy created with ksets. 
+    - If both parent and kset are NULL , the sysfs directory is created at the top level, which is almost certainly not what you want.
+</t>
+  </si>
+  <si>
+    <t>Default attrubutes</t>
+  </si>
+  <si>
+    <t>
+• When created, every kobject is given a set of default attributes. 
+• These attributes are specified by way of the kobj_type structure. That structure, remember, looks like this:
+• The default_attrs field lists the attributes to be created for every kobject of this type, and sysfs_ops provides the methods to implement those attributes.
+• default_attrs , which points to an array of pointers to attribute structures:
+• In attribute structure, 
+    - name is the name of the attribute (as it appears within the kobject’s sysfs directory), 
+    - owner is a pointer to the module (if any) that is responsible for the implementation of this attribute, and 
+    - mode is the protection bits that are to be applied to this attribute. The mode is usually S_IRUGO for read-only attributes.
+    - modes are defined in &lt;linux/stat.h&gt;).
+• The default_attrs array says what the attributes are but does not tell sysfs how to actually implement those attributes. That task falls to the kobj_type-&gt;sysfs_ops field, which points to a structure defined as:
+• Whenever an attribute is read from user space, the show method is called with a pointer to the kobject and the appropriate attribute structure.
+• That method should encode the value of the given attribute into buffer , being sure not to overrun it (it is PAGE_SIZE bytes), and return the actual length of the returned data.
+• The store method is similar; it should decode the data stored in buffer ( size contains the length of that data, which does not exceed PAGE_SIZE ), store and respond to the new value in whatever way makes sense, and return the number of bytes actually decoded.
+• The store method can be called only if the attribute’s permissions allow writes.
+• If the incoming data does not match expectations, return a negative error value rather than possibly doing something unwanted and unrecoverable.
+</t>
+  </si>
+  <si>
+    <t>
+struct sysfs_ops {
+    ssize_t (*show)(struct kobject *kobj, struct attribute *attr,
+    char *buffer);
+    ssize_t (*store)(struct kobject *kobj, struct attribute *attr,
+    const char *buffer, size_t size);
+};
+struct kobj_type {
+    void (*release)(struct kobject *);
+    struct sysfs_ops *sysfs_ops;
+    struct attribute **default_attrs;
+};
+struct attribute {
+    char *name;
+    struct module *owner;
+    mode_t mode;
+};
+</t>
+  </si>
+  <si>
+    <t>Nondefault Attributes</t>
+  </si>
+  <si>
+    <t>
+• In many cases, the kobject type’s default_attrs field describes all the attributes that kobject will ever have. But that’s not a restriction in the design; attributes can be added and removed to kobjects at will. 
+• If you wish to add a new attribute to a kobject’s sysfs directory, simply fill in an attribute structure and pass it to:
+    int sysfs_create_file(struct kobject *kobj, struct attribute *attr);
+    - the file is created with the name given in the attribute structure, and the return value is 0 ; otherwise, the usual negative error code is returned.
+• Note that the same show( ) and store( ) functions are called to implement operations on the new attribute.
+• Before you add a new, nondefault attribute to a kobject, you should take whatever steps are necessary to ensure that those functions know how to implement that attribute.
+• To remove an attribute, call:
+    int sysfs_remove_file(struct kobject *kobj, struct attribute *attr);
+    - After the call, the attribute no longer appears in the kobject’s sysfs entry.
+</t>
+  </si>
+  <si>
+    <t>Binary Attributes</t>
+  </si>
+  <si>
+    <t>
+• The sysfs conventions call for all attributes to contain a single value in a human-readable text format.
+• That said, there is an occasional, rare need for the creation of attributes that can handle larger chunks of binary data.
+• Binary attributes are described with a bin_attribute structure:
+    - Here, attr is an attribute structure giving the name, owner, and permissions for the binary attribute, 
+    - size is the maximum size of the binary attribute (or 0 if there is no maximum). 
+    - The read and write methods work similarly to the normal char driver equivalents.
+• Binary attributes must be created explicitly; they cannot be set up as default attributes. 
+</t>
+  </si>
+  <si>
+    <t>
+struct bin_attribute {
+    struct attribute attr;
+    size_t size;
+    ssize_t (*read)(struct kobject *kobj, char *buffer, loff_t pos, size_t size);
+    ssize_t (*write)(struct kobject *kobj, char *buffer, loff_t pos, size_t size);
+};
+To create a binary attribute, call:
+    int sysfs_create_bin_file(struct kobject *kobj, struct bin_attribute *attr);
+Binary attributes can be removed with:
+    int sysfs_remove_bin_file(struct kobject *kobj, struct bin_attribute *attr);
+</t>
+  </si>
+  <si>
+    <t>Symbolic Links</t>
+  </si>
+  <si>
+    <t>
+• The link persists even if target is removed from the system. 
+• If you are creating symbolic links to other kobjects, you should probably have a way of knowing about changes to those kobjects, or some sort of assurance that the target kobjects will not disappear.
+</t>
+  </si>
+  <si>
+    <t>
+Creating a symbolic link within sysfs is easy:
+    int sysfs_create_link(struct kobject *kobj, struct kobject *target, char *name);
+Symbolic links can be removed with:
+    void sysfs_remove_link(struct kobject *kobj, char *name);
+</t>
+  </si>
+  <si>
+    <t>Hotplug Event Generation</t>
+  </si>
+  <si>
+    <t>
+• A hotplug event is a notification to user space from the kernel that something has changed in the system’s configuration. They are generated whenever a kobject is created or destroyed.
+• Such events are generated, for example, when a digital camera is plugged in with a USB cable, when a user switches console modes, or when a disk is repartitioned. Hotplug events turn into an invocation of /sbin/hotplug, which can respond to each event by loading drivers, creating device nodes, mounting partitions, or taking any other action that is appropriate.
+• The last major kobject function we look at is the generation of these events. The actual event generation takes place when a kobject is passed to kobject_add or kobject_del. 
+• Before the event is handed to user space, code associated with the kobject (or, more specifically, the kset to which it belongs) has the opportunity to add information for user space or to disable event generation entirely.
+</t>
   </si>
 </sst>
 </file>
@@ -8031,7 +8329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8128,25 +8426,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -8402,11 +8681,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13246,10 +13525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13476,7 +13755,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="562.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="38" t="s">
         <v>681</v>
       </c>
@@ -13488,7 +13767,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="497.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="38" t="s">
         <v>684</v>
       </c>
@@ -13842,8 +14121,143 @@
       <c r="D65" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="37" t="s">
         <v>773</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="38" t="s">
+        <v>787</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="38" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="38" t="s">
+        <v>807</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="827">
   <si>
     <t>Sr No</t>
   </si>
@@ -8321,6 +8321,163 @@
 • Before the event is handed to user space, code associated with the kobject (or, more specifically, the kset to which it belongs) has the opportunity to add information for user space or to disable event generation entirely.
 </t>
   </si>
+  <si>
+    <t>Hotplug Operations</t>
+  </si>
+  <si>
+    <t>
+• Actual control of hotplug events is exercised by way of a set of methods stored in the kset_hotplug_ops structure:
+• A pointer to this structure is found in the hotplug_ops field of the kset structure.
+• If a given kobject is not contained within a kset, the kernel searchs up through the hierarchy (via the parent pointer) until it finds a kobject that does have a kset; that kset’s hotplug operations are then used.
+• The filter hotplug operation is called whenever the kernel is considering generating an event for a given kobject. If filter returns 0 , the event is not created. This method, therefore, gives the kset code an opportunity to decide which events should be passed on to user space and which should not.
+• When the user-space hotplug program is invoked, it is passed to the name of the relevant subsystem as its one and only parameter. The name hotplug method is charged with providing that name. It should return a simple string suitable for passing to userspace.
+• Everything else that the hotplug script might want to know is passed in the environment. The final hotplug method (hotplug) gives an opportunity to add useful environment variables prior to the invocation of that script.
+    int hotplug ();
+    - As usual, kset and kobject describe the object for which the event is being generated. 
+    - The envp array is a place to store additional environment variable definitions (inthe usual NAME=value format); it has num_envp entries available. 
+    - The variables them selves should be encoded into buffer , which is buffer_size bytes long. 
+    - If you add any variables to envp, be sure to add a NULL entry after your last addition so that thekernel knows where the end is. 
+    - The return value should normally be 0 ; any nonzero return aborts the generation of the hotplug event.
+</t>
+  </si>
+  <si>
+    <t>
+struct kset_hotplug_ops {
+    int (*filter)(struct kset *kset, struct kobject *kobj);
+    char *(*name)(struct kset *kset, struct kobject *kobj);
+    int (*hotplug)(struct kset *kset, struct kobject *kobj, char **envp, int num_envp, char *buffer, int buffer_size);
+};
+</t>
+  </si>
+  <si>
+    <t>Buses, Devices, and Drivers</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>
+• A bus is a channel between the processor and one or more devices. 
+• For the purposes of the device model, all devices are connected via a bus, even if it is an internal, virtual, “platform” bus. Buses can plug into each other—a USB controller is usually a PCI device, for example.
+• The device model represents the actual connections between buses and the devices they control.
+• In the Linux device model, a bus is represented by the bus_type structure, defined in &lt;linux/device.h&gt;. This structure looks like:
+    - The name field is the name of the bus, something such as pci . 
+    - You can see from the structure that each bus is its own subsystem; these subsystems do not live at the top level in sysfs, however. Instead, they are found underneath the bus subsystem. 
+    - A bus contains two ksets, representing the known drivers for that bus and all devices plugged into the bus.
+</t>
+  </si>
+  <si>
+    <t>
+struct bus_type {
+    char *name;
+    struct subsystem subsys;
+    struct kset drivers;
+    struct kset devices;
+    int (*match)(struct device *dev, struct device_driver *drv);
+    struct device *(*add)(struct device * parent, char * bus_id);
+    int (*hotplug) (struct device *dev, char **envp,
+    int num_envp, char *buffer, int buffer_size);
+    /* Some fields omitted */
+};
+</t>
+  </si>
+  <si>
+    <t>bus registration</t>
+  </si>
+  <si>
+    <t>
+• Note that very few of the bus_type fields require initialization; most of that is handled by the device model core.
+• a new bus must be registered with the system via a call to bus_register ():
+    - on succeeds, the new bus subsystem has been added to the system; it is visible in sysfs under /sys/bus, and it is possible to start adding devices.
+• to remove a bus from the system (when the associated module is removed, for example), bus_unregister should be called:
+    void bus_unregister(struct bus_type *bus);
+</t>
+  </si>
+  <si>
+    <t>
+struct bus_type ldd_bus_type = {
+    .name = "ldd",
+    .match = ldd_match,
+    .hotplug = ldd_hotplug,
+};
+ret = bus_register(&amp;ldd_bus_type);
+if (ret)
+    return ret;
+</t>
+  </si>
+  <si>
+    <t>bus methods</t>
+  </si>
+  <si>
+    <t>
+• There are several methods defined for the bus_type structure; they allow the bus code to serve as an intermediary between the device core and individual drivers.
+    int (*match)(struct device *device, struct device_driver *driver);
+    - This method is called, perhaps multiple times, whenever a new device or driver is added for this bus. It should return a nonzero value if the given device can be handled by the given driver . This function must be handled at the bus level, because that is where the proper logic exists; the core kernel cannot know how to match devices and drivers for every possible bus type.
+    int (*hotplug) (struct device *device, char **envp, int num_envp, char *buffer, int buffer_size);
+    - This method allows the bus to add variables to the environment prior to the generation of a hotplug event in user space. The parameters are the same as for the kset hotplug method (described in the earlier section “Hotplug Event Generation”).
+</t>
+  </si>
+  <si>
+    <t>
+The lddbus driver has a very simple match function, which simply compares the driver and device names:
+    static int ldd_match(struct device *dev, struct device_driver *driver) {
+        return !strncmp(dev-&gt;bus_id, driver-&gt;name, strlen(driver-&gt;name));
+    }
+When real hardware is involved, the match function usually makes some sort of comparison between the hardware ID provided by the device itself and the IDs supported by the driver. The lddbus hotplug method looks like this:
+    static int ldd_hotplug(struct device *dev, char **envp, int num_envp, char *buffer, int buffer_size) {
+        envp[0] = buffer;
+        if (snprintf(buffer, buffer_size, "LDDBUS_VERSION=%s",
+        Version) &gt;= buffer_size)
+        return -ENOMEM;
+        envp[1] = NULL;
+        return 0;
+    }
+</t>
+  </si>
+  <si>
+    <t>Iterating over devices and drivers</t>
+  </si>
+  <si>
+    <t>
+• To operate on every device known to the bus, use:
+    int bus_for_each_dev(struct bus_type *bus, struct device *start, void *data, int (*fn)(struct device *, void *));
+    - This function iterates over every device on bus , passing the associated device structure to fn , along with the value passed in as data . 
+    - If start is NULL , the iteration begins with the first device on the bus; otherwise iteration starts with the first device after start . 
+    - If fn returns a nonzero value, iteration stops and that value is returned from bus_for_each_dev.
+• There is a similar function for iterating over drivers:
+    int bus_for_each_drv(struct bus_type *bus, struct device_driver *start, void *data, int (*fn)(struct device_driver *, void *));
+• It should be noted that both of these functions hold the bus subsystem’s reader/writer semaphore for the duration of the work. So an attempt to use the two of them together will deadlock—each will be trying to obtain the same semaphore. Operations that modify the bus (such as unregistering devices) will also lock up.
+</t>
+  </si>
+  <si>
+    <t>Bus attributes</t>
+  </si>
+  <si>
+    <t>
+• Almost every layer in the Linux device model provides an interface for the addition of attributes, and the bus layer is no exception. The bus_attribute type is defined in &lt;linux/device.h&gt; as follows:
+• A convenience macro has been provided for the compile-time creation and initialization of bus_attribute structures:
+    BUS_ATTR(name, mode, show, store);
+    - This macro declares a structure, generating its name by prepending the string bus_attr_ to the given name.
+• Creating the attribute file is done at module load time:
+</t>
+  </si>
+  <si>
+    <t>
+struct bus_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct bus_type *bus, char *buf);
+    ssize_t (*store)(struct bus_type *bus, const char *buf,
+    size_t count);
+};
+Any attributes belonging to a bus should be created explicitly with bus_create_file:
+    int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
+Attributes can also be removed with:
+    void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
+if (bus_create_file(&amp;ldd_bus_type, &amp;bus_attr_version))
+    printk(KERN_NOTICE "Unable to create version attribute\n");
+This call creates an attribute file (/sys/bus/ldd/version) containing the revision number for the lddbus code.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -8329,7 +8486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8425,11 +8582,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8504,7 +8656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8682,10 +8834,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13525,10 +13673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14248,7 +14396,7 @@
       <c r="D79" s="38" t="s">
         <v>805</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="37" t="s">
         <v>806</v>
       </c>
     </row>
@@ -14258,6 +14406,72 @@
       </c>
       <c r="D80" s="38" t="s">
         <v>808</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="38" t="s">
+        <v>812</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>814</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="864">
   <si>
     <t>Sr No</t>
   </si>
@@ -8478,6 +8478,938 @@
 This call creates an attribute file (/sys/bus/ldd/version) containing the revision number for the lddbus code.
 </t>
   </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>
+• At the lowest level, every device in a Linux system is represented by an instance of struct device :
+struct device *parent
+    The device’s “parent” device—the device to which it is attached. In most cases, a parent device is some sort of bus or host controller. If parent is NULL , the device is a top-level device, which is not usually what you want.
+struct kobject kobj;
+    The kobject that represents this device and links it into the hierarchy. Note that, as a general rule, device-&gt;kobj-&gt;parent is equal to &amp;device-&gt;parent-&gt;kobj .
+char bus_id[BUS_ID_SIZE];
+    A string that uniquely identifies this device on the bus. PCI devices, for example, use the standard PCI ID format containing the domain, bus, device, and function numbers.
+struct bus_type *bus;
+    Identifies which kind of bus the device sits on.
+struct device_driver *driver;
+    The driver that manages this device.
+void *driver_data;
+    A private data field that may be used by the device driver.
+void (*release)(struct device *dev);
+    The method is called when the last reference to the device is removed; it is called from the embedded kobject’s release method. All device structures registered with the core must have a release method, or the kernel prints out scary complaints. At a minimum, the parent , bus_id , bus , and release fields must be set before the device structure can be registered.
+• At a minimum, the parent , bus_id , bus , and release fields must be set before the device structure can be registered.
+</t>
+  </si>
+  <si>
+    <t>
+struct device {
+    struct device *parent;
+    struct kobject kobj;
+    char bus_id[BUS_ID_SIZE];
+    struct bus_type *bus;
+    struct device_driver *driver;
+    void *driver_data;
+    void (*release)(struct device *dev);
+    /* Several fields omitted */
+};
+</t>
+  </si>
+  <si>
+    <t>Device registration</t>
+  </si>
+  <si>
+    <t>
+• The usual set of registration and unregistration functions exists:
+    int device_register(struct device *dev);
+    void device_unregister(struct device *dev);
+• We have seen how the lddbus code registers its bus type. However, an actual bus is a device and must be registered separately.
+</t>
+  </si>
+  <si>
+    <t>
+static void ldd_bus_release(struct device *dev) {
+    printk(KERN_DEBUG "lddbus release\n");
+}
+struct device ldd_bus = {
+    .bus_id = "ldd0",
+    .release = ldd_bus_release
+};
+This is a top-level bus, so the parent and bus fields are left NULL . We have a simple, no-op release method, and, as the first (and only) bus, its name is ldd0 . This bus device is registered with:
+ret = device_register(&amp;ldd_bus);
+    if (ret)
+        printk(KERN_NOTICE "Unable to register ldd0\n");
+Once that call is complete, the new bus can be seen under /sys/devices in sysfs. Any devices added to this bus then shows up under /sys/devices/ldd0/.
+</t>
+  </si>
+  <si>
+    <t>Device attributes</t>
+  </si>
+  <si>
+    <t>
+• Device entries in sysfs can have attributes. The relevant structure is:
+• These attribute structures can be set up at compile time with this macro:
+    DEVICE_ATTR(name, mode, show, store);
+    - The resulting structure is named by prepending dev_attr_ to the given name . 
+• The actual management of attribute files is handled with the usual pair of functions:
+int device_create_file(struct device *device, struct device_attribute *entry);
+void device_remove_file(struct device *dev, struct device_attribute *attr);
+    The dev_attrs field of struct bus_type points to a list of default attributes created for every device added to that bus.
+</t>
+  </si>
+  <si>
+    <t>
+struct device_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct device *dev, char *buf);
+    ssize_t (*store)(struct device *dev, const char *buf, size_t count);
+};
+</t>
+  </si>
+  <si>
+    <t>Device structure embedding</t>
+  </si>
+  <si>
+    <t>
+• The device structure contains the information that the device model core needs to model the system. Most subsystems, however, track additional information about the devices they host. 
+• As a result, it is rare for devices to be represented by bare device structures; instead, that structure, like kobject structures, is usually embedded within a higher-level representation of the device. 
+• If you look at the definitions of struct pci_dev or struct usb_device , you will find a struct device buried inside.
+• Usually, low-level drivers are not even aware of that struct device , but there can be exceptions.
+• The lddbus driver creates its own device type ( struct ldd_device ) and expects individual device drivers to register their devices using that type.
+• It is a simple structure struct ldd_device:
+    - This structure allows the driver to provide an actual name for the device (which can be distinct from its bus ID, stored in the device structure) and a pointer to driver information. Structures for real devices usually also contain information about the vendor, device model, device configuration, resources used, and so on.
+    - Good examples can be found in struct pci_dev (&lt;linux/pci.h&gt;) or struct usb_device (&lt;linux/usb.h&gt;). 
+    - A convenience macro (to_ldd_device) is also defined for struct ldd_device to make it easy to turn pointers to the embedded device structure into ldd_device pointers.
+• The registration interface exported by lddbus looks like register_ldd_device ():
+• Here, we simply fill in some of the embedded device structure fields (which individual drivers should not need to know about), and register the device with the driver core. 
+• If we wanted to add bus-specific attributes to the device, we could do so here.
+</t>
+  </si>
+  <si>
+    <t>
+struct ldd_device {
+    char *name;
+    struct ldd_driver *driver;
+    struct device dev;
+};
+#define to_ldd_device(dev) container_of(dev, struct ldd_device, dev);
+int register_ldd_device(struct ldd_device *ldddev) {
+    ldddev-&gt;dev.bus = &amp;ldd_bus_type;
+    ldddev-&gt;dev.parent = &amp;ldd_bus;
+    ldddev-&gt;dev.release = ldd_dev_release;
+    strncpy(ldddev-&gt;dev.bus_id, ldddev-&gt;name, BUS_ID_SIZE);
+    return device_register(&amp;ldddev-&gt;dev);
+}
+EXPORT_SYMBOL(register_ldd_device);
+To show how this interface is used, let us introduce another sample driver, which we have called sculld.
+</t>
+  </si>
+  <si>
+    <t>Device Driver</t>
+  </si>
+  <si>
+    <t>
+• The device model tracks all of the drivers known to the system. The main reason for this tracking is to enable the driver core to match up drivers with new devices. 
+• Once drivers are known objects within the system, however, a number of other things become possible. 
+• Device drivers can export information and configuration variables that are independent of any specific device, for example.
+• Drivers are defined by the structure struct device_driver:
+    - name is the name of the driver (it shows up in sysfs), 
+    - bus is the type of bus this driver works with, 
+    - kobj is the inevitable kobject, 
+    - devices is a list of all devices currently bound to this driver, 
+    - probe is a function called to query the existence of a specific device (and whether this driver can work with it), 
+    - remove is called when the device is removed from the system, and shutdown is called at shutdown time to quiesce the device.
+• The registration functions are:
+    int driver_register(struct device_driver *drv);
+    void driver_unregister(struct device_driver *drv);
+• The usual attribute structure struct driver_attribute:
+• And attribute files are created in the usual way:
+    int driver_create_file(struct device_driver *drv, struct driver_attribute *attr);
+    void driver_remove_file(struct device_driver *drv, struct driver_attribute *attr);
+• The bus_type structure contains a field ( drv_attrs ) that points to a set of default attributes, which are created for all drivers associated with that bus.
+</t>
+  </si>
+  <si>
+    <t>
+struct device_driver {
+    char *name;
+    struct bus_type *bus;
+    struct kobject kobj;
+    struct list_head devices;
+    int (*probe)(struct device *dev);
+    int (*remove)(struct device *dev);
+    void (*shutdown) (struct device *dev);
+};
+several of the structure’s fields have been omitted (see &lt;linux/device.h&gt;).
+struct driver_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct device_driver *drv, char *buf);
+    ssize_t (*store)(struct device_driver *drv, const char *buf, size_t count);
+};
+DRIVER_ATTR(name, mode, show, store);
+</t>
+  </si>
+  <si>
+    <t>Driver structure embedding</t>
+  </si>
+  <si>
+    <t>
+• As is the case with most driver core structures, the device_driver structure is usually found embedded within a higher-level, bus-specific structure.
+• The lddbus subsystem would never go against such a trend, so it has defined its own ldd_driver structure struct ldd_driver:
+    - Here, we require each driver to provide its current software version, and lddbus exports that version string for every driver it knows about. 
+• The bus-specific driver registration function register_ldd_driver ():
+    - The first half of the function simply registers the low-level device_driver structure with the core; the rest sets up the version attribute. 
+    - Since this attribute is created atruntime, we can’t use the DRIVER_ATTR macro; instead, the driver_attribute structure must be filled in by hand.
+    - Note that we set the owner of the attribute to the driver module, rather than the lddbus module; the reason for this can be seen in the implementation of the show function for this attribute:
+</t>
+  </si>
+  <si>
+    <t>
+struct ldd_driver {
+    char *version;
+    struct module *module;
+    struct device_driver driver;
+    struct driver_attribute version_attr;
+};
+#define to_ldd_driver(drv) container_of(drv, struct ldd_driver, driver);
+int register_ldd_driver(struct ldd_driver *driver) {
+    int ret;
+    driver-&gt;driver.bus = &amp;ldd_bus_type;
+    ret = driver_register(&amp;driver-&gt;driver);
+    if (ret)
+    return ret;
+    driver-&gt;version_attr.attr.name = "version";
+    driver-&gt;version_attr.attr.owner = driver-&gt;module;
+    driver-&gt;version_attr.attr.mode = S_IRUGO;
+    driver-&gt;version_attr.show = show_version;
+    driver-&gt;version_attr.store = NULL;
+    return driver_create_file(&amp;driver-&gt;driver, &amp;driver-&gt;version_attr);
+}
+static ssize_t show_version(struct device_driver *driver, char *buf) {
+    struct ldd_driver *ldriver = to_ldd_driver(driver);
+    sprintf(buf, "%s\n", ldriver-&gt;version);
+    return strlen(buf);
+}
+For completeness, sculld creates its ldd_driver structure as follows:
+static struct ldd_driver sculld_driver = {
+    .version = "$Revision: 1.1 $",
+    .module = THIS_MODULE,
+    .driver = {.name = "sculld",},
+};
+A simple call to register_ldd_driver adds it to the system. Once initialization is complete, the driver information can be seen in sysfs:
+$ tree /sys/bus/ldd/drivers
+</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>
+• A class is a higher-level view of a device that abstracts out low-level implementation details.
+• Drivers may see a SCSI disk or an ATA disk, but, at the class level, they are all simply disks. 
+• Classes allow user space to work with devices based on what they do, rather than how they are connected or how they work.
+• Almost all classes show up in sysfs under /sys/class.
+• The one exception is block devices, which can be found under /sys/block for historical reasons.
+• Class membership is usually handled by high-level code without the need for explicit support from drivers.
+</t>
+  </si>
+  <si>
+    <t>The class_simple Interface</t>
+  </si>
+  <si>
+    <t>
+• To create and destroy class class_simple_create () and class_simple_destroy () resp.:
+    - class_simple_create () function creates a class with the given name .
+• The real purpose of creating a simple class is to add devices to it; that task is achieved with class_simple_device_add ():
+    - cs is the previously created simple class, 
+    - devnum is the assigned device number,
+    - device is the struct device representing this device
+    - the remaining parameters are a printk-style format string and arguments to create the device name. 
+    - This call adds an entry to the class containing one attribute, dev , which holds the device number. 
+    - If the device parameter is not NULL , a symbolic link (called device ) points to the device’s entry under /sys/devices.
+• It is possible to add other attributes to a device entry. It is just a matter of using class_device_create_file,
+• Classes generate hotplug events when devices come and go. If your driver needs to add variables to the environment for the user-space event handler, it can set up a hotplug callback with:
+    int class_simple_set_hotplug(struct class_simple *cs, int (*hotplug)(struct class_device *dev, char **envp, int num_envp, char *buffer, int buffer_size));
+• When your device goes away, the class entry should be removed with class_simple_device_remove ():
+    - Note that the class_device structure returned by class_simple_device_add is not needed here; the device number (which should certainly be unique) is sufficient.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>
+struct class_simple *class_simple_create(struct module *owner, char *name);
+void class_simple_destroy(struct class_simple *cs);
+struct class_device *class_simple_device_add(struct class_simple *cs, dev_t devnum,struct device *device,const char *fmt, ...);
+void class_simple_device_remove(dev_t dev);
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Managing classes</t>
+  </si>
+  <si>
+    <t>
+• A class is defined by an instance of struct class :
+    - Each class needs a unique name , which is how this class appears under /sys/class. When the class is registered, 
+    - all of the attributes listed in the ( NULL -terminated) array pointed to by class_attrs is created. 
+    - There is also a set of default attributes for every device added to the class; class_dev_attrs points to those. 
+    - There is the usual hotplug function for adding variables to the environment when events are generated.
+    - There are also two release methods: release is called whenever a device is removed from the class, while class_release is called when the class itself is released.
+• The registration functions are:
+int class_register(struct class *cls);
+void class_unregister(struct class *cls);
+• The interface for working with attributes should not surprise anybody at this point:
+</t>
+  </si>
+  <si>
+    <t>
+struct class {
+    char *name;
+    struct class_attribute *class_attrs;
+    struct class_device_attribute *class_dev_attrs;
+    int (*hotplug)(struct class_device *dev, char **envp,
+    int num_envp, char *buffer, int buffer_size);
+    void (*release)(struct class_device *dev);
+    void (*class_release)(struct class *class);
+    /* Some fields omitted */
+};
+struct class_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct class *cls, char *buf);
+    ssize_t (*store)(struct class *cls, const char *buf, size_t count);
+};
+CLASS_ATTR(name, mode, show, store);
+int class_create_file(struct class *cls, const struct class_attribute *attr);
+void class_remove_file(struct class *cls, const struct class_attribute *attr);
+</t>
+  </si>
+  <si>
+    <t>Class devices</t>
+  </si>
+  <si>
+    <t>
+• The real purpose of a class is to serve as a container for the devices that are members of that class. A member is represented by struct class_device :
+    - The class_id field holds the name of this device as it appears in sysfs. 
+    - The class pointer should point to the class holding this device, and 
+    - dev should point to the associated device structure. Setting dev is optional; if it is non- NULL , it is used to create a symbolic link from the class entry to the corresponding entry under /sys/devices, making it easy to find the device entry in user space. 
+    - The class can use class_data to hold a private pointer.
+• The class device interface also allows the renaming of an already registered entry:
+    int class_device_rename(struct class_device *cd, char *new_name);
+• Class device entries have attributes:
+</t>
+  </si>
+  <si>
+    <t>
+struct class_device {
+    struct kobject kobj;
+    struct class *class;
+    struct device *dev;
+    void *class_data;
+    char class_id[BUS_ID_SIZE];
+};
+int class_device_register(struct class_device *cd);
+void class_device_unregister(struct class_device *cd);
+struct class_device_attribute {
+    struct attribute attr;
+    ssize_t (*show)(struct class_device *cls, char *buf);
+    ssize_t (*store)(struct class_device *cls, const char *buf,
+    size_t count);
+};
+</t>
+  </si>
+  <si>
+    <t>Class interfaces</t>
+  </si>
+  <si>
+    <t>
+• The class subsystem has an additional concept not found in other parts of the Linux device model. This mechanism is called an interface, but it is, perhaps, best thought of as a sort of trigger mechanism that can be used to get notification when devices enter or leave the class.
+• The functioning of an interface is straightforward. Whenever a class device is added to the class specified in the class_interface structure, the interface’s add function is called. 
+• That function can perform any additional setup required for that device; this setup often takes the form of adding more attributes, but other applications are possible.
+• When the device is removed from the class, the remove method is called to perform any required cleanup.
+• Multiple interfaces can be registered for a class.
+</t>
+  </si>
+  <si>
+    <t>
+struct class_interface {
+    struct class *class;
+    int (*add) (struct class_device *cd);
+    void (*remove) (struct class_device *cd);
+};
+int class_interface_register(struct class_interface *intf);
+void class_interface_unregister(struct class_interface *intf);
+</t>
+  </si>
+  <si>
+    <t>Quick Reference</t>
+  </si>
+  <si>
+    <r>
+      <t>    
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Kobjects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#include &lt;linux/kobject.h&gt;
+The include file containing definitions for kobjects, related structures, and functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void kobject_init(struct kobject *kobj);
+int kobject_set_name(struct kobject *kobj, const char *format, ...);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions for kobject initialization.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct kobject *kobject_get(struct kobject *kobj);
+void kobject_put(struct kobject *kobj);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that manage reference counts for kobjects.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>struct kobj_type;
+struct kobj_type *get_ktype(struct kobject *kobj);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Represents the type of structure within which a kobject is embedded. Use get_ktype to get the kobj_type associated with a given kobject.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt kobject_add(struct kobject *kobj);
+extern int kobject_register(struct kobject *kobj);
+void kobject_del(struct kobject *kobj);
+void kobject_unregister(struct kobject *kobj);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   kobject_add adds a kobject to the system, handling kset membership, sysfs repre sentation, and hotplug event generation. kobject_register is a convenience function that combines kobject_init and kobject_add. Use kobject_del to remove a kobject or kobject_unregister, which combines kobject_del and kobject_put.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void kset_init(struct kset *kset);
+int kset_add(struct kset *kset);
+int kset_register(struct kset *kset);
+void kset_unregister(struct kset *kset);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Initialization and registration functions for ksets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Decl_subsys(name, type, hotplug_ops);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   A macro that makes it easier to declare subsystems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>void subsystem_init(struct subsystem *subsys);
+int subsystem_register(struct subsystem *subsys);
+void subsystem_unregister(struct subsystem *subsys);
+struct subsystem *subsys_get(struct subsystem *subsys)
+void subsys_put(struct subsystem *subsys);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Operations on subsystems.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sysfs Operations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#include &lt;linux/sysfs.h&gt;
+The include file containing declarations for sysfs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int sysfs_create_file(struct kobject *kobj, struct attribute *attr);
+int sysfs_remove_file(struct kobject *kobj, struct attribute *attr);
+int sysfs_create_bin_file(struct kobject *kobj, struct bin_attribute *attr);
+int sysfs_remove_bin_file(struct kobject *kobj, struct bin_attribute *attr);
+int sysfs_create_link(struct kobject *kobj, struct kobject *target, char *name);
+void sysfs_remove_link(struct kobject *kobj, char *name);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions for creating and removing attribute files associated with a kobject.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Firmware
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#include &lt;linux/firmware.h&gt;
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt request_firmware(const struct firmware **fw, char *name, struct device *device);
+int request_firmware_nowait(struct module *module, char *name, struct device
+*device, void *context, void (*cont)(const struct firmware *fw, void *context));
+void release_firmware(struct firmware *fw);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that implement the kernel firmware-loading interface.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Buses, Devices, and Drivers
+int bus_register(struct bus_type *bus);
+void bus_unregister(struct bus_type *bus);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that perform registration and unregistration of buses in the device model.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int bus_for_each_dev(struct bus_type *bus, struct device *start, void *data,
+int (*fn)(struct device *, void *));
+int bus_for_each_drv(struct bus_type *bus, struct device_driver *start, void *data, int (*fn)(struct device_driver *, void *));
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that iterate over each of the devices and drivers, respectively, that are attached to the given bus.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>BUS_ATTR(name, mode, show, store);
+int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
+void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   The BUS_ATTR macro may be used to declare a bus_attribute structure, which may then be added and removed with the above two functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int device_register(struct device *dev);
+void device_unregister(struct device *dev);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that handle device registration.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DEVICE_ATTR(name, mode, show, store);
+int device_create_file(struct device *device, struct device_attribute *entry);
+void device_remove_file(struct device *dev, struct device_attribute *attr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Macros and functions that deal with device attributes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int driver_register(struct device_driver *drv);
+void driver_unregister(struct device_driver *drv);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that register and unregister a device driver.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DRIVER_ATTR(name, mode, show, store);
+int driver_create_file(struct device_driver *drv, struct driver_attribute *attr);
+void driver_remove_file(struct device_driver *drv, struct driver_attribute *attr);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Macros and functions that manage driver attributes.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Classes
+struct class_simple *class_simple_create(struct module *owner, char *name);
+void class_simple_destroy(struct class_simple *cs);
+struct class_device *class_simple_device_add(struct class_simple *cs, dev_t
+devnum, struct device *device, const char *fmt, ...);
+void class_simple_device_remove(dev_t dev);
+int class_simple_set_hotplug(struct class_simple *cs, int (*hotplug)(structclass_device *dev, char **envp, int num_envp, char *buffer, int buffer_size));
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that implement the class_simple interface; they manage simple class entries containing a dev attribute and little else.
+i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nt class_register(struct class *cls);
+void class_unregister(struct class *cls);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Registration and unregistration of classes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CLASS_ATTR(name, mode, show, store);
+int class_create_file(struct class *cls, const struct class_attribute *attr);
+void class_remove_file(struct class *cls, const struct class_attribute *attr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    The usual macros and functions for dealing with class attributes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int class_device_register(struct class_device *cd);
+void class_device_unregister(struct class_device *cd);
+int class_device_rename(struct class_device *cd, char *new_name);
+CLASS_DEVICE_ATTR(name, mode, show, store);
+Int class_device_create_file(struct class_device *cls, const struct class_device_attribute *attr);
+void class_device_remove_file(struct class_device *cls, const struct class_device_attribute *attr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    Functions and macros that implement the class device interface.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>int class_interface_register(struct class_interface *intf);
+void class_interface_unregister(struct class_interface *intf);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Functions that add an interface to a class (or remove it).
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -8486,7 +9418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8582,6 +9514,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8656,7 +9593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8834,6 +9771,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13673,10 +14614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14474,6 +15415,143 @@
         <v>826</v>
       </c>
     </row>
+    <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>828</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>831</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>840</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="45" t="s">
+        <v>850</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="38" t="s">
+        <v>856</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="38" t="s">
+        <v>859</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="870">
   <si>
     <t>Sr No</t>
   </si>
@@ -594,6 +594,32 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Data Members</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>
+• constant member must be initilized at Initializer list.
+• order of Initializer list should be matched with order of member declaired.
+• constant member can't modified once it is initilized, even in const member function.
+</t>
+  </si>
+  <si>
+    <t>mutable </t>
+  </si>
+  <si>
+    <t>
+• static members are allocated on Initialization.
+• static members must be initialized only once in global scope.
+• static member can be modified in const member function.
+</t>
+  </si>
+  <si>
+    <t>static constant</t>
   </si>
   <si>
     <t>virtual terminals</t>
@@ -8735,14 +8761,12 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>
+    <t>
 struct class_simple *class_simple_create(struct module *owner, char *name);
 void class_simple_destroy(struct class_simple *cs);
 struct class_device *class_simple_device_add(struct class_simple *cs, dev_t devnum,struct device *device,const char *fmt, ...);
 void class_simple_device_remove(dev_t dev);
 </t>
-    </r>
   </si>
   <si>
     <t>Managing classes</t>
@@ -9418,7 +9442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9513,11 +9537,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9731,7 +9750,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -9739,15 +9766,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -9756,6 +9775,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -9771,10 +9794,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10511,10 +10530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10528,487 +10547,432 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="n">
+    <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="37" t="s">
+    <row r="6" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="37" t="s">
+    <row r="7" s="35" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="37" t="s">
+    <row r="9" s="35" customFormat="true" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="37" t="s">
+    <row r="10" s="35" customFormat="true" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="37" t="s">
+    <row r="11" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="0"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+    <row r="13" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="37" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="37" t="s">
+    <row r="15" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="37" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="37" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="37" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="37" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="37" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="37" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="37" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="37" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="37" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="37" t="s">
+    <row r="26" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
-      <c r="C27" s="37" t="s">
+    <row r="27" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
-      <c r="C28" s="37" t="s">
+    <row r="28" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37" t="s">
+    <row r="29" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="0"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="s">
+    <row r="30" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="37" t="s">
+    <row r="31" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="37" t="s">
+    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="37" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
-      <c r="C34" s="37" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37" t="s">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="37" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37" t="s">
+    <row r="37" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="0"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="37" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="C39" s="37" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="36" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="37" t="s">
+    <row r="41" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="0"/>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="37" t="s">
+    <row r="42" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
-      <c r="C43" s="37" t="s">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="37" t="s">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="36" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="35" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -11035,13 +10999,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="78.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,22 +11025,22 @@
       <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11104,13 +11068,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="73.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="73.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11122,22 +11086,22 @@
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11149,58 +11113,58 @@
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37" t="s">
-        <v>168</v>
+      <c r="B4" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="37" t="s">
-        <v>169</v>
+      <c r="D4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
-        <v>170</v>
+      <c r="B5" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="37" t="s">
-        <v>171</v>
+      <c r="D5" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>174</v>
+      <c r="B6" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
-      <c r="C7" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>176</v>
+      <c r="C7" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
-      <c r="C8" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>178</v>
+      <c r="C8" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -11208,30 +11172,30 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="37" t="s">
-        <v>179</v>
+      <c r="D9" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
-      <c r="C10" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>181</v>
+      <c r="C10" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
-        <v>182</v>
+      <c r="B11" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="C11" s="0"/>
-      <c r="D11" s="37" t="s">
-        <v>183</v>
+      <c r="D11" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11239,8 +11203,8 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="37" t="s">
-        <v>184</v>
+      <c r="D12" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -11248,8 +11212,8 @@
     <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="37" t="s">
-        <v>185</v>
+      <c r="D13" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -11257,8 +11221,8 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="37" t="s">
-        <v>186</v>
+      <c r="D14" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -11266,8 +11230,8 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="37" t="s">
-        <v>187</v>
+      <c r="D15" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -11275,8 +11239,8 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="37" t="s">
-        <v>188</v>
+      <c r="D16" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -11284,8 +11248,8 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
-      <c r="D17" s="37" t="s">
-        <v>189</v>
+      <c r="D17" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -11293,8 +11257,8 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
-      <c r="D18" s="37" t="s">
-        <v>190</v>
+      <c r="D18" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -11302,8 +11266,8 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="D19" s="37" t="s">
-        <v>191</v>
+      <c r="D19" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -11311,8 +11275,8 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
-      <c r="D20" s="37" t="s">
-        <v>192</v>
+      <c r="D20" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -11320,8 +11284,8 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
-      <c r="D21" s="37" t="s">
-        <v>193</v>
+      <c r="D21" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -11329,8 +11293,8 @@
     <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
-      <c r="D22" s="37" t="s">
-        <v>194</v>
+      <c r="D22" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -11338,8 +11302,8 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="D23" s="37" t="s">
-        <v>195</v>
+      <c r="D23" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -11347,8 +11311,8 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
-      <c r="D24" s="37" t="s">
-        <v>196</v>
+      <c r="D24" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -11356,8 +11320,8 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="37" t="s">
-        <v>197</v>
+      <c r="D25" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -11365,117 +11329,117 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
-      <c r="D26" s="37" t="s">
-        <v>198</v>
+      <c r="D26" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>203</v>
+      <c r="B27" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>205</v>
+      <c r="C28" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>208</v>
+      <c r="C29" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="s">
-        <v>209</v>
+      <c r="B30" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
-      <c r="E30" s="37" t="s">
-        <v>210</v>
+      <c r="E30" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>214</v>
+      <c r="B31" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
-      <c r="D32" s="37" t="s">
-        <v>215</v>
+      <c r="D32" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="37" t="s">
-        <v>216</v>
+      <c r="C33" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="37" t="s">
-        <v>217</v>
+      <c r="E33" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="37" t="s">
-        <v>218</v>
+      <c r="B34" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="C34" s="0"/>
-      <c r="D34" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>220</v>
+      <c r="D34" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
-      <c r="D35" s="37" t="s">
-        <v>221</v>
+      <c r="D35" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -11483,171 +11447,171 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="D36" s="37" t="s">
-        <v>222</v>
+      <c r="D36" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37" t="s">
-        <v>223</v>
+      <c r="B37" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
-      <c r="E37" s="37" t="s">
-        <v>224</v>
+      <c r="E37" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>228</v>
+      <c r="B38" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>232</v>
+      <c r="C39" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>235</v>
+      <c r="C40" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>237</v>
+      <c r="C41" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>239</v>
+      <c r="B42" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="D43" s="37" t="s">
-        <v>240</v>
+      <c r="D43" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
-      <c r="D44" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>242</v>
+      <c r="D44" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>244</v>
+      <c r="B45" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>246</v>
+      <c r="B46" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="D47" s="37" t="s">
-        <v>247</v>
+      <c r="D47" s="36" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="D48" s="37" t="s">
-        <v>248</v>
+      <c r="D48" s="36" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="D49" s="37" t="s">
-        <v>249</v>
+      <c r="D49" s="36" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="D50" s="37" t="s">
-        <v>250</v>
+      <c r="D50" s="36" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="D51" s="37" t="s">
-        <v>251</v>
+      <c r="D51" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="D52" s="37" t="s">
-        <v>252</v>
+      <c r="D52" s="36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>254</v>
+      <c r="B53" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>256</v>
+      <c r="B54" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="37" t="s">
-        <v>257</v>
+      <c r="B55" s="36" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -11674,7 +11638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="33" width="23.3520408163265"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="33" width="31.5867346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="33" width="66.8214285714286"/>
@@ -11684,46 +11648,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
@@ -11731,160 +11695,160 @@
       <c r="A5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>260</v>
+      <c r="B5" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="E5" s="0"/>
-      <c r="F5" s="37" t="s">
-        <v>261</v>
+      <c r="F5" s="36" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37" t="s">
-        <v>262</v>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>264</v>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37" t="s">
-        <v>265</v>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37" t="s">
-        <v>266</v>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>268</v>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>270</v>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
-      <c r="B12" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37" t="s">
-        <v>272</v>
+      <c r="B12" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>274</v>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
-      <c r="B14" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>277</v>
+      <c r="B14" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>280</v>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="37" t="s">
-        <v>269</v>
+      <c r="B16" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="37" t="s">
-        <v>270</v>
+      <c r="D16" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
-      <c r="B17" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>283</v>
+      <c r="B17" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
-      <c r="C18" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>285</v>
+      <c r="C18" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -11892,144 +11856,144 @@
       <c r="A19" s="39"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="D19" s="37" t="s">
-        <v>286</v>
+      <c r="D19" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>288</v>
+      <c r="C20" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>294</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>291</v>
+      <c r="C21" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
-      <c r="B22" s="37" t="s">
-        <v>292</v>
+      <c r="B22" s="36" t="s">
+        <v>298</v>
       </c>
       <c r="C22" s="0"/>
-      <c r="D22" s="37" t="s">
-        <v>293</v>
+      <c r="D22" s="36" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="0"/>
-      <c r="C23" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>295</v>
+      <c r="C23" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="0"/>
-      <c r="C24" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>297</v>
+      <c r="C24" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="0"/>
-      <c r="C25" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>299</v>
+      <c r="C25" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="0"/>
-      <c r="C26" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>301</v>
+      <c r="C26" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="0"/>
-      <c r="C27" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>303</v>
+      <c r="C27" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
-      <c r="B28" s="37" t="s">
-        <v>304</v>
+      <c r="B28" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="C28" s="0"/>
-      <c r="D28" s="37" t="s">
-        <v>305</v>
+      <c r="D28" s="36" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="0"/>
-      <c r="C29" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>307</v>
+      <c r="C29" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="0"/>
-      <c r="C30" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>309</v>
+      <c r="C30" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="0"/>
-      <c r="C31" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>311</v>
+      <c r="C31" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>314</v>
+      <c r="B32" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -12064,33 +12028,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="28.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="80.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="65.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="80.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="65.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0"/>
@@ -13112,56 +13076,56 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="n">
+      <c r="A4" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>315</v>
+      <c r="B4" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="38" t="s">
-        <v>316</v>
+      <c r="E4" s="35" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>319</v>
+      <c r="B5" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>325</v>
       </c>
       <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>322</v>
+      <c r="C6" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>324</v>
+      <c r="C7" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>330</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -13169,76 +13133,76 @@
       <c r="A8" s="39"/>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="38" t="s">
-        <v>325</v>
+      <c r="D8" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>327</v>
+      <c r="C9" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>333</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
       <c r="B10" s="0"/>
-      <c r="C10" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>329</v>
+      <c r="C10" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
       <c r="B11" s="0"/>
-      <c r="C11" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>331</v>
+      <c r="C11" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>337</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>333</v>
+      <c r="C12" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>339</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>336</v>
+      <c r="C13" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="0"/>
-      <c r="C14" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>338</v>
+      <c r="C14" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>344</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -13246,47 +13210,47 @@
       <c r="A15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>339</v>
+      <c r="B15" s="35" t="s">
+        <v>345</v>
       </c>
       <c r="C15" s="0"/>
-      <c r="D15" s="38" t="s">
-        <v>340</v>
+      <c r="D15" s="35" t="s">
+        <v>346</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="B16" s="0"/>
-      <c r="C16" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>343</v>
+      <c r="C16" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="0"/>
-      <c r="C17" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>345</v>
+      <c r="C17" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
-      <c r="C18" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>347</v>
+      <c r="C18" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -13294,1166 +13258,1166 @@
       <c r="A19" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>350</v>
+      <c r="B19" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>356</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>352</v>
+      <c r="C20" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>358</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>354</v>
+      <c r="C21" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="0"/>
-      <c r="C22" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>357</v>
+      <c r="C22" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>361</v>
+      <c r="B23" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
-      <c r="C24" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>363</v>
+      <c r="C24" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
-      <c r="C25" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>366</v>
+      <c r="C25" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
-      <c r="C26" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>368</v>
+      <c r="C26" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
-      <c r="C27" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>370</v>
+      <c r="C27" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>376</v>
       </c>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>373</v>
+      <c r="C28" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>375</v>
+      <c r="C29" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>381</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
-      <c r="C30" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>377</v>
+      <c r="C30" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
-      <c r="C31" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>379</v>
+      <c r="C31" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>385</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
-      <c r="C32" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>381</v>
+      <c r="C32" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>387</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>383</v>
+      <c r="C33" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>389</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
-      <c r="C34" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>386</v>
+      <c r="C34" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>388</v>
+      <c r="C35" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>394</v>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
-      <c r="C36" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>391</v>
+      <c r="C36" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
-      <c r="C37" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>394</v>
+      <c r="C37" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>397</v>
+      <c r="B38" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>399</v>
+      <c r="C39" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>405</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>401</v>
+      <c r="C40" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>407</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>403</v>
+      <c r="C41" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>409</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
-      <c r="C42" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>405</v>
+      <c r="C42" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>411</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="C43" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>408</v>
+      <c r="C43" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>411</v>
+      <c r="B44" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>417</v>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
-      <c r="C45" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>413</v>
+      <c r="C45" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>419</v>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
-      <c r="C46" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>415</v>
+      <c r="C46" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>421</v>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="C47" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>417</v>
+      <c r="C47" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>423</v>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="C48" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>419</v>
+      <c r="C48" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>425</v>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="C49" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>421</v>
+      <c r="C49" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>427</v>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="C50" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>423</v>
+      <c r="C50" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>429</v>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="C51" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>425</v>
+      <c r="C51" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>431</v>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="C52" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>427</v>
+      <c r="C52" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
-      <c r="C53" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>429</v>
+      <c r="C53" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>435</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
-      <c r="C54" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>431</v>
+      <c r="C54" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>437</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
-      <c r="C55" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>433</v>
+      <c r="C55" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
-      <c r="C56" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>435</v>
+      <c r="C56" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>441</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
-      <c r="C57" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>437</v>
+      <c r="C57" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>443</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
-      <c r="C58" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>439</v>
+      <c r="C58" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
-      <c r="C59" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>441</v>
+      <c r="C59" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>447</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
-      <c r="C60" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>443</v>
+      <c r="C60" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>449</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>446</v>
+      <c r="B61" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>452</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
-      <c r="C62" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>448</v>
+      <c r="C62" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>454</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
-      <c r="C63" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>450</v>
+      <c r="C63" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>456</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
-      <c r="C64" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>453</v>
+      <c r="C64" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
-      <c r="C65" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>455</v>
+      <c r="C65" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>461</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
-      <c r="C66" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>458</v>
+      <c r="C66" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
-      <c r="C67" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>460</v>
+      <c r="C67" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>466</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
-      <c r="C68" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>462</v>
+      <c r="C68" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>468</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
-      <c r="C69" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>465</v>
+      <c r="C69" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
-      <c r="C70" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>467</v>
+      <c r="C70" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
-      <c r="C71" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>470</v>
+      <c r="C71" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
-      <c r="C72" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>472</v>
+      <c r="C72" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>478</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
-      <c r="C73" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>474</v>
+      <c r="C73" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>480</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
-      <c r="C74" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>477</v>
+      <c r="C74" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
-      <c r="C75" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>480</v>
+      <c r="C75" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
-      <c r="C76" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>482</v>
+      <c r="C76" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>488</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
-      <c r="C77" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>485</v>
+      <c r="C77" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>488</v>
+      <c r="B78" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>494</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
-      <c r="C79" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>490</v>
+      <c r="C79" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>496</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
-      <c r="C80" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>493</v>
+      <c r="C80" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
-      <c r="C81" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>496</v>
+      <c r="C81" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
-      <c r="C82" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>498</v>
+      <c r="C82" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>504</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
-      <c r="C83" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>501</v>
+      <c r="C83" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
-      <c r="C84" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>504</v>
+      <c r="C84" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
-      <c r="C85" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>507</v>
+      <c r="C85" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
-      <c r="C86" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>509</v>
+      <c r="C86" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>515</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
-      <c r="C87" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>511</v>
+      <c r="C87" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
-      <c r="C88" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>513</v>
+      <c r="C88" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
-      <c r="C89" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>516</v>
+      <c r="C89" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
-      <c r="C90" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>518</v>
+      <c r="C90" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>524</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
-      <c r="C91" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>520</v>
+      <c r="C91" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>526</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
-      <c r="C92" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>522</v>
+      <c r="C92" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>528</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
-      <c r="C93" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>524</v>
+      <c r="C93" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>530</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
-      <c r="C94" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>526</v>
+      <c r="C94" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>532</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>529</v>
+      <c r="B95" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>535</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
-      <c r="C96" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>531</v>
+      <c r="C96" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
-      <c r="C97" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>533</v>
+      <c r="C97" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>539</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0"/>
-      <c r="C98" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>535</v>
+      <c r="C98" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>541</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0"/>
-      <c r="C99" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="E99" s="37" t="s">
-        <v>538</v>
+      <c r="C99" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0"/>
-      <c r="C100" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>540</v>
+      <c r="C100" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0"/>
-      <c r="C101" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>542</v>
+      <c r="C101" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>548</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0"/>
-      <c r="C102" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>544</v>
+      <c r="C102" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>550</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0"/>
-      <c r="C103" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="D103" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>547</v>
+      <c r="C103" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0"/>
-      <c r="C104" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>549</v>
+      <c r="C104" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>555</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0"/>
-      <c r="C105" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>551</v>
+      <c r="C105" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0"/>
-      <c r="C106" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>553</v>
+      <c r="C106" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>559</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
-      <c r="C107" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>555</v>
+      <c r="C107" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>561</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
-      <c r="C108" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>557</v>
+      <c r="C108" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>563</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0"/>
-      <c r="C109" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>559</v>
+      <c r="C109" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>565</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0"/>
-      <c r="C110" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>561</v>
+      <c r="C110" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>567</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0"/>
-      <c r="C111" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>563</v>
+      <c r="C111" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>569</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0"/>
-      <c r="C112" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="E112" s="38" t="s">
-        <v>566</v>
+      <c r="C112" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>569</v>
+      <c r="B113" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>575</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0"/>
-      <c r="C114" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>571</v>
+      <c r="C114" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>577</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0"/>
-      <c r="C115" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>573</v>
+      <c r="C115" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>579</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0"/>
-      <c r="C116" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>576</v>
+      <c r="C116" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0"/>
-      <c r="C117" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>578</v>
+      <c r="C117" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>584</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0"/>
-      <c r="C118" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="E118" s="38" t="s">
-        <v>581</v>
+      <c r="C118" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="E118" s="35" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0"/>
-      <c r="C119" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="D119" s="38" t="s">
-        <v>583</v>
+      <c r="C119" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>589</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0"/>
-      <c r="C120" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>585</v>
+      <c r="C120" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>591</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0"/>
-      <c r="C121" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>587</v>
+      <c r="C121" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>593</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
-      <c r="C122" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>589</v>
+      <c r="C122" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>595</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0"/>
-      <c r="C123" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>590</v>
+      <c r="C123" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>596</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0"/>
-      <c r="C124" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="D124" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="E124" s="38" t="s">
-        <v>593</v>
+      <c r="C124" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>596</v>
+      <c r="B125" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>602</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0"/>
-      <c r="C126" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="E126" s="38" t="s">
-        <v>599</v>
+      <c r="C126" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0"/>
       <c r="C127" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0"/>
@@ -14461,136 +14425,136 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0"/>
       <c r="C128" s="0"/>
-      <c r="D128" s="37"/>
+      <c r="D128" s="36"/>
       <c r="E128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C129" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>603</v>
+      <c r="B129" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>609</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>605</v>
+      <c r="C130" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>611</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0"/>
-      <c r="D131" s="38" t="s">
-        <v>606</v>
+      <c r="D131" s="35" t="s">
+        <v>612</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="E132" s="38" t="s">
-        <v>609</v>
+      <c r="C132" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="D133" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="E133" s="38" t="s">
-        <v>612</v>
+      <c r="C133" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="E133" s="35" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="D134" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="E134" s="38" t="s">
-        <v>615</v>
+      <c r="C134" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="D135" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="E135" s="37" t="s">
-        <v>618</v>
+      <c r="C135" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="D136" s="38" t="s">
-        <v>620</v>
+      <c r="C136" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>626</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>622</v>
+      <c r="C137" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>628</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="D138" s="38" t="s">
-        <v>624</v>
+      <c r="C138" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>630</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="D139" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="E139" s="38" t="s">
-        <v>627</v>
+      <c r="C139" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="D140" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="E140" s="38" t="s">
-        <v>630</v>
+      <c r="C140" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>632</v>
+      <c r="C141" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -14614,942 +14578,2097 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="1:99"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="41" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="81.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="68.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="38" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="81.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="68.9183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="n">
+      <c r="A6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>635</v>
-      </c>
+      <c r="B6" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>641</v>
+      </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>637</v>
-      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>639</v>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>641</v>
-      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>644</v>
+      <c r="B10" s="0"/>
+      <c r="C10" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>647</v>
+      <c r="B11" s="0"/>
+      <c r="C11" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="38" t="s">
-        <v>648</v>
-      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>650</v>
-      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>653</v>
+      <c r="B14" s="0"/>
+      <c r="C14" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>655</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>656</v>
-      </c>
+      <c r="B15" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="0"/>
+      <c r="C16" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="E25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0"/>
+      <c r="C30" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
+      <c r="C31" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="C33" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
+      <c r="C34" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0"/>
+      <c r="C38" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="E38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
+      <c r="C39" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="E39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
+      <c r="C40" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="E40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
+      <c r="C41" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="E41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
+      <c r="C42" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="E42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
+      <c r="C43" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
+      <c r="C44" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0"/>
+      <c r="C45" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0"/>
+      <c r="C46" s="35" t="s">
+        <v>731</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
+      <c r="C47" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
+      <c r="C48" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="35" t="s">
+        <v>742</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
+      <c r="C52" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0"/>
+      <c r="C53" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0"/>
+      <c r="C55" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="E55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0"/>
+      <c r="C56" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0"/>
+      <c r="C57" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0"/>
+      <c r="C58" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="37" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="37" t="s">
-        <v>703</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="38" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>717</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="38" t="s">
-        <v>719</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="38" t="s">
-        <v>722</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="38" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="38" t="s">
-        <v>729</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="38" t="s">
-        <v>736</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>737</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>738</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>747</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="38" t="s">
-        <v>754</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>758</v>
+      <c r="D58" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>760</v>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="37" t="s">
-        <v>761</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>762</v>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="38" t="s">
-        <v>763</v>
-      </c>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="38" t="s">
-        <v>764</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>765</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>766</v>
-      </c>
+      <c r="B62" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="38" t="s">
-        <v>767</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>768</v>
-      </c>
+      <c r="B63" s="0"/>
+      <c r="C63" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>774</v>
+      </c>
+      <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="38" t="s">
-        <v>769</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>770</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>771</v>
+      <c r="B64" s="0"/>
+      <c r="C64" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>772</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>773</v>
+      <c r="B65" s="0"/>
+      <c r="C65" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>775</v>
-      </c>
+      <c r="B66" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="C66" s="0"/>
+      <c r="D66" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>777</v>
-      </c>
+      <c r="B67" s="0"/>
+      <c r="C67" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="38" t="s">
-        <v>778</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>779</v>
-      </c>
+      <c r="B68" s="0"/>
+      <c r="C68" s="35" t="s">
+        <v>784</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>781</v>
-      </c>
+      <c r="B69" s="0"/>
+      <c r="C69" s="35" t="s">
+        <v>786</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>787</v>
+      </c>
+      <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="38" t="s">
-        <v>782</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>783</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>784</v>
+      <c r="B70" s="0"/>
+      <c r="C70" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>789</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="38" t="s">
-        <v>785</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>786</v>
-      </c>
+      <c r="B71" s="0"/>
+      <c r="C71" s="35" t="s">
+        <v>791</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>792</v>
+      </c>
+      <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="38" t="s">
-        <v>787</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>788</v>
-      </c>
+      <c r="B72" s="0"/>
+      <c r="C72" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>794</v>
+      </c>
+      <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>790</v>
-      </c>
+      <c r="B73" s="0"/>
+      <c r="C73" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="38" t="s">
-        <v>791</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>793</v>
+      <c r="B74" s="0"/>
+      <c r="C74" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>795</v>
-      </c>
+      <c r="B75" s="0"/>
+      <c r="C75" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="38" t="s">
-        <v>796</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>797</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>798</v>
+      <c r="B76" s="0"/>
+      <c r="C76" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>800</v>
-      </c>
+      <c r="B77" s="0"/>
+      <c r="C77" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="38" t="s">
-        <v>801</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>802</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>803</v>
+      <c r="B78" s="0"/>
+      <c r="C78" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="38" t="s">
-        <v>804</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>805</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>806</v>
+      <c r="B79" s="0"/>
+      <c r="C79" s="35" t="s">
+        <v>810</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="38" t="s">
-        <v>807</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>808</v>
-      </c>
+      <c r="B80" s="0"/>
+      <c r="C80" s="35" t="s">
+        <v>813</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="38" t="s">
-        <v>809</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>810</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>811</v>
+      <c r="B81" s="0"/>
+      <c r="C81" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>816</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="38" t="s">
-        <v>812</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>813</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>814</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>815</v>
+      <c r="B82" s="35" t="s">
+        <v>818</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="38" t="s">
-        <v>816</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>817</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>818</v>
+      <c r="B83" s="0"/>
+      <c r="C83" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="38" t="s">
-        <v>819</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>820</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>821</v>
+      <c r="B84" s="0"/>
+      <c r="C84" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>826</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="38" t="s">
-        <v>822</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>823</v>
-      </c>
+      <c r="B85" s="0"/>
+      <c r="C85" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>825</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>826</v>
+      <c r="B86" s="0"/>
+      <c r="C86" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="38" t="s">
-        <v>827</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>828</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>829</v>
+      <c r="B87" s="0"/>
+      <c r="C87" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="38" t="s">
-        <v>830</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>831</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>832</v>
+      <c r="B88" s="0"/>
+      <c r="C88" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>834</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>835</v>
+      <c r="B89" s="0"/>
+      <c r="C89" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="38" t="s">
-        <v>836</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>837</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>838</v>
+      <c r="B90" s="0"/>
+      <c r="C90" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="38" t="s">
-        <v>839</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>840</v>
-      </c>
-      <c r="E91" s="38" t="s">
-        <v>841</v>
+      <c r="B91" s="0"/>
+      <c r="C91" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>846</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="38" t="s">
-        <v>842</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>843</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>844</v>
+      <c r="B92" s="0"/>
+      <c r="C92" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="38" t="s">
-        <v>845</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>846</v>
-      </c>
+      <c r="B93" s="0"/>
+      <c r="C93" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="38" t="s">
-        <v>847</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>848</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>849</v>
+      <c r="B94" s="0"/>
+      <c r="C94" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="45" t="s">
-        <v>850</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>851</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>852</v>
+      <c r="B95" s="0"/>
+      <c r="C95" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>854</v>
-      </c>
-      <c r="E96" s="38" t="s">
-        <v>855</v>
+      <c r="B96" s="0"/>
+      <c r="C96" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="38" t="s">
-        <v>856</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>857</v>
-      </c>
-      <c r="E97" s="38" t="s">
-        <v>858</v>
+      <c r="B97" s="0"/>
+      <c r="C97" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="38" t="s">
-        <v>859</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>861</v>
+      <c r="B98" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="38" t="s">
-        <v>862</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>863</v>
+      <c r="D99" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="E99" s="35" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="894">
   <si>
     <t>Sr No</t>
   </si>
@@ -599,6 +599,9 @@
     <t>Data Members</t>
   </si>
   <si>
+    <t>instance member</t>
+  </si>
+  <si>
     <t>constant</t>
   </si>
   <si>
@@ -613,13 +616,263 @@
   </si>
   <si>
     <t>
-• static members are allocated on Initialization.
+• Mutable member data can be modified any where in class including const function.
+</t>
+  </si>
+  <si>
+    <t>
+• static members are allocated only on Initialization.
 • static members must be initialized only once in global scope.
 • static member can be modified in const member function.
 </t>
   </si>
   <si>
     <t>static constant</t>
+  </si>
+  <si>
+    <t>Operator Overloading</t>
+  </si>
+  <si>
+    <t>
+return_type operatortype (param) {
+}
+type - +,-,&lt;&lt;
+</t>
+  </si>
+  <si>
+    <t>operator casting</t>
+  </si>
+  <si>
+    <t>
+CA{
+    int x ,y;
+    explicit operator int()  //c++11 {
+        return x + y;
+    }
+}
+Fun () {
+    CA obj;
+    int a = (int)obj;
+}
+</t>
+  </si>
+  <si>
+    <t>Ctor</t>
+  </si>
+  <si>
+    <t>
+• one parameter ctor and multi parameter ctor.
+• order of global ctor/ dtor is order of declairation.
+• Default Constructor
+    Its the constructor that can be called with no arguments. It is posiible for a default constructor to take arguments, provided they are given default values.
+    CA(int i = 3, int j = 5);
+• Copy Constructor
+    Copy constructor initializes an object by copying the state from another object of the same class.If the class of object being copied is X, the copy constrouctor’s signature is usually X::X(const X&amp;).
+• What are Virtual Constructors.
+    The virtual keyword cannot be applied to a constructor since constructor turns raw bits into a living object, and until there is a living object against which to invoke a member function, the member function cannot possibly work correctly.
+• When the constructor of a base class calls a virtual function, why is’nt the override called ?
+    Objects of a derived class mature during construction. While the bas class’s constructor is executing, the object is merely a base class object. Later when the derived class’s contructor begins executing, the object matures into a derived class object.
+    If a virtual function is invoked while the object is still immature, the immature version of the virtual function is called.
+</t>
+  </si>
+  <si>
+    <t>
+class CA
+{
+public:
+    CA() {
+        fun();
+    }
+    ~CA() {
+        fun();
+    }
+    virtual void fun() {
+        cout&lt;&lt;"fun ca"&lt;&lt;endl;
+    }
+};
+class CB:public CA {
+public:
+    void fun() {
+    cout&lt;&lt;"fun cb"&lt;&lt;endl;
+    }
+};
+void main() {
+    CB obj;
+}
+</t>
+  </si>
+  <si>
+    <t>Dtor</t>
+  </si>
+  <si>
+    <t>
+• What happens when a destructor is executed ?
+1. First the destructor’s body {...} is executed.
+2. Then, destructors for member objects are called in the reverse orderthat the member objects appear in the class body.
+3. Then, runtime system calls the destructors for immediate base classes.
+4. Virtual base classes are special their destructors are Called at the end of the most derived class’s destructor.
+• What are Virtual Destructors.
+    A destructor is called whenever an object is deleted, but there are some cases when users code doesn’t know which destructor should be called.
+    For eg. If a base class pointer is pointing to derived class object, when the object dies only the base class destructor is called. This could be a serious error,especially if the derived destructor is supposed to release some resources.
+    The solution is to make the base class destructor virtual.once that is done, the compiler dynamically binds to the destructor, and thus the right destructor is always called.
+• Virtual destructors are extremely valuable when some derived classes have some specified cleanup code.If any code anywhere deletes an derived class object via a base class pointer, then the base class’s destructor needs to be virtual.
+• A class can have a pure virtual destructor provided it gives an explicit definition else where.
+• When the destructor of a base class calls a virtual function, why is’nt the override called ?
+    Just as object of derived class matures into a derived class object during construction, it reverts back into a base class object during destruction.
+</t>
+  </si>
+  <si>
+    <t>
+class CA {
+public:
+    virtual ~CA() {
+    cout&lt;&lt;"dest CA"&lt;&lt;endl;
+    }
+};
+class CB:public CA {
+public:
+    ~CB() {
+    cout&lt;&lt;"dest cb"&lt;&lt;endl;
+    }
+};
+void main() {
+    CA *obj = new CB;
+    delete obj;
+}
+----------------------------------------------
+class CA {
+public:
+    virtual ~CA() = 0;
+};
+inline CA::~CA() {
+cout&lt;&lt;"dest CA"&lt;&lt;endl;
+}
+</t>
+  </si>
+  <si>
+    <t>operator new &amp; delete</t>
+  </si>
+  <si>
+    <t>new operator</t>
+  </si>
+  <si>
+    <t>
+• Object construction using new is a two step process.
+    1. The first step is to allocate memory.
+    2. The pointer returned from the first step is passed as the constructor’s this parameter. The call to the constructor is wrapped in a try block. If an exception occurs in the constructor all bytes allocated are automatically released back to the heap.
+• new never ever returns NULL. Instead, if new runs out of memory, it throws an exception of type bad_alloc.
+• By replacing new by new(nothrow) , new can return NULL rather than throwing an exception.
+</t>
+  </si>
+  <si>
+    <t>
+CA *obj = new(nothrow) CA();
+Creating Array of objects on the heap.
+    {
+        CA *obj = new CA[10];
+        delete[] obj; // [] is required when deallocating the array
+    }
+</t>
+  </si>
+  <si>
+    <t>delete operator</t>
+  </si>
+  <si>
+    <t>
+• Delete is a two step operation.
+    a. It first calls the destructor on the object.
+    b. Then it releases the memory.
+</t>
+  </si>
+  <si>
+    <t>Overloading global new &amp; delete</t>
+  </si>
+  <si>
+    <t>
+• Overloading global new &amp; delete
+void* operator new(size_t sz) {
+    void* m = malloc(sz);
+    if(!m)
+    cout&lt;&lt;"out of memory"&lt;&lt;endl;
+    return m;
+}
+void operator delete(void* m) {
+    free(m);
+}
+int main() {
+    int* p = new int(47);
+    delete p;
+    CA* pobj = new CA;
+    delete pobj;
+    CA* obj = new CA[3];
+    delete []obj;
+}
+</t>
+  </si>
+  <si>
+    <t>
+• Overloading new &amp; delete for a class
+class CA
+{
+public:
+    static void * operator new( unsigned int cb ) {
+        return malloc(cb);
+    }
+    static void operator delete(void * obj) {
+        free(obj);
+    }
+};
+void main() {
+    CA *obj = new CA;
+    delete obj;
+}
+The static keyword is optional for new &amp; delete operators. when you overload new and delete for a class, you’re creating static member functions.
+</t>
+  </si>
+  <si>
+    <t>
+• Overloading new &amp; delete for arrays
+class CA {
+public:
+    void * operator new[]( unsigned int cb ) {
+        cout&lt;&lt;"n[]"&lt;&lt;endl;
+        return ::new char[cb];
+    }
+    void operator delete[](void * obj) {
+        cout&lt;&lt;"d[]"&lt;&lt;endl;
+        ::delete []obj;
+    }
+};
+void main() {
+    CA *obj = new CA[10];
+    delete []obj;
+}
+Here, the global versions of new and delete are called so the effect is the same as having no overloaded versions of new and delete. Size requested is four more bytes than expected. This extra four bytes is where the system keeps information about the array, in particular, the number of objects in the array.
+</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>
+• Parts of function
+    1 naming conventions
+    2 return type
+    3 calling convention
+        __stdcall:: for fix len of argument, __cdecl:: for variable len argument
+        __fastercall:: requesting for register for argument
+    4 name of func
+    5 argument
+    6 exception list
+    7 prolog
+    8 body
+    9 epilog
+• function
+    hidding: declairing function same as base class function.
+    uppending: declairing function in derived class.
+    overriding: declairing function same as base class virtual function.
+    overloading: declairing function's with different parameters in derived class. 
+</t>
   </si>
   <si>
     <t>virtual terminals</t>
@@ -10530,10 +10783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10948,18 +11201,24 @@
       <c r="B46" s="35" t="s">
         <v>168</v>
       </c>
+      <c r="C46" s="35" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10967,12 +11226,96 @@
         <v>84</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -11114,35 +11457,35 @@
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="36" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="36" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -11150,10 +11493,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="36" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -11161,10 +11504,10 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="36" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -11173,7 +11516,7 @@
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="36" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -11181,21 +11524,21 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="36" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="36" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11204,7 +11547,7 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="36" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -11213,7 +11556,7 @@
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="36" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -11222,7 +11565,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="36" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -11231,7 +11574,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="36" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -11240,7 +11583,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -11249,7 +11592,7 @@
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="36" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -11258,7 +11601,7 @@
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="36" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -11267,7 +11610,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -11276,7 +11619,7 @@
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="36" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -11285,7 +11628,7 @@
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="36" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -11294,7 +11637,7 @@
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -11303,7 +11646,7 @@
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="36" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -11312,7 +11655,7 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -11321,7 +11664,7 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="36" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -11330,35 +11673,35 @@
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="36" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="36" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -11366,39 +11709,39 @@
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="36" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="36" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="36" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F31" s="0"/>
     </row>
@@ -11406,7 +11749,7 @@
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="36" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -11414,24 +11757,24 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="36" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="36" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="36" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="36" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F34" s="0"/>
     </row>
@@ -11439,7 +11782,7 @@
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
       <c r="D35" s="36" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -11448,170 +11791,170 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="36" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="36" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="36" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="36" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="36" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="36" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="D43" s="36" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="D44" s="36" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="36" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="36" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="D47" s="36" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="D48" s="36" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="D49" s="36" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="D50" s="36" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="D51" s="36" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="D52" s="36" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="36" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="36" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="36" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -11696,17 +12039,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="36" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11714,7 +12057,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E6" s="0"/>
     </row>
@@ -11722,10 +12065,10 @@
       <c r="A7" s="39"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -11734,7 +12077,7 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -11743,7 +12086,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -11751,10 +12094,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -11762,21 +12105,21 @@
       <c r="A11" s="39"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="36" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -11784,23 +12127,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="36" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -11808,36 +12151,36 @@
       <c r="A15" s="39"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="36" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="36" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -11845,10 +12188,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="36" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -11857,7 +12200,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -11865,10 +12208,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="36" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -11876,124 +12219,124 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="36" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="36" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="0"/>
       <c r="C23" s="36" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="0"/>
       <c r="C24" s="36" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="0"/>
       <c r="C25" s="36" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="0"/>
       <c r="C26" s="36" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="0"/>
       <c r="C27" s="36" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
       <c r="B28" s="36" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" s="36" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="0"/>
       <c r="C30" s="36" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="0"/>
       <c r="C31" s="36" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -13082,12 +13425,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="35" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13095,13 +13438,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E5" s="0"/>
     </row>
@@ -13109,23 +13452,23 @@
       <c r="A6" s="39"/>
       <c r="B6" s="0"/>
       <c r="C6" s="35" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -13134,7 +13477,7 @@
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="35" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -13142,10 +13485,10 @@
       <c r="A9" s="39"/>
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -13153,10 +13496,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -13164,10 +13507,10 @@
       <c r="A11" s="39"/>
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E11" s="0"/>
     </row>
@@ -13175,10 +13518,10 @@
       <c r="A12" s="39"/>
       <c r="B12" s="0"/>
       <c r="C12" s="35" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -13186,23 +13529,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -13211,11 +13554,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="35" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="E15" s="0"/>
     </row>
@@ -13223,23 +13566,23 @@
       <c r="A16" s="39"/>
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -13247,10 +13590,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -13259,13 +13602,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -13273,10 +13616,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -13284,10 +13627,10 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="E21" s="0"/>
     </row>
@@ -13295,1129 +13638,1129 @@
       <c r="A22" s="39"/>
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="35" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="35" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="35" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="35" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="35" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="35" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="35" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="35" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="35" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="C51" s="35" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="35" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="35" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="35" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="35" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
       <c r="C62" s="35" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
       <c r="C66" s="35" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="35" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
       <c r="C82" s="35" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="35" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="35" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0"/>
       <c r="C98" s="35" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0"/>
       <c r="C99" s="35" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0"/>
       <c r="C100" s="35" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0"/>
       <c r="C101" s="35" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0"/>
       <c r="C102" s="35" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0"/>
       <c r="C103" s="35" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0"/>
       <c r="C104" s="35" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0"/>
       <c r="C105" s="35" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0"/>
       <c r="C106" s="35" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
       <c r="C107" s="35" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
       <c r="C108" s="35" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0"/>
       <c r="C109" s="35" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0"/>
       <c r="C110" s="35" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0"/>
       <c r="C111" s="35" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0"/>
       <c r="C112" s="35" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="35" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0"/>
       <c r="C114" s="35" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0"/>
       <c r="C115" s="35" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0"/>
       <c r="C116" s="35" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0"/>
       <c r="C117" s="35" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0"/>
       <c r="C118" s="35" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0"/>
       <c r="C119" s="35" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0"/>
       <c r="C120" s="35" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0"/>
       <c r="C121" s="35" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
       <c r="C122" s="35" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0"/>
       <c r="C123" s="35" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0"/>
       <c r="C124" s="35" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="35" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0"/>
       <c r="C126" s="35" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0"/>
       <c r="C127" s="40" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0"/>
@@ -14430,131 +14773,131 @@
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="35" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="35" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0"/>
       <c r="D131" s="35" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="35" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="35" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="35" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="35" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="35" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="35" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="35" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="35" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="35" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="35" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -15642,205 +15985,205 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="35" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="35" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="35" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="35" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="E24" s="0"/>
     </row>
@@ -15848,117 +16191,117 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="35" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="35" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="35" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="E35" s="0"/>
     </row>
@@ -15966,110 +16309,110 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="35" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="35" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="35" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
@@ -16077,598 +16420,598 @@
     <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="35" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="35" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="35" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="35" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="36" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="35" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="35" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="35" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="35" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
       <c r="C78" s="35" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="35" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0"/>
       <c r="C95" s="36" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="36" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="35" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="35" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="898">
   <si>
     <t>Sr No</t>
   </si>
@@ -872,6 +872,65 @@
     uppending: declairing function in derived class.
     overriding: declairing function same as base class virtual function.
     overloading: declairing function's with different parameters in derived class. 
+</t>
+  </si>
+  <si>
+    <t>
+• avoid potential naming clashing
+• nested
+• namespace concantination
+    gets merged but chance of clashing if same name
+• Unnamed Namespace    
+    Each translation unit contains an unnamed namespace that you can add to by saying “namespace” without an identifier:
+namespace {
+    int i= 200;
+}
+namespace {
+    //int i= 200;     //redefination error
+    int j= 200;
+}
+//int i;  // error: reference to ‘i’ is ambiguous
+int main() {
+    cout&lt;&lt;i&lt;&lt;endl;
+    return 0;
+}
+</t>
+  </si>
+  <si>
+    <t>
+Namespace sachin {
+    int i = 10;
+    int j = 20;
+}
+sachin::i &lt;&lt; endl;	// selective usage
+using sachin:: i;   // selective exposure
+using namespace sachin;       // full exposure
+---------------------------------------------------------
+namespace saurav {
+    using namespace sachin;
+}
+namespace rahul {
+    int i = 222;
+    namespace dravid {	// nested namespace
+        int x = 444;
+    }
+}
+void fun () {
+    using namespace rahul;
+    using namespace rahul::dravid; // need to mention explicitly
+}
+</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>
+• Friend function
+    What if you want to explicitly grant access to a function that isn’t a member of the current structure? This is accomplished by declaring that function a friend inside the structure declaration.
+• The compiler ignores the access level (private: , protected:, or public: ) where friend functions are declared. Friend functions are inherently public:. For documentation purposes, they should be declared in the public: section of a class.    
+• Friend classes
+    Friend classes are used when two or more classes are designed to work together and need access to each others private implementation.
 </t>
   </si>
   <si>
@@ -10783,10 +10842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11316,6 +11375,25 @@
       </c>
       <c r="D59" s="35" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -11457,35 +11535,35 @@
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -11493,10 +11571,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -11504,10 +11582,10 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -11516,7 +11594,7 @@
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -11524,21 +11602,21 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="36" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11547,7 +11625,7 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -11556,7 +11634,7 @@
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -11565,7 +11643,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="36" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -11574,7 +11652,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -11583,7 +11661,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -11592,7 +11670,7 @@
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -11601,7 +11679,7 @@
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -11610,7 +11688,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -11619,7 +11697,7 @@
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -11628,7 +11706,7 @@
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="36" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -11637,7 +11715,7 @@
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -11646,7 +11724,7 @@
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -11655,7 +11733,7 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -11664,7 +11742,7 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -11673,35 +11751,35 @@
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="36" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -11709,39 +11787,39 @@
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="36" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F31" s="0"/>
     </row>
@@ -11749,7 +11827,7 @@
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -11757,24 +11835,24 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F34" s="0"/>
     </row>
@@ -11782,7 +11860,7 @@
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
       <c r="D35" s="36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -11791,170 +11869,170 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="36" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="D43" s="36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="D44" s="36" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="36" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="D47" s="36" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="D48" s="36" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="D49" s="36" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="D50" s="36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="D51" s="36" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="D52" s="36" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="36" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -12039,17 +12117,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="36" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,7 +12135,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E6" s="0"/>
     </row>
@@ -12065,10 +12143,10 @@
       <c r="A7" s="39"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -12077,7 +12155,7 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -12086,7 +12164,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -12094,10 +12172,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -12105,21 +12183,21 @@
       <c r="A11" s="39"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="36" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -12127,23 +12205,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -12151,36 +12229,36 @@
       <c r="A15" s="39"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="36" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="36" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -12188,10 +12266,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -12200,7 +12278,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -12208,10 +12286,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="36" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -12219,124 +12297,124 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="36" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="0"/>
       <c r="C23" s="36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="0"/>
       <c r="C24" s="36" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="0"/>
       <c r="C25" s="36" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="0"/>
       <c r="C26" s="36" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="0"/>
       <c r="C27" s="36" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
       <c r="B28" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="0"/>
       <c r="C30" s="36" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="0"/>
       <c r="C31" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -13425,12 +13503,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="35" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13438,13 +13516,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E5" s="0"/>
     </row>
@@ -13452,23 +13530,23 @@
       <c r="A6" s="39"/>
       <c r="B6" s="0"/>
       <c r="C6" s="35" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -13477,7 +13555,7 @@
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="35" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -13485,10 +13563,10 @@
       <c r="A9" s="39"/>
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -13496,10 +13574,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -13507,10 +13585,10 @@
       <c r="A11" s="39"/>
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E11" s="0"/>
     </row>
@@ -13518,10 +13596,10 @@
       <c r="A12" s="39"/>
       <c r="B12" s="0"/>
       <c r="C12" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -13529,23 +13607,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -13554,11 +13632,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="35" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E15" s="0"/>
     </row>
@@ -13566,23 +13644,23 @@
       <c r="A16" s="39"/>
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -13590,10 +13668,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -13602,13 +13680,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -13616,10 +13694,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -13627,10 +13705,10 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E21" s="0"/>
     </row>
@@ -13638,1129 +13716,1129 @@
       <c r="A22" s="39"/>
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="35" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="35" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="35" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="35" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="35" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="35" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="35" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="35" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="35" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="C51" s="35" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="35" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="35" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="35" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
       <c r="C62" s="35" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
       <c r="C66" s="35" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="35" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
       <c r="C82" s="35" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="35" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="35" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0"/>
       <c r="C98" s="35" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0"/>
       <c r="C99" s="35" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0"/>
       <c r="C100" s="35" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0"/>
       <c r="C101" s="35" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0"/>
       <c r="C102" s="35" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0"/>
       <c r="C103" s="35" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0"/>
       <c r="C104" s="35" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0"/>
       <c r="C105" s="35" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0"/>
       <c r="C106" s="35" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
       <c r="C107" s="35" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
       <c r="C108" s="35" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0"/>
       <c r="C109" s="35" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0"/>
       <c r="C110" s="35" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0"/>
       <c r="C111" s="35" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0"/>
       <c r="C112" s="35" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="35" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0"/>
       <c r="C114" s="35" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0"/>
       <c r="C115" s="35" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0"/>
       <c r="C116" s="35" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0"/>
       <c r="C117" s="35" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0"/>
       <c r="C118" s="35" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0"/>
       <c r="C119" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0"/>
       <c r="C120" s="35" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0"/>
       <c r="C121" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
       <c r="C122" s="35" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0"/>
       <c r="C123" s="35" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0"/>
       <c r="C124" s="35" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="35" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0"/>
       <c r="C126" s="35" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0"/>
       <c r="C127" s="40" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0"/>
@@ -14773,131 +14851,131 @@
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="35" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="35" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0"/>
       <c r="D131" s="35" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="35" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="35" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="35" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="35" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="35" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="35" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="35" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="35" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="35" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="35" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -15985,205 +16063,205 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="35" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="35" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="35" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="35" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E24" s="0"/>
     </row>
@@ -16191,117 +16269,117 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="35" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="35" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="35" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E35" s="0"/>
     </row>
@@ -16309,110 +16387,110 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="35" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="35" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="35" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
@@ -16420,598 +16498,598 @@
     <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="35" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="35" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="35" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="35" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="36" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="35" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="35" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="35" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="35" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
       <c r="C78" s="35" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="35" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0"/>
       <c r="C95" s="36" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="36" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="35" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="35" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="911">
   <si>
     <t>Sr No</t>
   </si>
@@ -931,6 +931,115 @@
 • The compiler ignores the access level (private: , protected:, or public: ) where friend functions are declared. Friend functions are inherently public:. For documentation purposes, they should be declared in the public: section of a class.    
 • Friend classes
     Friend classes are used when two or more classes are designed to work together and need access to each others private implementation.
+</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Funtion Template</t>
+  </si>
+  <si>
+    <t>
+Templates allow to create generic functions that admit any data type as parameters and return value without having to overload the function with all the possible data types.
+</t>
+  </si>
+  <si>
+    <t>
+template &lt;class GenericType&gt;
+GenericType GetMax (GenericType a, GenericType b) {
+    return (a&gt;b?a:b);
+}
+fun () {
+    int x, y;
+    GetMax&lt;int&gt; (x,y);
+}
+</t>
+  </si>
+  <si>
+    <t>Class template</t>
+  </si>
+  <si>
+    <t>
+We also have the possibility to write class templates, so that a class can have members based on generic types that do not need to be defined at the moment of creating the class or whose members use these generic types. For example:
+</t>
+  </si>
+  <si>
+    <t>
+template &lt;class T&gt;
+class pair {
+    T values [2];
+public:
+    pair (T first, T second) {values[0]=first; values[1]=second;}
+};
+fun () {
+    pair&lt;int&gt; myobject (115, 36);
+    pair&lt;double&gt; obj2 (1.3,4.2);
+}
+</t>
+  </si>
+  <si>
+    <t>template specialization</t>
+  </si>
+  <si>
+    <t>
+A template specialization allows a template to make specific implementations for when the pattern is of a determined type.
+</t>
+  </si>
+  <si>
+    <t>
+template &lt;class T&gt;
+class pair {
+    T value1, value2;
+public:
+    pair (T first, T second) {value1=first; value2=second;}
+    T module () {return 0;}
+};
+template &lt;&gt;
+class pair &lt;int&gt; {
+    int value1, value2;
+public:
+    pair (int first, int second) {value1=first; value2=second;}
+    int module ();
+};
+</t>
+  </si>
+  <si>
+    <t>Parameter values for templates</t>
+  </si>
+  <si>
+    <t>
+It is also possible to set default values for any template parameter just as that is done with function parameters.
+Some possible template examples seen above:
+template &lt;class T&gt;          // The most usual: one class parameter.
+template &lt;class T, class U&gt; // Two class parameters.
+template &lt;class T, int N&gt;   // A class and an integer.
+template &lt;class T = char&gt;   // With a default value.
+template &lt;int Tfunc (int)&gt;  // A function as parameter.
+</t>
+  </si>
+  <si>
+    <t>
+Template &lt;class T, int N&gt;
+class array {
+    T memblock [N];
+public:
+    setmember (int x, T value);
+    T getmember (int x);
+};
+template &lt;class T, int N&gt;
+array&lt;T,N&gt;::setmember (int x, T value) {memblock[x]=value;}
+template &lt;class T, int N&gt;
+T array&lt;T,N&gt;::getmember (int x) {return memblock[x];}
+int main () {
+    array &lt;int,5&gt; myints;
+    array &lt;float,5&gt; myfloats;
+    myints.setmember (0,100);
+    myfloats.setmember (3.0,3.1416);
+    cout &lt;&lt; myints.getmember(0) &lt;&lt; '\n';
+    cout &lt;&lt; myfloats.getmember(3) &lt;&lt; '\n';
+    return 0;
+}
 </t>
   </si>
   <si>
@@ -10842,10 +10951,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10854,7 +10963,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="35" width="18.765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="35" width="22.5459183673469"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="35" width="72.7602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="54.1326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="64.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="35" width="30.5102040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
@@ -11388,12 +11497,59 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="35" t="s">
         <v>200</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -11535,35 +11691,35 @@
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="36" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="36" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -11571,10 +11727,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="36" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -11582,10 +11738,10 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="36" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -11594,7 +11750,7 @@
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="36" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -11602,21 +11758,21 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="36" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="36" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11625,7 +11781,7 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="36" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -11634,7 +11790,7 @@
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="36" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -11643,7 +11799,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="36" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -11652,7 +11808,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="36" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -11661,7 +11817,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -11670,7 +11826,7 @@
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="36" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -11679,7 +11835,7 @@
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="36" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -11688,7 +11844,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -11697,7 +11853,7 @@
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="36" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -11706,7 +11862,7 @@
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="36" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -11715,7 +11871,7 @@
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -11724,7 +11880,7 @@
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="36" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -11733,7 +11889,7 @@
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -11742,7 +11898,7 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="36" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -11751,35 +11907,35 @@
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="36" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="36" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -11787,39 +11943,39 @@
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="36" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="36" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="36" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F31" s="0"/>
     </row>
@@ -11827,7 +11983,7 @@
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="36" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -11835,24 +11991,24 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="36" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="36" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="36" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="36" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F34" s="0"/>
     </row>
@@ -11860,7 +12016,7 @@
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
       <c r="D35" s="36" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -11869,170 +12025,170 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="36" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="36" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="36" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="36" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="36" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="36" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="D43" s="36" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="D44" s="36" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="36" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="36" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="D47" s="36" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="D48" s="36" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="D49" s="36" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="D50" s="36" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="D51" s="36" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="D52" s="36" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="36" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="36" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="36" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12117,17 +12273,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="36" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12135,7 +12291,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E6" s="0"/>
     </row>
@@ -12143,10 +12299,10 @@
       <c r="A7" s="39"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -12155,7 +12311,7 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -12164,7 +12320,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -12172,10 +12328,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -12183,21 +12339,21 @@
       <c r="A11" s="39"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="36" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -12205,23 +12361,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="36" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -12229,36 +12385,36 @@
       <c r="A15" s="39"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="36" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="36" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="36" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -12266,10 +12422,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="36" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -12278,7 +12434,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="36" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -12286,10 +12442,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="36" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -12297,124 +12453,124 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="36" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" s="36" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="0"/>
       <c r="C23" s="36" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="0"/>
       <c r="C24" s="36" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="0"/>
       <c r="C25" s="36" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="0"/>
       <c r="C26" s="36" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="0"/>
       <c r="C27" s="36" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
       <c r="B28" s="36" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" s="36" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="0"/>
       <c r="C30" s="36" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="0"/>
       <c r="C31" s="36" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -13503,12 +13659,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="35" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13516,13 +13672,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E5" s="0"/>
     </row>
@@ -13530,23 +13686,23 @@
       <c r="A6" s="39"/>
       <c r="B6" s="0"/>
       <c r="C6" s="35" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E7" s="0"/>
     </row>
@@ -13555,7 +13711,7 @@
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="35" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -13563,10 +13719,10 @@
       <c r="A9" s="39"/>
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E9" s="0"/>
     </row>
@@ -13574,10 +13730,10 @@
       <c r="A10" s="39"/>
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E10" s="0"/>
     </row>
@@ -13585,10 +13741,10 @@
       <c r="A11" s="39"/>
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E11" s="0"/>
     </row>
@@ -13596,10 +13752,10 @@
       <c r="A12" s="39"/>
       <c r="B12" s="0"/>
       <c r="C12" s="35" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E12" s="0"/>
     </row>
@@ -13607,23 +13763,23 @@
       <c r="A13" s="39"/>
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E14" s="0"/>
     </row>
@@ -13632,11 +13788,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="35" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E15" s="0"/>
     </row>
@@ -13644,23 +13800,23 @@
       <c r="A16" s="39"/>
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E17" s="0"/>
     </row>
@@ -13668,10 +13824,10 @@
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E18" s="0"/>
     </row>
@@ -13680,13 +13836,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="E19" s="0"/>
     </row>
@@ -13694,10 +13850,10 @@
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E20" s="0"/>
     </row>
@@ -13705,10 +13861,10 @@
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E21" s="0"/>
     </row>
@@ -13716,1129 +13872,1129 @@
       <c r="A22" s="39"/>
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="35" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="35" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="35" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="35" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="36" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="35" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="35" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="35" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="35" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="35" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="C51" s="35" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="35" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="35" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="35" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="35" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
       <c r="C62" s="35" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
       <c r="C66" s="35" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="35" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
       <c r="C82" s="35" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="35" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="35" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0"/>
       <c r="C98" s="35" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0"/>
       <c r="C99" s="35" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0"/>
       <c r="C100" s="35" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0"/>
       <c r="C101" s="35" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0"/>
       <c r="C102" s="35" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0"/>
       <c r="C103" s="35" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0"/>
       <c r="C104" s="35" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0"/>
       <c r="C105" s="35" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0"/>
       <c r="C106" s="35" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
       <c r="C107" s="35" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
       <c r="C108" s="35" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0"/>
       <c r="C109" s="35" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0"/>
       <c r="C110" s="35" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0"/>
       <c r="C111" s="35" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0"/>
       <c r="C112" s="35" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="35" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0"/>
       <c r="C114" s="35" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0"/>
       <c r="C115" s="35" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0"/>
       <c r="C116" s="35" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0"/>
       <c r="C117" s="35" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0"/>
       <c r="C118" s="35" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0"/>
       <c r="C119" s="35" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0"/>
       <c r="C120" s="35" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0"/>
       <c r="C121" s="35" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
       <c r="C122" s="35" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0"/>
       <c r="C123" s="35" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0"/>
       <c r="C124" s="35" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="35" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0"/>
       <c r="C126" s="35" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0"/>
       <c r="C127" s="40" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0"/>
@@ -14851,131 +15007,131 @@
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="35" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="35" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0"/>
       <c r="D131" s="35" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="35" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="35" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="35" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="35" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="35" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="35" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="35" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="35" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="35" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="35" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -16063,205 +16219,205 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="35" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="35" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="35" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="35" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="35" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="35" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="35" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="35" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="35" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="35" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="35" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="35" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="35" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="35" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="35" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="35" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="36" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="E24" s="0"/>
     </row>
@@ -16269,117 +16425,117 @@
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="35" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="35" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="35" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="35" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="35" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="35" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="35" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="35" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="35" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="35" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="E35" s="0"/>
     </row>
@@ -16387,110 +16543,110 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="36" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="35" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="35" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="35" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="35" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="35" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="35" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="35" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="35" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="35" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="35" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
@@ -16498,598 +16654,598 @@
     <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="35" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="35" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="35" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="35" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="35" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="35" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="35" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
       <c r="C55" s="35" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="35" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="35" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="35" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="35" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="36" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="35" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="35" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
       <c r="C63" s="35" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="35" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="35" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="35" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="35" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="35" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
       <c r="C68" s="35" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
       <c r="C69" s="35" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="35" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="35" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
       <c r="C72" s="35" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
       <c r="C73" s="35" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
       <c r="C74" s="35" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="35" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="35" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="35" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
       <c r="C78" s="35" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="35" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="35" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="35" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="35" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="35" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="35" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="35" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="35" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
       <c r="C87" s="35" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
       <c r="C88" s="35" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
       <c r="C89" s="35" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
       <c r="C90" s="35" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
       <c r="C91" s="35" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
       <c r="C92" s="35" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
       <c r="C93" s="35" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
       <c r="C94" s="35" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0"/>
       <c r="C95" s="36" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
       <c r="C96" s="36" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
       <c r="C97" s="35" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="35" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="35" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,14 @@
     <sheet name="embedded_linux" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="kernel_programming" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="linux_device_driver" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="make_file" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="920">
   <si>
     <t>Sr No</t>
   </si>
@@ -9855,6 +9856,49 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>phony</t>
+  </si>
+  <si>
+    <t>
+- Targets that do not refer to files but are just actions are called phony targets.
+</t>
+  </si>
+  <si>
+    <t>What Makefiles Contain</t>
+  </si>
+  <si>
+    <t>
+• Makefiles contain five kinds of things
+    - explicit rules
+    - implicit rules
+    - variable definitions
+    - directives, and comments
+        A directive is an instruction for make to do something special while reading the makefile. These include:
+        • Reading another makefile.
+        • Deciding (based on the values of variables) whether to use or ignore a part of the makefile.
+        • Defining a variable from a verbatim string containing multiple lines.
+</t>
+  </si>
+  <si>
+    <t>What Name to Give Your Makefile</t>
+  </si>
+  <si>
+    <t>
+• Normally you should call your makefile either makefile or Makefile.
+• If you want to use a nonstandard name for your makefile, you can specify the makefile name with the ‘-f’ or ‘--file’ option. The arguments ‘-f name’ or ‘--file=name’ tell make to read the file name as the makefile.
+</t>
+  </si>
+  <si>
+    <t>
+$ make -f file.mk or make --file=file1 </t>
+  </si>
+  <si>
+    <t>Including Other Makefiles</t>
+  </si>
 </sst>
 </file>
 
@@ -9863,7 +9907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9959,6 +10003,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10033,7 +10082,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10171,23 +10220,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -10215,6 +10264,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10951,9 +11004,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -10968,587 +11021,2725 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
+      <c r="A5" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="36" t="s">
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="36" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" s="35" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36"/>
+      <c r="B7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="36" t="s">
+    <row r="8" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" s="35" customFormat="true" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="36" t="s">
+    <row r="9" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="36" t="s">
+    <row r="10" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" s="35" customFormat="true" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="36" t="s">
+    <row r="11" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>94</v>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="38" t="s">
         <v>99</v>
       </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="0"/>
+      <c r="C14" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="0"/>
+      <c r="C15" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
         <v>104</v>
       </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="0"/>
+      <c r="C16" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>106</v>
       </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="0"/>
+      <c r="C17" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>108</v>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="0"/>
+      <c r="C18" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>110</v>
       </c>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="0"/>
+      <c r="C19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>112</v>
       </c>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="0"/>
+      <c r="C20" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>114</v>
       </c>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="0"/>
+      <c r="C21" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>116</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>119</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="0"/>
+      <c r="C23" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="38" t="s">
         <v>121</v>
       </c>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="0"/>
+      <c r="C24" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>123</v>
       </c>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="38" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="0"/>
+      <c r="C26" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="0"/>
+      <c r="E26" s="38" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="0"/>
+      <c r="C27" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="0"/>
+      <c r="E27" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="0"/>
+      <c r="C28" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="0"/>
+      <c r="D29" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="36" t="s">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="38" t="s">
         <v>142</v>
       </c>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="36" t="s">
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="38" t="s">
         <v>143</v>
       </c>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="0"/>
+      <c r="C34" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="0"/>
+      <c r="E34" s="38" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="38" t="s">
         <v>147</v>
       </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="0"/>
+      <c r="C36" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="D36" s="0"/>
+      <c r="E36" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="0"/>
+      <c r="D37" s="38" t="s">
         <v>151</v>
       </c>
+      <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="36" t="s">
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="38" t="s">
         <v>152</v>
       </c>
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="0"/>
+      <c r="C39" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="0"/>
+      <c r="C40" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="38" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="C41" s="0"/>
+      <c r="D41" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="D42" s="0"/>
+      <c r="E42" s="38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="0"/>
+      <c r="C43" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="D43" s="0"/>
+      <c r="E43" s="38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="38" t="s">
         <v>167</v>
       </c>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="36" t="s">
         <v>169</v>
       </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="0"/>
+      <c r="C47" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="36" t="s">
         <v>171</v>
       </c>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="38.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="35" t="s">
+      <c r="B48" s="0"/>
+      <c r="C48" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="36" t="s">
         <v>173</v>
       </c>
+      <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="35" t="s">
+      <c r="B49" s="0"/>
+      <c r="C49" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="36" t="s">
         <v>174</v>
       </c>
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="0"/>
+      <c r="C50" s="36" t="s">
         <v>175</v>
       </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="36" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="C53" s="0"/>
+      <c r="D53" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="36" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="C54" s="0"/>
+      <c r="D54" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="36" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="36" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="35" t="s">
+      <c r="B56" s="0"/>
+      <c r="C56" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="36" t="s">
         <v>191</v>
       </c>
+      <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="0"/>
+      <c r="C57" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="35" t="s">
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="36" t="s">
         <v>195</v>
       </c>
+      <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="C59" s="0"/>
+      <c r="D59" s="36" t="s">
         <v>197</v>
       </c>
+      <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="C60" s="0"/>
+      <c r="D60" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="36" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="C61" s="0"/>
+      <c r="D61" s="36" t="s">
         <v>201</v>
       </c>
+      <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="36" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="36" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="36" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11576,13 +13767,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="78.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11602,22 +13793,22 @@
       <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11645,13 +13836,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="73.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="73.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11663,22 +13854,22 @@
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11690,35 +13881,35 @@
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>215</v>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="38" t="s">
         <v>216</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="38" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>221</v>
       </c>
       <c r="E6" s="0"/>
@@ -11726,10 +13917,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="0"/>
@@ -11737,10 +13928,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>225</v>
       </c>
       <c r="E8" s="0"/>
@@ -11749,7 +13940,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="0"/>
@@ -11757,21 +13948,21 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>228</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>229</v>
       </c>
       <c r="C11" s="0"/>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>230</v>
       </c>
       <c r="E11" s="0"/>
@@ -11780,7 +13971,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="38" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="0"/>
@@ -11789,7 +13980,7 @@
     <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="0"/>
@@ -11798,7 +13989,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="0"/>
@@ -11807,7 +13998,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
         <v>234</v>
       </c>
       <c r="E15" s="0"/>
@@ -11816,7 +14007,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>235</v>
       </c>
       <c r="E16" s="0"/>
@@ -11825,7 +14016,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>236</v>
       </c>
       <c r="E17" s="0"/>
@@ -11834,7 +14025,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>237</v>
       </c>
       <c r="E18" s="0"/>
@@ -11843,7 +14034,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="0"/>
@@ -11852,7 +14043,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>239</v>
       </c>
       <c r="E20" s="0"/>
@@ -11861,7 +14052,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>240</v>
       </c>
       <c r="E21" s="0"/>
@@ -11870,7 +14061,7 @@
     <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="0"/>
@@ -11879,7 +14070,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="38" t="s">
         <v>242</v>
       </c>
       <c r="E23" s="0"/>
@@ -11888,7 +14079,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>243</v>
       </c>
       <c r="E24" s="0"/>
@@ -11897,7 +14088,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>244</v>
       </c>
       <c r="E25" s="0"/>
@@ -11906,35 +14097,35 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="38" t="s">
         <v>245</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="38" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="38" t="s">
         <v>252</v>
       </c>
       <c r="E28" s="0"/>
@@ -11942,39 +14133,39 @@
     </row>
     <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="38" t="s">
         <v>255</v>
       </c>
       <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="38" t="s">
         <v>256</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="38" t="s">
         <v>257</v>
       </c>
       <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>261</v>
       </c>
       <c r="F31" s="0"/>
@@ -11982,7 +14173,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="38" t="s">
         <v>262</v>
       </c>
       <c r="E32" s="0"/>
@@ -11990,24 +14181,24 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="38" t="s">
         <v>263</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="38" t="s">
         <v>264</v>
       </c>
       <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="38" t="s">
         <v>265</v>
       </c>
       <c r="C34" s="0"/>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="38" t="s">
         <v>267</v>
       </c>
       <c r="F34" s="0"/>
@@ -12015,7 +14206,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="38" t="s">
         <v>268</v>
       </c>
       <c r="E35" s="0"/>
@@ -12024,170 +14215,170 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="38" t="s">
         <v>269</v>
       </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="38" t="s">
         <v>270</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="38" t="s">
         <v>271</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="38" t="s">
         <v>275</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="38" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="38" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="38" t="s">
         <v>284</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="38" t="s">
         <v>286</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="38" t="s">
         <v>287</v>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="490" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="38" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="38" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="38" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="38" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="38" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="38" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="38" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="38" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="38" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="38" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="38" t="s">
         <v>304</v>
       </c>
     </row>
@@ -12215,7 +14406,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="33" width="23.3520408163265"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="33" width="31.5867346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="33" width="66.8214285714286"/>
@@ -12225,46 +14416,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
     </row>
@@ -12272,148 +14463,148 @@
       <c r="A5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="38" t="s">
         <v>307</v>
       </c>
       <c r="E5" s="0"/>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="38" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38" t="s">
         <v>309</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>311</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>312</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
         <v>313</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>315</v>
       </c>
       <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>317</v>
       </c>
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="38" t="s">
         <v>319</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>321</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>324</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="38" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>316</v>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>317</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>330</v>
       </c>
       <c r="E17" s="0"/>
@@ -12421,10 +14612,10 @@
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>332</v>
       </c>
       <c r="E18" s="0"/>
@@ -12433,7 +14624,7 @@
       <c r="A19" s="39"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>333</v>
       </c>
       <c r="E19" s="0"/>
@@ -12441,10 +14632,10 @@
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>335</v>
       </c>
       <c r="E20" s="0"/>
@@ -12452,124 +14643,124 @@
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="38" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>339</v>
       </c>
       <c r="C22" s="0"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="0"/>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="38" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="0"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="0"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="0"/>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="38" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="0"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="38" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="38" t="s">
         <v>351</v>
       </c>
       <c r="C28" s="0"/>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="38" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="0"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="38" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="0"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="38" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="0"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="38" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="38" t="s">
         <v>361</v>
       </c>
     </row>
@@ -12605,33 +14796,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="6.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="28.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="80.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="65.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="6.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="23.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="28.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="80.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="65.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="32.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0"/>
@@ -13653,17 +15844,17 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
+      <c r="A4" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>362</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>363</v>
       </c>
     </row>
@@ -13671,13 +15862,13 @@
       <c r="A5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>366</v>
       </c>
       <c r="E5" s="0"/>
@@ -13685,23 +15876,23 @@
     <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>371</v>
       </c>
       <c r="E7" s="0"/>
@@ -13710,7 +15901,7 @@
       <c r="A8" s="39"/>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>372</v>
       </c>
       <c r="E8" s="0"/>
@@ -13718,10 +15909,10 @@
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>374</v>
       </c>
       <c r="E9" s="0"/>
@@ -13729,10 +15920,10 @@
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39"/>
       <c r="B10" s="0"/>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>376</v>
       </c>
       <c r="E10" s="0"/>
@@ -13740,10 +15931,10 @@
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
       <c r="B11" s="0"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>378</v>
       </c>
       <c r="E11" s="0"/>
@@ -13751,10 +15942,10 @@
     <row r="12" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>380</v>
       </c>
       <c r="E12" s="0"/>
@@ -13762,23 +15953,23 @@
     <row r="13" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="38" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="0"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>385</v>
       </c>
       <c r="E14" s="0"/>
@@ -13787,11 +15978,11 @@
       <c r="A15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>386</v>
       </c>
       <c r="C15" s="0"/>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>387</v>
       </c>
       <c r="E15" s="0"/>
@@ -13799,23 +15990,23 @@
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="B16" s="0"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="0"/>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>392</v>
       </c>
       <c r="E17" s="0"/>
@@ -13823,10 +16014,10 @@
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="B18" s="0"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>394</v>
       </c>
       <c r="E18" s="0"/>
@@ -13835,13 +16026,13 @@
       <c r="A19" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>397</v>
       </c>
       <c r="E19" s="0"/>
@@ -13849,10 +16040,10 @@
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>399</v>
       </c>
       <c r="E20" s="0"/>
@@ -13860,10 +16051,10 @@
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>401</v>
       </c>
       <c r="E21" s="0"/>
@@ -13871,1123 +16062,1123 @@
     <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="0"/>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="36" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="36" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>410</v>
       </c>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="36" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>415</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="36" t="s">
         <v>417</v>
       </c>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="36" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="36" t="s">
         <v>422</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>424</v>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="36" t="s">
         <v>426</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="36" t="s">
         <v>428</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="36" t="s">
         <v>430</v>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>435</v>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>444</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="36" t="s">
         <v>446</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="36" t="s">
         <v>448</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="36" t="s">
         <v>450</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="36" t="s">
         <v>452</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="36" t="s">
         <v>458</v>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="36" t="s">
         <v>460</v>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="36" t="s">
         <v>462</v>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="36" t="s">
         <v>464</v>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="36" t="s">
         <v>466</v>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="36" t="s">
         <v>468</v>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="36" t="s">
         <v>470</v>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="36" t="s">
         <v>472</v>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="36" t="s">
         <v>474</v>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="36" t="s">
         <v>476</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="36" t="s">
         <v>478</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="36" t="s">
         <v>480</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="36" t="s">
         <v>482</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="36" t="s">
         <v>484</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="36" t="s">
         <v>486</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="36" t="s">
         <v>488</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="36" t="s">
         <v>490</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="36" t="s">
         <v>493</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="36" t="s">
         <v>495</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="36" t="s">
         <v>497</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="36" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="36" t="s">
         <v>502</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="36" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="36" t="s">
         <v>507</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="36" t="s">
         <v>509</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="36" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>514</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="36" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="36" t="s">
         <v>519</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>521</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="36" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="36" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>529</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="36" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="36" t="s">
         <v>535</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="38" t="s">
         <v>537</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="38" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="36" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>545</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="36" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="36" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="36" t="s">
         <v>556</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="36" t="s">
         <v>558</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="36" t="s">
         <v>560</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E89" s="36" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="36" t="s">
         <v>565</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="36" t="s">
         <v>567</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="36" t="s">
         <v>569</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="36" t="s">
         <v>571</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="36" t="s">
         <v>573</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="36" t="s">
         <v>576</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="36" t="s">
         <v>578</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="36" t="s">
         <v>580</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0"/>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="36" t="s">
         <v>582</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0"/>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="E99" s="36" t="s">
+      <c r="E99" s="38" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0"/>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="36" t="s">
         <v>587</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0"/>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="36" t="s">
         <v>589</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0"/>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="36" t="s">
         <v>591</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0"/>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="36" t="s">
         <v>593</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="36" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0"/>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="36" t="s">
         <v>596</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0"/>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="36" t="s">
         <v>598</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0"/>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="36" t="s">
         <v>600</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="36" t="s">
         <v>602</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="D108" s="35" t="s">
+      <c r="D108" s="36" t="s">
         <v>604</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0"/>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="36" t="s">
         <v>606</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0"/>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="38" t="s">
         <v>608</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0"/>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="38" t="s">
         <v>610</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0"/>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="36" t="s">
         <v>611</v>
       </c>
-      <c r="D112" s="35" t="s">
+      <c r="D112" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="36" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="36" t="s">
         <v>614</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="36" t="s">
         <v>616</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0"/>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="36" t="s">
         <v>618</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0"/>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="36" t="s">
         <v>620</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0"/>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="36" t="s">
         <v>621</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="36" t="s">
         <v>622</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="36" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0"/>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="36" t="s">
         <v>624</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="36" t="s">
         <v>625</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0"/>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="36" t="s">
         <v>626</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="36" t="s">
         <v>627</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="36" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0"/>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="36" t="s">
         <v>630</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0"/>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="36" t="s">
         <v>631</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="36" t="s">
         <v>632</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0"/>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="36" t="s">
         <v>634</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="36" t="s">
         <v>635</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="36" t="s">
         <v>636</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0"/>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="36" t="s">
         <v>637</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0"/>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="36" t="s">
         <v>639</v>
       </c>
-      <c r="E124" s="35" t="s">
+      <c r="E124" s="36" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="36" t="s">
         <v>643</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0"/>
-      <c r="C126" s="35" t="s">
+      <c r="C126" s="36" t="s">
         <v>644</v>
       </c>
-      <c r="D126" s="35" t="s">
+      <c r="D126" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="E126" s="35" t="s">
+      <c r="E126" s="36" t="s">
         <v>646</v>
       </c>
     </row>
@@ -15002,135 +17193,135 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0"/>
       <c r="C128" s="0"/>
-      <c r="D128" s="36"/>
+      <c r="D128" s="38"/>
       <c r="E128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="D129" s="36" t="s">
+      <c r="D129" s="38" t="s">
         <v>650</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="38" t="s">
         <v>652</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0"/>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="36" t="s">
         <v>653</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="D132" s="35" t="s">
+      <c r="D132" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="E132" s="35" t="s">
+      <c r="E132" s="36" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="36" t="s">
         <v>658</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E133" s="36" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="36" t="s">
         <v>661</v>
       </c>
-      <c r="E134" s="35" t="s">
+      <c r="E134" s="36" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="38" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="36" t="s">
         <v>667</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="36" t="s">
         <v>669</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="36" t="s">
         <v>670</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="36" t="s">
         <v>671</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="D139" s="35" t="s">
+      <c r="D139" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="E139" s="35" t="s">
+      <c r="E139" s="36" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="36" t="s">
         <v>675</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="36" t="s">
         <v>676</v>
       </c>
-      <c r="E140" s="35" t="s">
+      <c r="E140" s="36" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="D141" s="35" t="s">
+      <c r="D141" s="36" t="s">
         <v>679</v>
       </c>
     </row>
@@ -15157,41 +17348,41 @@
   </sheetPr>
   <dimension ref="1:99"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="41" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="81.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="68.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="37" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="81.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="68.9183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="35" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0"/>
@@ -16213,210 +18404,210 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="63.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>685</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>692</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>695</v>
       </c>
       <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="394.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>696</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>697</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>701</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>702</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>703</v>
       </c>
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>704</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>705</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>707</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>708</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="36" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>710</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>711</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>713</v>
       </c>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>715</v>
       </c>
       <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>716</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>717</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="36" t="s">
         <v>720</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="36" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E24" s="0"/>
@@ -16424,27 +18615,27 @@
     <row r="25" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>725</v>
       </c>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>726</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>727</v>
       </c>
       <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="517.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>728</v>
       </c>
       <c r="C27" s="43"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="36" t="s">
         <v>729</v>
       </c>
       <c r="E27" s="44" t="s">
@@ -16454,7 +18645,7 @@
     <row r="28" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>731</v>
       </c>
       <c r="E28" s="44" t="s">
@@ -16462,79 +18653,79 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>733</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>734</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="36" t="s">
         <v>735</v>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>737</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="36" t="s">
         <v>740</v>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="456.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>741</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="36" t="s">
         <v>742</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>744</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>747</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="36" t="s">
         <v>748</v>
       </c>
       <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>747</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>749</v>
       </c>
       <c r="E35" s="0"/>
@@ -16542,110 +18733,110 @@
     <row r="36" customFormat="false" ht="296.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>752</v>
       </c>
       <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>753</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>754</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="87.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>755</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="36" t="s">
         <v>756</v>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>757</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="36" t="s">
         <v>758</v>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="36" t="s">
         <v>760</v>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>761</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="36" t="s">
         <v>762</v>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="370.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="36" t="s">
         <v>764</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="272.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>766</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="36" t="s">
         <v>767</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="36" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="36" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="36" t="s">
         <v>772</v>
       </c>
       <c r="D46" s="0"/>
@@ -16653,42 +18844,42 @@
     </row>
     <row r="47" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>773</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="36" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="36" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="480.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="36" t="s">
         <v>779</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="36" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="36" t="s">
         <v>781</v>
       </c>
       <c r="E50" s="45" t="s">
@@ -16696,544 +18887,544 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="36" t="s">
         <v>783</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="36" t="s">
         <v>784</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="36" t="s">
         <v>785</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="36" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="36" t="s">
         <v>787</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="36" t="s">
         <v>788</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="38" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="443.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>790</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="36" t="s">
         <v>791</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="38" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="36" t="s">
         <v>793</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="36" t="s">
         <v>794</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="36" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0"/>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="36" t="s">
         <v>797</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="36" t="s">
         <v>798</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="36" t="s">
         <v>799</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="36" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="36" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="419.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="36" t="s">
         <v>804</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="36" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="36" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="468.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="36" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="36" t="s">
         <v>810</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>811</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="36" t="s">
         <v>813</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="358" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0"/>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="36" t="s">
         <v>815</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="36" t="s">
         <v>817</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="36" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="36" t="s">
         <v>819</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="38" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="112.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="36" t="s">
         <v>821</v>
       </c>
       <c r="C66" s="0"/>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="36" t="s">
         <v>822</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="247.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="36" t="s">
         <v>824</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0"/>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>825</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="36" t="s">
         <v>826</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="36" t="s">
         <v>828</v>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="186.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="36" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>833</v>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="36" t="s">
         <v>835</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0"/>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>836</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>837</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="100.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>838</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="36" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>842</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="345.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>843</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="36" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>846</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>847</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="36" t="s">
         <v>849</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="36" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="75.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>852</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="38" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="36" t="s">
         <v>854</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>855</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="36" t="s">
         <v>857</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="36" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="198.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="36" t="s">
         <v>860</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="36" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="36" t="s">
         <v>863</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="36" t="s">
         <v>864</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="36" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="36" t="s">
         <v>866</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="36" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="36" t="s">
         <v>870</v>
       </c>
       <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="222.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="36" t="s">
         <v>871</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="36" t="s">
         <v>872</v>
       </c>
-      <c r="E86" s="35" t="s">
+      <c r="E86" s="36" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="333.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="36" t="s">
         <v>874</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="36" t="s">
         <v>875</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="38" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="210.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0"/>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="36" t="s">
         <v>877</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="36" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0"/>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="38" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0"/>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="36" t="s">
         <v>883</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="36" t="s">
         <v>884</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="36" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0"/>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="36" t="s">
         <v>886</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="36" t="s">
         <v>887</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="36" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="493.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0"/>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="36" t="s">
         <v>889</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="36" t="s">
         <v>890</v>
       </c>
-      <c r="E92" s="35" t="s">
+      <c r="E92" s="36" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="136.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0"/>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="36" t="s">
         <v>892</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="36" t="s">
         <v>893</v>
       </c>
       <c r="E93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="321.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="288.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="36" t="s">
         <v>894</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="36" t="s">
         <v>895</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="36" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="259.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0"/>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="38" t="s">
         <v>897</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="36" t="s">
         <v>898</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="36" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="235.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="38" t="s">
         <v>900</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="36" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0"/>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="36" t="s">
         <v>904</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="36" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="36" t="s">
         <v>906</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="36" t="s">
         <v>907</v>
       </c>
       <c r="E98" s="44" t="s">
@@ -17241,11 +19432,105 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="431.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="36" t="s">
         <v>909</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="36" t="s">
         <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:F9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="5.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="65.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="49.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="20.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="36" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>911</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="36" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="926">
   <si>
     <t>Sr No</t>
   </si>
@@ -9899,6 +9899,36 @@
   <si>
     <t>Including Other Makefiles</t>
   </si>
+  <si>
+    <t>How towrite simple make</t>
+  </si>
+  <si>
+    <t>Targets and Prerequisites</t>
+  </si>
+  <si>
+    <t>
+target: prereq1 prereq2
+    commands
+</t>
+  </si>
+  <si>
+    <t>Dependency Checking</t>
+  </si>
+  <si>
+    <t>
+make examines -lfl. 
+- The -l option to gcc indicates a system library that must be linked into the application. 
+- The actual library name indicated by "fl" is libfl.a. GNU make includes special support for this syntax. 
+- When a prerequisite of the form l&lt;NAME&gt; is seen, make searches for a file of the form libNAME.so; if no match is found, it then searches for libNAME.a. 
+- Here make finds /usr/lib/libfl.a and proceeds with the final action, linking.
+</t>
+  </si>
+  <si>
+    <t>
+Target: prereq1 prereq2 -lfl
+    gcc prereq1 prereq2 -lfl -o target
+</t>
+  </si>
 </sst>
 </file>
 
@@ -9907,7 +9937,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10003,11 +10033,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10082,7 +10107,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10264,10 +10289,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19455,10 +19476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19472,7 +19493,10 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="36" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
         <v>71</v>
       </c>
@@ -19492,7 +19516,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="n">
         <v>1</v>
       </c>
@@ -19506,7 +19531,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="n">
         <v>2</v>
       </c>
@@ -19524,13 +19549,38 @@
       <c r="D8" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="38" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="36" t="s">
         <v>919</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/short_notes.xlsx
+++ b/short_notes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="929">
   <si>
     <t>Sr No</t>
   </si>
@@ -903,7 +903,7 @@
     int i = 10;
     int j = 20;
 }
-sachin::i &lt;&lt; endl;	// selective usage
+sachin::i &lt;&lt; endl;// selective usage
 using sachin:: i;   // selective exposure
 using namespace sachin;       // full exposure
 ---------------------------------------------------------
@@ -912,7 +912,7 @@
 }
 namespace rahul {
     int i = 222;
-    namespace dravid {	// nested namespace
+    namespace dravid {// nested namespace
         int x = 444;
     }
 }
@@ -4640,7 +4640,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• dev_t
 </t>
@@ -4650,7 +4649,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    dev_t is the type used to represent device numbers within the kernel.
 </t>
@@ -4661,7 +4659,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>•int MAJOR(dev_t dev);
 •int MINOR(dev_t dev);
@@ -4672,7 +4669,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros that extract the major and minor numbers from a device number.
 </t>
@@ -4683,7 +4679,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• dev_t MKDEV(unsigned int major, unsigned int minor);
 </t>
@@ -4693,7 +4688,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macro that builds a dev_t data item from the major and minor numbers.
 - #include &lt;linux/fs.h&gt;
@@ -4706,7 +4700,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• int register_chrdev_region(dev_t first, unsigned int count, char *name)
 • int alloc_chrdev_region(dev_t *dev, unsigned int firstminor, unsigned int count, char *name)
@@ -4718,7 +4711,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions that allow a driver to allocate and free ranges of device numbers. register_chrdev_region should be used when the desired major number is known in advance; for dynamic allocation, use alloc_chrdev_region instead.
 </t>
@@ -4729,7 +4721,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• int register_chrdev(unsigned int major, const char *name, struct file_operations *fops);
 </t>
@@ -4739,7 +4730,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The old (pre-2.6) char device registration routine. It is emulated in the 2.6 kernel but should not be used for new code. If the major number is not 0, it is used unchanged; otherwise a dynamic number is assigned for this device.
 </t>
@@ -4750,7 +4740,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• int unregister_chrdev(unsigned int major, const char *name);
 </t>
@@ -4760,7 +4749,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Function that undoes a registration made with register_chrdev. Both major andthe name string must contain the same values that were used to register the driver.
 </t>
@@ -4771,7 +4759,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>• struct file_operations;
 • struct file;
@@ -4783,7 +4770,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Three important data structures used by most device drivers. The file_operations structure holds a char driver’s methods; struct file represents an open file, and struct inode represents a file on disk.
 </t>
@@ -5076,7 +5062,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DECLARE_MUTEX(name);
 DECLARE_MUTEX_LOCKED(name);
@@ -5087,7 +5072,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Two macros for declaring and initializing a semaphore used in mutual exclusion mode.
 </t>
@@ -5098,7 +5082,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void init_MUTEX(struct semaphore *sem);
 void init_MUTEX_LOCKED(struct semaphore *sem);
@@ -5109,7 +5092,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    These two functions can be used to initialize a semaphore at runtime.
 </t>
@@ -5120,7 +5102,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void down(struct semaphore *sem);
 int down_interruptible(struct semaphore *sem);
@@ -5133,7 +5114,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Lock and unlock a semaphore. down puts the calling process into an uninterruptible sleep if need be; down_interruptible, instead, can be interrupted by a signal. down_trylock does not sleep; instead, it returns immediately if the semaphore is unavailable. Code that locks a semaphore must eventually unlock it with up.
 </t>
@@ -5144,7 +5124,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct rw_semaphore;
 init_rwsem(struct rw_semaphore *sem);
@@ -5155,7 +5134,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The reader/writer version of semaphores and the function that initializes it.
 </t>
@@ -5166,7 +5144,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void down_read(struct rw_semaphore *sem);
 int down_read_trylock(struct rw_semaphore *sem);
@@ -5178,7 +5155,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for obtaining and releasing read access to a reader/writer semaphore.
 </t>
@@ -5189,7 +5165,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void down_write(struct rw_semaphore *sem)
 int down_write_trylock(struct rw_semaphore *sem)
@@ -5202,7 +5177,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for managing write access to a reader/writer semaphore.
 #include &lt;linux/rcupdate.h&gt;
@@ -5215,7 +5189,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void rcu_read_lock;
 void rcu_read_unlock;
@@ -5226,7 +5199,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros for obtaining atomic read access to a resource protected by RCU.
 </t>
@@ -5237,7 +5209,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void call_rcu(struct rcu_head *head, void (*func)(void *arg), void *arg);
 </t>
@@ -5247,7 +5218,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Arranges for a callback to run after all processors have been scheduled and an RCU-protected resource can be safely freed.#include &lt;linux/rcupdate.h&gt;
     The include file required to use the read-copy-update (RCU) mechanism.
@@ -5259,7 +5229,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void rcu_read_lock;
 void rcu_read_unlock;
@@ -5270,7 +5239,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros for obtaining atomic read access to a resource protected by RCU.
 </t>
@@ -5286,10 +5254,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Arranges for a callback to run after all processors have been scheduled and an RCU-protected resource can be safely freed.
-#include &lt;linux/completion.h&gt;
 </t>
     </r>
     <r>
@@ -5298,7 +5264,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#include &lt;linux/completion.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DECLARE_COMPLETION(name);
 Init_completion(struct completion *c);
@@ -5310,7 +5294,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The include file describing the Linux completion mechanism, and the normal methods for initializing completions. INIT_COMPLETION should be used only to reinitialize a completion that has been previously used.
 </t>
@@ -5321,7 +5304,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void wait_for_completion(struct completion *c);
 </t>
@@ -5331,7 +5313,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Wait for a completion event to be signalled.
 </t>
@@ -5342,7 +5323,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void complete(struct completion *c);
 void complete_all(struct completion *c);
@@ -5353,7 +5333,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Signal a completion event. complete wakes, at most, one waiting thread, while complete_all wakes all waiters.
 </t>
@@ -5364,7 +5343,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void complete_and_exit(struct completion *c, long retval);
 </t>
@@ -5374,10 +5352,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Signals a completion event by calling complete and calls exit for the current thread.
-#include &lt;asm/atomic.h&gt;
 </t>
     </r>
     <r>
@@ -5386,7 +5362,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#include &lt;asm/atomic.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>atomic_t v = ATOMIC_INIT(value);
 void atomic_set(atomic_t *v, int i);
@@ -5410,7 +5404,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Atomically access integer variables. The atomic_t variables must be accessed only through these functions.
 </t>
@@ -5428,7 +5421,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>spinlock_t lock = SPIN_LOCK_UNLOCKED;
 spin_lock_init(spinlock_t *lock);
@@ -5439,7 +5431,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The include file defining the spinlock interface and the two ways of initializing locks.
 </t>
@@ -5450,7 +5441,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void spin_lock(spinlock_t *lock);
 void spin_lock_irqsave(spinlock_t *lock, unsigned long flags);
@@ -5463,7 +5453,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The various ways of locking a spinlock and, possibly, disabling interrupts.
 </t>
@@ -5474,7 +5463,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int spin_trylock(spinlock_t *lock);
 int spin_trylock_bh(spinlock_t *lock);
@@ -5485,7 +5473,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Nonspinning versions of the above functions; these return 0 in case of failure to obtain the lock, nonzero otherwise.
 </t>
@@ -5496,7 +5483,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void spin_unlock(spinlock_t *lock);
 void spin_unlock_irqrestore(spinlock_t *lock, unsigned long flags);
@@ -5509,7 +5495,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The corresponding ways of releasing a spinlock.
 </t>
@@ -5520,7 +5505,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>rwlock_t lock = RW_LOCK_UNLOCKED
 rwlock_init(rwlock_t *lock);
@@ -5531,7 +5515,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The two ways of initializing reader/writer locks.
 </t>
@@ -5542,7 +5525,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void read_lock(rwlock_t *lock);
 void read_lock_irqsave(rwlock_t *lock, unsigned long flags);
@@ -5555,7 +5537,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for obtaining read access to a reader/writer lock.
 </t>
@@ -5566,7 +5547,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void read_unlock(rwlock_t *lock);
 void read_unlock_irqrestore(rwlock_t *lock, unsigned long flags);
@@ -5579,7 +5559,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for releasing read access to a reader/writer spinlock.
 </t>
@@ -5590,7 +5569,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void write_lock(rwlock_t *lock);
 void write_lock_irqsave(rwlock_t *lock, unsigned long flags);
@@ -5603,7 +5581,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for obtaining write access to a reader/writer lock.
 </t>
@@ -5622,10 +5599,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for releasing write access to a reader/writer spinlock.
-#include &lt;linux/seqlock.h&gt;
 </t>
     </r>
     <r>
@@ -5634,7 +5609,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#include &lt;linux/seqlock.h&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>seqlock_t lock = SEQLOCK_UNLOCKED;
 seqlock_init(seqlock_t *lock);
@@ -5645,7 +5638,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The include file defining seqlocks and the two ways of initializing them.
 </t>
@@ -5656,7 +5648,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned int read_seqbegin(seqlock_t *lock);
 unsigned int read_seqbegin_irqsave(seqlock_t *lock, unsigned long flags);
@@ -5669,7 +5660,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for obtaining read access to a seqlock-protected resources.
 </t>
@@ -5680,7 +5670,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void write_seqlock(seqlock_t *lock);
 void write_seqlock_irqsave(seqlock_t *lock, unsigned long flags);
@@ -5694,7 +5683,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for obtaining write access to a seqlock-protected resource.
 </t>
@@ -5705,7 +5693,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void write_sequnlock(seqlock_t *lock);
 void write_sequnlock_irqrestore(seqlock_t *lock, unsigned long flags);
@@ -5718,9 +5705,18 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for releasing write access to a seqlock-protected resource.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>
 </t>
     </r>
   </si>
@@ -6205,7 +6201,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>_IOC_NRBITS
 _IOC_TYPEBITS
@@ -6218,7 +6213,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The number of bits available for the different bitfields of ioctl commands. There are also four macros that specify the MASK s and four that specify the SHIFT s, but they’re mainly for internal use. _IOC_SIZEBITS is an important value to check, because it changes across architectures.
 </t>
@@ -6229,7 +6223,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>_IOC_NONE
 _IOC_READ
@@ -6241,7 +6234,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The possible values for the “direction” bitfield. “Read” and “write” are different bits and can be ORed to specify read/write. The values are 0-based.
 </t>
@@ -6252,7 +6244,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>_IOC(dir,type,nr,size)
 _IO(type,nr)
@@ -6266,7 +6257,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros used to create an ioctl command.
 </t>
@@ -6277,7 +6267,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>_IOC_DIR(nr)
 _IOC_TYPE(nr)
@@ -6290,7 +6279,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros used to decode a command. In particular, _IOC_TYPE(nr) is an OR combination of _IOC_READ and _IOC_WRITE .
 </t>
@@ -6308,7 +6296,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void wake_up(struct wait_queue **q);
 void wake_up_interruptible(struct wait_queue **q);
@@ -6324,7 +6311,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Wake processes that are sleeping on the queue q . The _interruptible form wakes only interruptible processes. Normally, only one exclusive waiter is awakened, but that behavior can be changed with the _nr or _all forms. The _sync version does not reschedule the CPU before returning.
 #include &lt;linux/sched.h&gt;
@@ -6336,7 +6322,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>set_current_state(int state);
 </t>
@@ -6346,7 +6331,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Sets the execution state of the current process. TASK_RUNNING means it is ready to run, while the sleep states are TASK_INTERRUPTIBLE and TASK_UNINTERRUPTIBLE .
 </t>
@@ -6357,7 +6341,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void schedule(void);
 </t>
@@ -6367,7 +6350,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Selects a runnable process from the run queue. The chosen process can be current or a different one. access_ok first, while the qualified versions (__put_user and __get_user) assume that access_ok has already been called.
 #include &lt;linux/capability.h&gt;
@@ -6380,7 +6362,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt capable(int capability);
 </t>
@@ -6390,7 +6371,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns nonzero if the process has the given capability.
 #include &lt;linux/sched.h&gt;
@@ -6402,7 +6382,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>set_current_state(int state);
 </t>
@@ -6412,7 +6391,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Sets the execution state of the current process. TASK_RUNNING means it is ready to  run, while the sleep states are TASK_INTERRUPTIBLE and TASK_UNINTERRUPTIBLE .
 </t>
@@ -6423,7 +6401,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void schedule(void);
 </t>
@@ -6433,7 +6410,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Selects a runnable process from the run queue. The chosen process can be current or a different one.
 </t>
@@ -6451,7 +6427,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int access_ok(int type, const void *addr, unsigned long size);
 </t>
@@ -6461,7 +6436,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Checks that a pointer to user space is actually usable. access_ok returns a non-zero value if the access should be allowed.
 </t>
@@ -6472,7 +6446,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>VERIFY_READ
 VERIFY_WRITE
@@ -6483,7 +6456,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The possible values for the type argument in access_ok. VERIFY_WRITE is a superset of VERIFY_READ .
 #include &lt;asm/uaccess.h&gt;
@@ -6495,7 +6467,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int put_user(datum,ptr);
 int get_user(local,ptr);
@@ -6508,7 +6479,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros used to store or retrieve a datum to or from user space. The number of bytes being transferred depends on sizeof(*ptr) . The regular versions call access_ok first, while the qualified versions (__put_user and __get_user) assume that access_ok has already been called.
 #include &lt;linux/capability.h&gt;
@@ -6521,7 +6491,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int capable(int capability);
 </t>
@@ -6531,7 +6500,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns nonzero if the process has the given capability.
 </t>
@@ -6550,7 +6518,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>typedef struct { /* ... */ } wait_queue_head_t;
 void init_waitqueue_head(wait_queue_head_t *queue);
@@ -6563,7 +6530,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The defined type for Linux wait queues. A wait_queue_head_t must be explicitly initialized with either init_waitqueue_head at runtime or DECLARE_WAIT_QUEUE_HEAD at compile time.
 </t>
@@ -6575,7 +6541,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void wait_event(wait_queue_head_t q, int condition);
 int wait_event_interruptible(wait_queue_head_t q, int condition);
@@ -6589,7 +6554,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Cause the process to sleep on the given queue until the given condition evaluates to a true value.
 </t>
@@ -6616,7 +6580,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>volatile unsigned long jiffies
 u64 jiffies_64
@@ -6627,7 +6590,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The jiffies_64 variable is incremented once for each clock tick; thus, it’s incremented HZ times per second. Kernel code most often refers to jiffies , which is the same as jiffies_64 on 64-bit platforms and the least significant half of it on 32-bit platforms.
 </t>
@@ -6638,7 +6600,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int time_after(unsigned long a, unsigned long b);
 int time_before(unsigned long a, unsigned long b);
@@ -6651,7 +6612,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    These Boolean expressions compare jiffies in a safe way, without problems in case of counter overflow and without the need to access jiffies_64 .
 </t>
@@ -6662,7 +6622,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>u64 get_jiffies_64(void);
 </t>
@@ -6672,7 +6631,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Retrieves jiffies_64 without race conditions.
 #include &lt;linux/time.h&gt;
@@ -6684,7 +6642,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned long timespec_to_jiffies(struct timespec *value);
 void jiffies_to_timespec(unsigned long jiffies, struct timespec *value);
@@ -6697,7 +6654,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Converts time representations between jiffies and other representations.
 </t>
@@ -6715,7 +6671,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>cycles_t get_cycles(void);
 </t>
@@ -6725,7 +6680,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns the timestamp counter in a platform-independent way. If the CPU offers no timestamp feature, 0 is returned.
 #include &lt;linux/time.h&gt;
@@ -6737,7 +6691,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned long mktime(year, mon, day, h, m, s);
 </t>
@@ -6747,7 +6700,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns the number of seconds since the Epoch, based on the six unsigned int arguments.
 </t>
@@ -6758,7 +6710,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void do_gettimeofday(struct timeval *tv);
 </t>
@@ -6768,7 +6719,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns the current time, as seconds and microseconds since the Epoch, with the best resolution the hardware can offer. On most platforms the resolution is one microsecond or better, although some platforms offer only jiffies resolution.
 </t>
@@ -6779,7 +6729,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct timespec current_kernel_time(void);
 </t>
@@ -6789,7 +6738,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns the current time with the resolution of one jiffy.
 #include &lt;asm/msr.h&gt;
@@ -6801,7 +6749,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>rdtsc(low32,high32);
 rdtscl(low32);
@@ -6813,7 +6760,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    x86-specific macros to read the timestamp counter. They read it as two 32-bit halves, read only the lower half, or read all of it into a long long variable.
 </t>
@@ -6834,7 +6780,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>long wait_event_interruptible_timeout(wait_queue_head_t *q, condition, signed long timeout);
 </t>
@@ -6844,7 +6789,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Puts the current process to sleep on the wait queue, installing a timeout value expressed in jiffies. Use schedule_timeout (below) for noninterruptible sleeps.
 #include &lt;linux/sched.h&gt;
@@ -6856,7 +6800,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>signed long schedule_timeout(signed long timeout);
 </t>
@@ -6866,7 +6809,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Calls the scheduler after ensuring that the current process is awakened at timeout expiration. The caller must invoke set_current_state first to put itself in an interruptible or noninterruptible sleep state.
 #include &lt;linux/delay.h&gt;
@@ -6878,7 +6820,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void ndelay(unsigned long nsecs);
 void udelay(unsigned long usecs);
@@ -6890,7 +6831,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Introduces delays of an integer number of nanoseconds, microseconds, and milliseconds. The delay achieved is at least the requested value, but it can be more. The argument to each function must not exceed a platform-specific limit (usually a few thousands).
 </t>
@@ -6901,7 +6841,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void msleep(unsigned int millisecs);
 unsigned long msleep_interruptible(unsigned int millisecs);
@@ -6913,7 +6852,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Puts the process to sleep for the given number of milliseconds (or seconds, in the case of ssleep).
 </t>
@@ -6932,7 +6870,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DECLARE_TASKLET(name, func, data);
 DECLARE_TASKLET_DISABLED(name, func, data);
@@ -6944,7 +6881,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The first two macros declare a tasklet structure, while the tasklet_init function initializes a tasklet structure that has been obtained by allocation or other means. The second DECLARE macro marks the tasklet as disabled.
 </t>
@@ -6955,7 +6891,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void tasklet_disable(struct tasklet_struct *t);
 void tasklet_disable_nosync(struct tasklet_struct *t);
@@ -6967,7 +6902,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Disables and reenables a tasklet. Each disable must be matched with an enable (you can disable the tasklet even if it’s already disabled). The function tasklet_disable waits for the tasklet to terminate if it is running on another CPU. The nosync version doesn’t take this extra step.
 </t>
@@ -6978,7 +6912,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void tasklet_schedule(struct tasklet_struct *t);
 void tasklet_hi_schedule(struct tasklet_struct *t);
@@ -6989,7 +6922,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Schedules a tasklet to run, either as a “normal” tasklet or a high-priority one. When soft interrupts are executed, high-priority tasklets are dealt with first, while normal tasklets run last.
 </t>
@@ -7000,7 +6932,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void tasklet_kill(struct tasklet_struct *t);
 </t>
@@ -7010,7 +6941,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Removes the tasklet from the list of active ones, if it’s scheduled to run. Like tasklet_disable, the function may block on SMP systems waiting for the tasklet to terminate if it’s currently running on another CPU.
 </t>
@@ -7031,7 +6961,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int in_interrupt(void);
 int in_atomic(void);
@@ -7042,7 +6971,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns a Boolean value telling whether the calling code is executing in interrupt context or atomic context. Interrupt context is outside of a process context, either during hardware or software interrupt processing. Atomic context is when you can’t schedule either an interrupt context or a process’s context with a spinlock held.
 #include &lt;linux/timer.h&gt;
@@ -7054,7 +6982,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void init_timer(struct timer_list * timer);
 struct timer_list TIMER_INITIALIZER(_function, _expires, _data);
@@ -7065,7 +6992,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    This function and the static declaration of the timer structure are the two ways to initialize a timer_list data structure.
 </t>
@@ -7076,7 +7002,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void add_timer(struct timer_list * timer);
 </t>
@@ -7086,7 +7011,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Registers the timer structure to run on the current CPU.
 </t>
@@ -7097,7 +7021,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int mod_timer(struct timer_list *timer, unsigned long expires);
 </t>
@@ -7107,7 +7030,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Changes the expiration time of an already scheduled timer structure. It can also act as an alternative to add_timer.
 </t>
@@ -7118,7 +7040,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int timer_pending(struct timer_list * timer);
 </t>
@@ -7128,7 +7049,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macro that returns a Boolean value stating whether the timer structure is already registered to run.
 </t>
@@ -7139,7 +7059,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void del_timer(struct timer_list * timer);
 void del_timer_sync(struct timer_list * timer);
@@ -7150,7 +7069,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Removes a timer from the list of active timers. The latter function ensures that the timer is not currently running on another CPU.
 </t>
@@ -7169,7 +7087,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct workqueue_struct;
 struct work_struct;
@@ -7180,7 +7097,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The structures representing a workqueue and a work entry, respectively.
 </t>
@@ -7191,7 +7107,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct workqueue_struct *create_workqueue(const char *name);
 struct workqueue_struct *create_singlethread_workqueue(const char *name);
@@ -7203,7 +7118,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for creating and destroying workqueues. A call to create_workqueue creates a queue with a worker thread on each processor in the system;instead, create_single thread_workqueue creates a workqueue with a single worker process.
 </t>
@@ -7214,7 +7128,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DECLARE_WORK(name, void (*function)(void *), void *data);
 INIT_WORK(struct work_struct *work, void (*function)(void *), void *data);
@@ -7226,7 +7139,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Macros that declare and initialize workqueue entries.
 i</t>
@@ -7237,7 +7149,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt queue_work(struct workqueue_struct *queue, struct work_struct *work);
 int queue_delayed_work(struct workqueue_struct *queue, struct work_struct *work, unsigned long delay);
@@ -7248,7 +7159,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions that queue work for execution from a workqueue.
 i</t>
@@ -7259,7 +7169,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt cancel_delayed_work(struct work_struct *work);
 void flush_workqueue(struct workqueue_struct *queue);
@@ -7270,7 +7179,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Use cancel_delayed_work to remove an entry from a workqueue; flush_workqueue ensures that no workqueue entries are running anywhere in the system.
 i</t>
@@ -7281,7 +7189,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt schedule_work(struct work_struct *work);
 int schedule_delayed_work(struct work_struct *work, unsigned long delay);
@@ -7293,7 +7200,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions for working with the shared workqueue.
 </t>
@@ -7394,7 +7300,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *kmalloc(size_t size, int flags);
 void kfree(void *obj);
@@ -7405,7 +7310,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   The most frequently used interface to memory allocation.
 #include &lt;linux/mm.h&gt;
@@ -7417,7 +7321,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>GFP_USER, GFP_KERNEL, GFP_NOFS, GFP_NOIO, GFP_ATOMIC
  </t>
@@ -7427,7 +7330,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Flags that control how memory allocations are performed, from the least restrictive to the most. The GFP_USER and GFP_KERNEL priorities allow the current process to be put to sleep to satisfy the request. GFP_NOFS and GFP_NOIO disable filesystem operations and all I/O operations, respectively, while GFP_ATOMIC allocations can not sleep at all.
 </t>
@@ -7438,7 +7340,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>__GFP_DMA, __GFP_HIGHMEM, __GFP_COLD, __GFP_NOWARN, __GFP_HIGH, __GFP_REPEAT, __GFP_NOFAIL, __GFP_NORETRY
  </t>
@@ -7448,7 +7349,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   These flags modify the kernel’s behavior when allocating memory.
 #include &lt;linux/malloc.h&gt;
@@ -7460,7 +7360,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>kmem_cache_t *kmem_cache_create(char *name, size_t size, size_t offset, unsigned long flags, constructor( ), destructor( ));
 int kmem_cache_destroy(kmem_cache_t *cache);
@@ -7471,7 +7370,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Create and destroy a slab cache. The cache can be used to allocate several objects of the same size.
 </t>
@@ -7482,7 +7380,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>SLAB_NO_REAP, SLAB_HWCACHE_ALIGN, SLAB_CACHE_DMA, 
  </t>
@@ -7492,7 +7389,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Flags that can be specified while creating a cache.
 </t>
@@ -7503,7 +7399,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>SLAB_CTOR_ATOMIC, SLAB_CTOR_CONSTRUCTOR
  </t>
@@ -7513,7 +7408,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Flags that the allocator can pass to the constructor and the destructor functions.
 </t>
@@ -7524,7 +7418,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *kmem_cache_alloc(kmem_cache_t *cache, int flags);
 void kmem_cache_free(kmem_cache_t *cache, const void *obj);
@@ -7535,7 +7428,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Allocate and release a single object from the cache.
 </t>
@@ -7546,7 +7438,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>/proc/slabinfo
 </t>
@@ -7556,7 +7447,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    A virtual file containing statistics on slab cache usage.
 </t>
@@ -7574,7 +7464,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>mempool_t *mempool_create(int min_nr, mempool_alloc_t *alloc_fn, mempool_free_t *free_fn, void *data);
 void mempool_destroy(mempool_t *pool);
@@ -7585,7 +7474,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions for the creation of memory pools, which try to avoid memory allocation failures by keeping an “emergency list” of allocated items.
 </t>
@@ -7596,7 +7484,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *mempool_alloc(mempool_t *pool, int gfp_mask);
 void mempool_free(void *element, mempool_t *pool);
@@ -7607,7 +7494,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions for allocating items from (and returning them to) memory pools.
 </t>
@@ -7618,7 +7504,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned long get_zeroed_page(int flags);
 unsigned long __get_free_page(int flags);
@@ -7630,7 +7515,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   The page-oriented allocation functions. get_zeroed_page returns a single, zerofilled page. All the other versions of the call do not initialize the contents of the returned page(s).
 </t>
@@ -7641,7 +7525,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int get_order(unsigned long size);
 </t>
@@ -7651,7 +7534,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Returns the allocation order associated to size in the current platform, according to PAGE_SIZE . The argument must be a power of two, and the return value is at least 0 .
 </t>
@@ -7662,7 +7544,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void free_page(unsigned long addr);
 void free_pages(unsigned long addr, unsigned long order);
@@ -7673,7 +7554,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that release page-oriented allocations.
 </t>
@@ -7684,7 +7564,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct page *alloc_pages_node(int nid, unsigned int flags, unsigned int order);
 struct page *alloc_pages(unsigned int flags, unsigned int order);
@@ -7696,7 +7575,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   All variants of the lowest-level page allocator in the Linux kernel.
 </t>
@@ -7707,7 +7585,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Void __free_page(struct page *page);
 void __free_pages(struct page *page, unsigned int order);
@@ -7720,7 +7597,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Various ways of freeing pages allocated with one of the forms of alloc_page.
 </t>
@@ -7738,7 +7614,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void * vmalloc(unsigned long size);
 void vfree(void * addr);
@@ -7749,9 +7624,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#include &lt;asm/io.h&gt;
+      </rPr>
+      <t>
+#include &lt;asm/io.h&gt;
 </t>
     </r>
     <r>
@@ -7760,7 +7635,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void * ioremap(unsigned long offset, unsigned long size);
 void iounmap(void *addr);
@@ -7771,7 +7645,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that allocate or free a contiguous virtual address space. ioremap accesses physical memory through virtual addresses, while vmalloc allocates free pages. Regions mapped with ioremap are freed with iounmap, while pages obtained from vmalloc are released with vfree.
 #include &lt;linux/percpu.h&gt;
@@ -7783,7 +7656,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DEFINE_PER_CPU(type, name);
 DECLARE_PER_CPU(type, name);
@@ -7794,7 +7666,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Macros that define and declare per-CPU variables.
 </t>
@@ -7805,7 +7676,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>per_cpu(variable, int cpu_id)
 get_cpu_var(variable)
@@ -7817,7 +7687,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Macros that provide access to statically declared per-CPU variables.
 </t>
@@ -7828,7 +7697,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *alloc_percpu(type);
 void *__alloc_percpu(size_t size, size_t align);
@@ -7840,7 +7708,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that perform runtime allocation and freeing of per-CPU variables.
 i</t>
@@ -7851,7 +7718,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt get_cpu( );
 void put_cpu( );
@@ -7863,7 +7729,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   get_cpu obtains a reference to the current processor (therefore, preventing preemption and movement to another processor) and returns the ID number of the processor; put_cpu returns that reference. To access a dynamically allocated per CPU variable, use per_cpu_ptr with the ID of the CPU whose version should be accessed. Manipulations of the current CPU’s version of a dynamic, per-CPU variable should probably be surrounded by calls to get_cpu and put_cpu.
 </t>
@@ -7881,7 +7746,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *alloc_bootmem(unsigned long size);
 void *alloc_bootmem_low(unsigned long size);
@@ -7895,7 +7759,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions (which can be used only by drivers directly linked into the kernel) that perform allocation and freeing of memory at system bootstrap time.
 </t>
@@ -7913,7 +7776,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void barrier(void)
  </t>
@@ -7923,7 +7785,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   This “software” memory barrier requests the compiler to consider all memory volatile across this instruction.
 #include &lt;asm/system.h&gt;
@@ -7935,7 +7796,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void rmb(void);
 void read_barrier_depends(void);
@@ -7948,7 +7808,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Hardware memory barriers. They request the CPU (and the compiler) to check point all memory reads, writes, or both across this instruction.
 #include &lt;asm/io.h&gt;
@@ -7960,7 +7819,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned inb(unsigned port);
 void outb(unsigned char byte, unsigned port);
@@ -7975,7 +7833,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that are used to read and write I/O ports. They can also be called by user-space programs, provided they have the right privileges to access ports.
 </t>
@@ -7986,7 +7843,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned inb_p(unsigned port);
 </t>
@@ -7996,7 +7852,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>...
     If a small delay is needed after an I/O operation, you can use the six pausing counterparts of the functions introduced in the previous entry; these pausing functions have names ending in _p.
@@ -8008,7 +7863,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void insb(unsigned port, void *addr, unsigned long count);
 void outsb(unsigned port, void *addr, unsigned long count);
@@ -8023,7 +7877,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   The “string functions” are optimized to transfer data from an input port to a region of memory, or the other way around. Such transfers are performed by reading or writing the same port count times.
 </t>
@@ -8041,7 +7894,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct resource *request_region(unsigned long start, unsigned long len, char *name);
 void release_region(unsigned long start, unsigned long len);
@@ -8053,7 +7905,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Resource allocators for I/O ports. The (deprecated) check function returns 0 for success and less than 0 in case of error.
 </t>
@@ -8064,7 +7915,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct resource *request_mem_region(unsigned long start, unsigned long len, char *name);
 void release_mem_region(unsigned long start, unsigned long len);
@@ -8076,7 +7926,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that handle resource allocation for memory regions.
 #include &lt;asm/io.h&gt;
@@ -8088,7 +7937,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *ioremap(unsigned long phys_addr, unsigned long size);
 void *ioremap_nocache(unsigned long phys_addr, unsigned long size);
@@ -8100,7 +7948,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   ioremap remaps a physical address range into the processor’s virtual address space, making it available to the kernel. iounmap frees the mapping when it is no longer needed.
 #include &lt;asm/io.h&gt;
@@ -8112,7 +7959,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned int ioread8(void *addr);
 unsigned int ioread16(void *addr);
@@ -8127,7 +7973,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Accessor functions that are used to work with I/O memory.
 </t>
@@ -8138,7 +7983,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void ioread8_rep(void *addr, void *buf, unsigned long count);
 void ioread16_rep(void *addr, void *buf, unsigned long count);
@@ -8153,7 +7997,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   “Repeating” versions of the I/O memory primitives.
 </t>
@@ -8170,7 +8013,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned readb(address);
 unsigned readw(address);
@@ -8188,7 +8030,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Older, type-unsafe functions for accessing I/O memory.
 </t>
@@ -8199,7 +8040,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void *ioport_map(unsigned long port, unsigned int count);
 void ioport_unmap(void *addr);
@@ -8210,7 +8050,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   A driver author that wants to treat I/O ports as if they were I/O memory may pass those ports to ioport_map. The mapping should be done (with ioport_unmap) when no longer needed.
 </t>
@@ -8285,7 +8124,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt request_irq(unsigned int irq, irqreturn_t (*handler)( ), unsigned long flags, const char *dev_name, void *dev_id);
 void free_irq(unsigned int irq, void *dev_id);
@@ -8296,7 +8134,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Calls that register and unregister an interrupt handler.
 #include &lt;linux/irq.h.h&gt;
@@ -8308,7 +8145,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt can_request_irq(unsigned int irq, unsigned long flags);
  </t>
@@ -8318,7 +8154,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   This function, available on the i386 and x86_64 architectures, returns a nonzero value if an attempt to allocate the given interrupt line succeeds.
 #include &lt;asm/signal.h&gt;
@@ -8330,7 +8165,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>SA_INTERRUPT, SA_SHIRQ, SA_SAMPLE_RANDOM
  </t>
@@ -8340,7 +8174,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Flags for request_irq. SA_INTERRUPT requests installation of a fast handler (as opposed to a slow one). SA_SHIRQ installs a shared handler, and the third flag asserts that interrupt timestamps can be used to generate system entropy.
 </t>
@@ -8351,7 +8184,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>/proc/interrupts, /proc/stat
 </t>
@@ -8361,7 +8193,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Filesystem nodes that report information about hardware interrupts and installed handlers.
 </t>
@@ -8372,7 +8203,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>unsigned long probe_irq_on(void);
 int probe_irq_off(unsigned long);
@@ -8383,7 +8213,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions used by the driver when it has to probe to determine which interrupt line is being used by a device. The result of probe_irq_on must be passed back to probe_irq_off after the interrupt has been generated. The return value of probe_irq_off is the detected interrupt number.
 </t>
@@ -8400,7 +8229,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>RQ_NONE, IRQ_HANDLED, IRQ_RETVAL(int x)
  </t>
@@ -8410,7 +8238,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   The possible return values from an interrupt handler, indicating whether an actual interrupt from the device was present.
 </t>
@@ -8421,7 +8248,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void disable_irq(int irq);
 void disable_irq_nosync(int irq);
@@ -8433,7 +8259,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   A driver can enable and disable interrupt reporting. If the hardware tries to generate an interrupt while interrupts are disabled, the interrupt is lost forever. A driver using a shared handler must not use these functions.
 </t>
@@ -8444,7 +8269,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void local_irq_save(unsigned long flags);
 void local_irq_restore(unsigned long flags);
@@ -8455,7 +8279,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Use local_irq_save to disable interrupts on the local processor and remember their previous state. The flags can be passed to local_irq_restore to restore the previous interrupt state.
 </t>
@@ -8466,7 +8289,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void local_irq_disable(void);
 void local_irq_enable(void);
@@ -8477,7 +8299,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that unconditionally disable and enable interrupts on the current processor.
 </t>
@@ -9300,7 +9121,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Kobjects
 </t>
@@ -9310,7 +9130,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>#include &lt;linux/kobject.h&gt;
 The include file containing definitions for kobjects, related structures, and functions.
@@ -9322,7 +9141,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void kobject_init(struct kobject *kobj);
 int kobject_set_name(struct kobject *kobj, const char *format, ...);
@@ -9333,7 +9151,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions for kobject initialization.
 </t>
@@ -9344,7 +9161,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct kobject *kobject_get(struct kobject *kobj);
 void kobject_put(struct kobject *kobj);
@@ -9355,7 +9171,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that manage reference counts for kobjects.
 </t>
@@ -9366,7 +9181,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>struct kobj_type;
 struct kobj_type *get_ktype(struct kobject *kobj);
@@ -9377,7 +9191,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Represents the type of structure within which a kobject is embedded. Use get_ktype to get the kobj_type associated with a given kobject.
 i</t>
@@ -9388,7 +9201,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt kobject_add(struct kobject *kobj);
 extern int kobject_register(struct kobject *kobj);
@@ -9401,7 +9213,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   kobject_add adds a kobject to the system, handling kset membership, sysfs repre sentation, and hotplug event generation. kobject_register is a convenience function that combines kobject_init and kobject_add. Use kobject_del to remove a kobject or kobject_unregister, which combines kobject_del and kobject_put.
 </t>
@@ -9412,7 +9223,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void kset_init(struct kset *kset);
 int kset_add(struct kset *kset);
@@ -9425,7 +9235,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Initialization and registration functions for ksets.
 </t>
@@ -9436,7 +9245,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Decl_subsys(name, type, hotplug_ops);
  </t>
@@ -9446,7 +9254,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   A macro that makes it easier to declare subsystems.
 </t>
@@ -9457,7 +9264,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>void subsystem_init(struct subsystem *subsys);
 int subsystem_register(struct subsystem *subsys);
@@ -9471,7 +9277,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Operations on subsystems.
 </t>
@@ -9487,7 +9292,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>#include &lt;linux/sysfs.h&gt;
 The include file containing declarations for sysfs.
@@ -9499,7 +9303,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int sysfs_create_file(struct kobject *kobj, struct attribute *attr);
 int sysfs_remove_file(struct kobject *kobj, struct attribute *attr);
@@ -9514,7 +9317,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions for creating and removing attribute files associated with a kobject.
 </t>
@@ -9525,17 +9327,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Firmware
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t>
+Firmware
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>#include &lt;linux/firmware.h&gt;
 i</t>
@@ -9546,7 +9347,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt request_firmware(const struct firmware **fw, char *name, struct device *device);
 int request_firmware_nowait(struct module *module, char *name, struct device
@@ -9559,7 +9359,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that implement the kernel firmware-loading interface.
 </t>
@@ -9576,7 +9375,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Buses, Devices, and Drivers
 int bus_register(struct bus_type *bus);
@@ -9588,7 +9386,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that perform registration and unregistration of buses in the device model.
 </t>
@@ -9599,7 +9396,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int bus_for_each_dev(struct bus_type *bus, struct device *start, void *data,
 int (*fn)(struct device *, void *));
@@ -9611,7 +9407,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that iterate over each of the devices and drivers, respectively, that are attached to the given bus.
 </t>
@@ -9622,7 +9417,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>BUS_ATTR(name, mode, show, store);
 int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
@@ -9634,7 +9428,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   The BUS_ATTR macro may be used to declare a bus_attribute structure, which may then be added and removed with the above two functions.
 </t>
@@ -9645,7 +9438,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int device_register(struct device *dev);
 void device_unregister(struct device *dev);
@@ -9656,7 +9448,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that handle device registration.
 </t>
@@ -9667,7 +9458,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DEVICE_ATTR(name, mode, show, store);
 int device_create_file(struct device *device, struct device_attribute *entry);
@@ -9679,7 +9469,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Macros and functions that deal with device attributes.
 </t>
@@ -9690,7 +9479,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int driver_register(struct device_driver *drv);
 void driver_unregister(struct device_driver *drv);
@@ -9701,7 +9489,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that register and unregister a device driver.
 </t>
@@ -9712,7 +9499,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>DRIVER_ATTR(name, mode, show, store);
 int driver_create_file(struct device_driver *drv, struct driver_attribute *attr);
@@ -9724,7 +9510,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Macros and functions that manage driver attributes.
 </t>
@@ -9741,7 +9526,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Classes
 struct class_simple *class_simple_create(struct module *owner, char *name);
@@ -9757,7 +9541,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that implement the class_simple interface; they manage simple class entries containing a dev attribute and little else.
 i</t>
@@ -9768,7 +9551,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>nt class_register(struct class *cls);
 void class_unregister(struct class *cls);
@@ -9779,7 +9561,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Registration and unregistration of classes.
 </t>
@@ -9790,7 +9571,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>CLASS_ATTR(name, mode, show, store);
 int class_create_file(struct class *cls, const struct class_attribute *attr);
@@ -9802,7 +9582,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    The usual macros and functions for dealing with class attributes.
 </t>
@@ -9813,7 +9592,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int class_device_register(struct class_device *cd);
 void class_device_unregister(struct class_device *cd);
@@ -9828,7 +9606,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>    Functions and macros that implement the class device interface.
 </t>
@@ -9839,7 +9616,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>int class_interface_register(struct class_interface *intf);
 void class_interface_unregister(struct class_interface *intf);
@@ -9850,7 +9626,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>   Functions that add an interface to a class (or remove it).
 </t>
@@ -9928,6 +9703,17 @@
 Target: prereq1 prereq2 -lfl
     gcc prereq1 prereq2 -lfl -o target
 </t>
+  </si>
+  <si>
+    <t>Invoking make</t>
+  </si>
+  <si>
+    <t>
+$make target
+</t>
+  </si>
+  <si>
+    <t>rules</t>
   </si>
 </sst>
 </file>
@@ -9942,7 +9728,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9964,34 +9749,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -9999,7 +9779,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -10008,7 +9787,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -10016,7 +9794,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -10024,14 +9801,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -19476,10 +19251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19583,6 +19358,22 @@
         <v>925</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>928</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
